--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1532">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3843,160 +3843,406 @@
     <t>2018-01-17 18:09:57</t>
   </si>
   <si>
-    <t>$101.07</t>
-  </si>
-  <si>
-    <t>$104.07</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 925  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-18 10:53:13</t>
-  </si>
-  <si>
-    <t>$10.08</t>
-  </si>
-  <si>
-    <t>$13.08</t>
-  </si>
-  <si>
-    <t>2018-01-18 11:49:38</t>
-  </si>
-  <si>
-    <t>2018-01-18 12:50:46</t>
-  </si>
-  <si>
-    <t>2018-01-18 12:53:57</t>
-  </si>
-  <si>
-    <t>$155.29</t>
-  </si>
-  <si>
-    <t>$158.29</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:00:13</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:03:59</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:04:25</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:05:15</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:15:50</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:20:49</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:34:52</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:38:50</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:41:40</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:48:36</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:49:57</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:56:44</t>
-  </si>
-  <si>
-    <t>2018-01-18 13:59:26</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:01:13</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:02:48</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:09:04</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:14:47</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:22:37</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:30:44</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:31:13</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:33:56</t>
-  </si>
-  <si>
-    <t>2018-01-18 14:40:54</t>
-  </si>
-  <si>
-    <t>2018-01-18 15:34:53</t>
-  </si>
-  <si>
-    <t>2018-01-21 12:11:02</t>
-  </si>
-  <si>
-    <t>2018-01-21 12:11:56</t>
-  </si>
-  <si>
-    <t>2018-01-21 12:12:17</t>
-  </si>
-  <si>
-    <t>2018-01-21 16:22:56</t>
-  </si>
-  <si>
-    <t>2018-01-21 16:27:04</t>
-  </si>
-  <si>
-    <t>$80.86</t>
-  </si>
-  <si>
-    <t>$83.86</t>
-  </si>
-  <si>
-    <t>2018-01-21 16:29:23</t>
-  </si>
-  <si>
-    <t>2018-01-21 16:43:39</t>
-  </si>
-  <si>
-    <t>$101.31</t>
-  </si>
-  <si>
-    <t>$104.31</t>
-  </si>
-  <si>
-    <t>2018-01-23 10:16:36</t>
-  </si>
-  <si>
-    <t>$104.17</t>
-  </si>
-  <si>
-    <t>$107.17</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:57:46</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:08:16</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:11:03</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:13:49</t>
+    <t>$16.98</t>
+  </si>
+  <si>
+    <t>Order ID #920, Kou Lee, Fedex Tracking Number: 425087016999</t>
+  </si>
+  <si>
+    <t>2018-01-18 22:50:04</t>
+  </si>
+  <si>
+    <t>$18.86</t>
+  </si>
+  <si>
+    <t>$21.86</t>
+  </si>
+  <si>
+    <t>Order ID #921, Dario Linares, Fedex Tracking Number: 425087017002</t>
+  </si>
+  <si>
+    <t>2018-01-18 22:54:21</t>
+  </si>
+  <si>
+    <t>Order ID #922, Amina Perry, Fedex Tracking Number: 425087017013</t>
+  </si>
+  <si>
+    <t>2018-01-18 23:00:20</t>
+  </si>
+  <si>
+    <t>Order ID #923, Dale Campbell, Fedex Tracking Number: 425087017024</t>
+  </si>
+  <si>
+    <t>2018-01-18 23:05:04</t>
+  </si>
+  <si>
+    <t>$12.83</t>
+  </si>
+  <si>
+    <t>$15.83</t>
+  </si>
+  <si>
+    <t>Order ID #924, Art Brochet, Fedex Tracking Number: 425087017035</t>
+  </si>
+  <si>
+    <t>2018-01-18 23:08:08</t>
+  </si>
+  <si>
+    <t>$103.92</t>
+  </si>
+  <si>
+    <t>$106.92</t>
+  </si>
+  <si>
+    <t>Order ID #925, Lisa Kemp, Fedex Tracking Number: 425087017046</t>
+  </si>
+  <si>
+    <t>2018-01-18 23:21:09</t>
+  </si>
+  <si>
+    <t>Order ID #928, Irek Mirgaleev, Fedex Tracking Number: 425087017160</t>
+  </si>
+  <si>
+    <t>2018-01-19 22:10:52</t>
+  </si>
+  <si>
+    <t>$19.71</t>
+  </si>
+  <si>
+    <t>$21.71</t>
+  </si>
+  <si>
+    <t>Order ID #929, Brady Rodriguez, Fedex Tracking Number: 425087017219</t>
+  </si>
+  <si>
+    <t>2018-01-19 22:46:48</t>
+  </si>
+  <si>
+    <t>XINYI NINGBO</t>
+  </si>
+  <si>
+    <t>$68.83</t>
+  </si>
+  <si>
+    <t>$71.83</t>
+  </si>
+  <si>
+    <t>Order ID #927, Sung Kyung Kim, Fedex Tracking Number: 425087017127</t>
+  </si>
+  <si>
+    <t>2018-01-19 22:52:34</t>
+  </si>
+  <si>
+    <t>$23.71</t>
+  </si>
+  <si>
+    <t>$26.71</t>
+  </si>
+  <si>
+    <t>Order ID #930, Bryce E Hauch, Fedex Tracking Number: 425087017138</t>
+  </si>
+  <si>
+    <t>2018-01-19 22:54:55</t>
+  </si>
+  <si>
+    <t>$35.18</t>
+  </si>
+  <si>
+    <t>$38.18</t>
+  </si>
+  <si>
+    <t>Order ID #931, Peter F Ulrich, Fedex Tracking Number: 425087017220</t>
+  </si>
+  <si>
+    <t>2018-01-19 22:58:49</t>
+  </si>
+  <si>
+    <t>Order ID #932, Marello Harris, Fedex Tracking Number: 425087017230</t>
+  </si>
+  <si>
+    <t>2018-01-19 23:05:25</t>
+  </si>
+  <si>
+    <t>$32.45</t>
+  </si>
+  <si>
+    <t>$35.45</t>
+  </si>
+  <si>
+    <t>Order ID #933, Bryan Beard, Fedex Tracking Number: 425087017241</t>
+  </si>
+  <si>
+    <t>2018-01-19 23:08:07</t>
+  </si>
+  <si>
+    <t>Order ID #934, Rodnia Pacheo/Karina Mantilla, Fedex Tracking Number: 425087017252</t>
+  </si>
+  <si>
+    <t>2018-01-19 23:11:33</t>
+  </si>
+  <si>
+    <t>$14.88</t>
+  </si>
+  <si>
+    <t>$17.88</t>
+  </si>
+  <si>
+    <t>Order ID #935, Sandra Reynolds, Fedex Tracking Number: 425087017263</t>
+  </si>
+  <si>
+    <t>2018-01-19 23:14:23</t>
+  </si>
+  <si>
+    <t>$20.23</t>
+  </si>
+  <si>
+    <t>$23.23</t>
+  </si>
+  <si>
+    <t>Order ID #936, Dexter Briceno, Fedex Tracking Number: 425087017285</t>
+  </si>
+  <si>
+    <t>2018-01-20 00:34:56</t>
+  </si>
+  <si>
+    <t>$28.97</t>
+  </si>
+  <si>
+    <t>$31.97</t>
+  </si>
+  <si>
+    <t>Order ID #937, Louis B. Katzerman, Fedex Tracking Number: 425087017296</t>
+  </si>
+  <si>
+    <t>2018-01-20 00:37:28</t>
+  </si>
+  <si>
+    <t>$17.02</t>
+  </si>
+  <si>
+    <t>$21.02</t>
+  </si>
+  <si>
+    <t>Order ID #926, Denne Adams, Fedex Tracking Number: 425087017344</t>
+  </si>
+  <si>
+    <t>2018-01-22 18:21:42</t>
+  </si>
+  <si>
+    <t>$20.28</t>
+  </si>
+  <si>
+    <t>$23.28</t>
+  </si>
+  <si>
+    <t>Order ID #939, Yuxuan Wei, Fedex Tracking Number: 425087017366</t>
+  </si>
+  <si>
+    <t>2018-01-23 17:55:04</t>
+  </si>
+  <si>
+    <t>$32.53</t>
+  </si>
+  <si>
+    <t>$35.53</t>
+  </si>
+  <si>
+    <t>Order ID #941, Jan Doran, Fedex Tracking Number: 425087017377</t>
+  </si>
+  <si>
+    <t>2018-01-23 17:56:18</t>
+  </si>
+  <si>
+    <t>$29.04</t>
+  </si>
+  <si>
+    <t>$32.04</t>
+  </si>
+  <si>
+    <t>Order ID #942, Johnny Ramos, Fedex Tracking Number: 425087017388</t>
+  </si>
+  <si>
+    <t>2018-01-23 17:57:57</t>
+  </si>
+  <si>
+    <t>$14.92</t>
+  </si>
+  <si>
+    <t>$17.92</t>
+  </si>
+  <si>
+    <t>Order ID #943, Jordan Lorenzo, Fedex Tracking Number: 425087017399</t>
+  </si>
+  <si>
+    <t>2018-01-23 17:59:39</t>
+  </si>
+  <si>
+    <t>$36.02</t>
+  </si>
+  <si>
+    <t>$39.02</t>
+  </si>
+  <si>
+    <t>Order ID #945, Brian K Cook, Fedex Tracking Number: 425087017403</t>
+  </si>
+  <si>
+    <t>2018-01-23 18:01:42</t>
+  </si>
+  <si>
+    <t>Order ID #946, Jonathan Daws, Fedex Tracking Number: 425087017414</t>
+  </si>
+  <si>
+    <t>2018-01-23 18:03:51</t>
+  </si>
+  <si>
+    <t>$17.15</t>
+  </si>
+  <si>
+    <t>$21.15</t>
+  </si>
+  <si>
+    <t>Order ID #947, Senad B. Kasumovic, Fedex Tracking Number: 425087017436</t>
+  </si>
+  <si>
+    <t>2018-01-23 18:06:50</t>
+  </si>
+  <si>
+    <t>Order ID #948, Kaleb T Anderson, Fedex Tracking Number: 425087017447</t>
+  </si>
+  <si>
+    <t>2018-01-23 18:50:59</t>
+  </si>
+  <si>
+    <t>Order ID #949, Gerald Siebe, Fedex Tracking Number: 425087017458</t>
+  </si>
+  <si>
+    <t>2018-01-23 18:53:02</t>
+  </si>
+  <si>
+    <t>$12.49</t>
+  </si>
+  <si>
+    <t>$15.49</t>
+  </si>
+  <si>
+    <t>Order ID #950, Josefina Ulloa, Fedex Tracking Number: 425087017540</t>
+  </si>
+  <si>
+    <t>2018-01-23 18:57:58</t>
+  </si>
+  <si>
+    <t>$27.50</t>
+  </si>
+  <si>
+    <t>$30.50</t>
+  </si>
+  <si>
+    <t>Order ID #951, Jennifer Stroud, Fedex Tracking Number: 425087017550</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:11:01</t>
+  </si>
+  <si>
+    <t>Order ID #952, Martha Acuna, Fedex Tracking Number: 425087017561</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:13:46</t>
+  </si>
+  <si>
+    <t>Order ID #953, Courtney Newell, Fedex Tracking Number: 425087017572</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:15:56</t>
+  </si>
+  <si>
+    <t>Order ID #954, Nadege Andre, Fedex Tracking Number: 425087017583</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:18:40</t>
+  </si>
+  <si>
+    <t>Order ID #955, Daniel F Mullen III, Fedex Tracking Number: 425087017609</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:20:55</t>
+  </si>
+  <si>
+    <t>Order ID #956, Zhu Xiao Tong, Fedex Tracking Number: 425087017610</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:22:23</t>
+  </si>
+  <si>
+    <t>$24.76</t>
+  </si>
+  <si>
+    <t>$27.76</t>
+  </si>
+  <si>
+    <t>Order ID #957, Abdullah Alotaibi, Fedex Tracking Number: 425087017642</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:23:46</t>
+  </si>
+  <si>
+    <t>Order ID #958, Toni Cummaro, Fedex Tracking Number: 425087017778</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:43:12</t>
+  </si>
+  <si>
+    <t>$11.74</t>
+  </si>
+  <si>
+    <t>$14.74</t>
+  </si>
+  <si>
+    <t>Order ID #959, Zach Westall, Fedex Tracking Number: 425087017789</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:46:20</t>
+  </si>
+  <si>
+    <t>$13.62</t>
+  </si>
+  <si>
+    <t>$16.62</t>
+  </si>
+  <si>
+    <t>Order ID #962, Tana Flowers, Fedex Tracking Number: 425087017815</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:54:12</t>
+  </si>
+  <si>
+    <t>Order ID #960, Glenn Stuart Rockowitz, Fedex Tracking Number: 425087017790</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:55:42</t>
+  </si>
+  <si>
+    <t>$15.90</t>
+  </si>
+  <si>
+    <t>$18.90</t>
+  </si>
+  <si>
+    <t>Order ID #961, Charle A Grant, Fedex Tracking Number: 425087017804</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:56:21</t>
+  </si>
+  <si>
+    <t>$16.90</t>
+  </si>
+  <si>
+    <t>$19.90</t>
+  </si>
+  <si>
+    <t>Order ID #963, Gary Marcus, Fedex Tracking Number: 425087017826</t>
+  </si>
+  <si>
+    <t>2018-01-23 19:59:37</t>
   </si>
   <si>
     <t>$35.27</t>
@@ -4005,34 +4251,367 @@
     <t>$38.27</t>
   </si>
   <si>
-    <t>label fee for order - ID: 930  store order ID: 113-8101758-4483454</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:41:49</t>
-  </si>
-  <si>
-    <t>$24.76</t>
-  </si>
-  <si>
-    <t>$27.76</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 960  store order ID: 114-9638223-4108214</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:47:31</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:56:32</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:57:31</t>
+    <t>Order ID #964, Aleshia A Weldon, Fedex Tracking Number: 425087017837</t>
+  </si>
+  <si>
+    <t>2018-01-23 20:01:57</t>
+  </si>
+  <si>
+    <t>Order ID #965, Craig Parnell, Fedex Tracking Number: 425087017848</t>
+  </si>
+  <si>
+    <t>2018-01-23 21:07:42</t>
+  </si>
+  <si>
+    <t>Order ID #966, Jason Washburn, Fedex Tracking Number: 425087017859</t>
+  </si>
+  <si>
+    <t>2018-01-23 21:09:59</t>
+  </si>
+  <si>
+    <t>$10.88</t>
+  </si>
+  <si>
+    <t>$13.88</t>
+  </si>
+  <si>
+    <t>Order ID #967, Gretchen Carvajal, RIVER ISLANDS, Fedex Tracking Number: 425087017860</t>
+  </si>
+  <si>
+    <t>2018-01-23 21:11:59</t>
+  </si>
+  <si>
+    <t>$19.64</t>
+  </si>
+  <si>
+    <t>$22.64</t>
+  </si>
+  <si>
+    <t>Order ID #973, Stephen Decker, Fedex Tracking Number: 425087017892</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:41:39</t>
+  </si>
+  <si>
+    <t>Order ID #974, Ronald L Sjoblom, Fedex Tracking Number: 425087017907</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:45:40</t>
+  </si>
+  <si>
+    <t>Order ID #975, Robert Gorlick, Fedex Tracking Number: 425087017918</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:48:29</t>
+  </si>
+  <si>
+    <t>Order ID #976, Edda Navarro, Fedex Tracking Number: 425087017929</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:50:45</t>
+  </si>
+  <si>
+    <t>Order ID #977, Anthony Castro, Fedex Tracking Number: 425087017930</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:53:15</t>
+  </si>
+  <si>
+    <t>Order ID #978, Manuel Sanchez, Fedex Tracking Number: 425087017940</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:55:19</t>
+  </si>
+  <si>
+    <t>$49.25</t>
+  </si>
+  <si>
+    <t>$52.25</t>
+  </si>
+  <si>
+    <t>Order ID #979, Antonio Smith, USPS Tracking Number: 	9405503699300174669576</t>
+  </si>
+  <si>
+    <t>2018-01-24 17:58:12</t>
+  </si>
+  <si>
+    <t>$13.39</t>
+  </si>
+  <si>
+    <t>$16.39</t>
+  </si>
+  <si>
+    <t>Order ID #980, Sue QuakenBush, Fedex Tracking Number: 425087017951</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:02:14</t>
+  </si>
+  <si>
+    <t>Order ID #981, Ben Rodden, Fedex Tracking Number: 425087017962</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:04:31</t>
+  </si>
+  <si>
+    <t>Order ID #984, Camilia Martin, Fedex Tracking Number: 425087017973</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:22:07</t>
+  </si>
+  <si>
+    <t>Order ID #985, Jennifer Bagley, Fedex Tracking Number: 425087017984</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:24:19</t>
+  </si>
+  <si>
+    <t>Order ID #986, Andrew Carbuto, Fedex Tracking Number: 425087017995</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:26:02</t>
+  </si>
+  <si>
+    <t>Order ID #987, James Kuo, Fedex Tracking Number: 425087018009</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:27:49</t>
+  </si>
+  <si>
+    <t>$18.64</t>
+  </si>
+  <si>
+    <t>$21.64</t>
+  </si>
+  <si>
+    <t>Order ID #988, Ron J Barlow, Fedex Tracking Number: 425087018010</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:29:48</t>
+  </si>
+  <si>
+    <t>Order ID #989, Joanne Schaeder, Fedex Tracking Number: 425087018020</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:31:47</t>
+  </si>
+  <si>
+    <t>Order ID #990, Catherine Rouiller, Fedex Tracking Number: 425087018031</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:52:34</t>
+  </si>
+  <si>
+    <t>Order ID #991, Fernando Lopez, Fedex Tracking Number: 425087018042</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:54:11</t>
+  </si>
+  <si>
+    <t>Order ID #992, Forres Best Hooser, Fedex Tracking Number: 425087018053</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:55:45</t>
+  </si>
+  <si>
+    <t>Order ID #993, Jon Wood, Fedex Tracking Number: 425087018064</t>
+  </si>
+  <si>
+    <t>2018-01-24 18:57:05</t>
+  </si>
+  <si>
+    <t>Order ID #968, Brian Shacklewood, Fedex Tracking Number: 425087018075</t>
+  </si>
+  <si>
+    <t>2018-01-24 19:09:30</t>
+  </si>
+  <si>
+    <t>Order ID #969, Susan Brown, Fedex Tracking Number: 425087018086</t>
+  </si>
+  <si>
+    <t>2018-01-24 19:15:31</t>
+  </si>
+  <si>
+    <t>Order ID #970, Scott Newlon, Fedex Tracking Number: 425087018097</t>
+  </si>
+  <si>
+    <t>2018-01-24 19:16:30</t>
+  </si>
+  <si>
+    <t>Order ID #971, Yongxian Chen, Fedex Tracking Number: 425087018101</t>
+  </si>
+  <si>
+    <t>2018-01-24 19:19:13</t>
+  </si>
+  <si>
+    <t>Order ID #972, Thienna Ho, Fedex Tracking Number: 425087018112</t>
+  </si>
+  <si>
+    <t>2018-01-24 19:21:56</t>
+  </si>
+  <si>
+    <t>Order ID #994, Shelby Lewis, Fedex Tracking Number: 425087018123</t>
+  </si>
+  <si>
+    <t>2018-01-24 19:24:36</t>
+  </si>
+  <si>
+    <t>Order ID #982, Debra Barber, Fedex Tracking Number: 425087018292</t>
+  </si>
+  <si>
+    <t>2018-01-24 21:21:59</t>
+  </si>
+  <si>
+    <t>Order ID #983, James Maertz, Fedex Tracking Number: 425087018318</t>
+  </si>
+  <si>
+    <t>2018-01-24 21:25:02</t>
+  </si>
+  <si>
+    <t>$39.60</t>
+  </si>
+  <si>
+    <t>$42.60</t>
+  </si>
+  <si>
+    <t>Order ID #995, Ana Romero, USPS Tracking Number: 9405503699300174953255</t>
+  </si>
+  <si>
+    <t>2018-01-24 21:38:31</t>
+  </si>
+  <si>
+    <t>$16.13</t>
+  </si>
+  <si>
+    <t>$19.13</t>
+  </si>
+  <si>
+    <t>Order ID #996, Jessica Green, Fedex Tracking Number: 425087018330</t>
+  </si>
+  <si>
+    <t>2018-01-24 21:42:04</t>
+  </si>
+  <si>
+    <t>Order ID #997, Jesse Armitage, Fedex Tracking Number: 425087018340</t>
+  </si>
+  <si>
+    <t>2018-01-24 21:44:03</t>
+  </si>
+  <si>
+    <t>Order ID #998, Paul Nelson, Fedex Tracking Number: 425087018351</t>
+  </si>
+  <si>
+    <t>2018-01-24 21:46:03</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 999  store order ID: 114-9638223-4108214</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:18:10</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1000  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:29:38</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1001  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:29:41</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1002  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:29:53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1003  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:29:56</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1004  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:29:59</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1005  store order ID: Shopify</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:32:59</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1006  store order ID: Shopify</t>
+  </si>
+  <si>
+    <t>2018-01-25 11:33:02</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1007  store order ID: 114-5987646-0828213</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:36:11</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1008  store order ID: 114-0417088-4009829</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:37:08</t>
+  </si>
+  <si>
+    <t>$20.15</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1009  store order ID: 111-9339449-7779446</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:37:47</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1011  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:37:50</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1010  store order ID: Ebay</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:37:53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1012  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:37:56</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1013  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:40:58</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1017  store order ID: 114-2028140-0506603</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:41:01</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 1015  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-26 13:41:04</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$26,005.58</t>
+    <t>$23,379.99</t>
   </si>
 </sst>
 </file>
@@ -4386,10 +4965,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F603"/>
+  <dimension ref="A1:F653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F603" sqref="F603"/>
+      <selection activeCell="F653" sqref="F653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4398,7 +4977,7 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="78.980713" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="100.118408" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -15545,13 +16124,13 @@
         <v>10</v>
       </c>
       <c r="D558" t="s">
+        <v>553</v>
+      </c>
+      <c r="E558" t="s">
         <v>1276</v>
       </c>
-      <c r="E558" t="s">
+      <c r="F558" t="s">
         <v>1277</v>
-      </c>
-      <c r="F558" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -15559,16 +16138,16 @@
         <v>504</v>
       </c>
       <c r="B559" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C559" t="s">
+        <v>10</v>
+      </c>
+      <c r="D559" t="s">
         <v>1279</v>
       </c>
-      <c r="C559" t="s">
-        <v>10</v>
-      </c>
-      <c r="D559" t="s">
+      <c r="E559" t="s">
         <v>1280</v>
-      </c>
-      <c r="E559" t="s">
-        <v>1267</v>
       </c>
       <c r="F559" t="s">
         <v>1281</v>
@@ -15579,19 +16158,19 @@
         <v>504</v>
       </c>
       <c r="B560" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="E560" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="F560" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -15599,19 +16178,19 @@
         <v>504</v>
       </c>
       <c r="B561" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
       </c>
       <c r="D561" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="E561" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="F561" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -15619,19 +16198,19 @@
         <v>504</v>
       </c>
       <c r="B562" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C562" t="s">
         <v>10</v>
       </c>
       <c r="D562" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E562" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="F562" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -15639,19 +16218,19 @@
         <v>504</v>
       </c>
       <c r="B563" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="E563" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="F563" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -15659,19 +16238,19 @@
         <v>504</v>
       </c>
       <c r="B564" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E564" t="s">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="F564" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -15679,199 +16258,199 @@
         <v>504</v>
       </c>
       <c r="B565" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="E565" t="s">
-        <v>1277</v>
+        <v>1298</v>
       </c>
       <c r="F565" t="s">
-        <v>1289</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="566" spans="1:6">
       <c r="A566" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B566" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566" t="s">
-        <v>1285</v>
+        <v>1302</v>
       </c>
       <c r="E566" t="s">
-        <v>1277</v>
+        <v>1303</v>
       </c>
       <c r="F566" t="s">
-        <v>1290</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="567" spans="1:6">
       <c r="A567" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B567" t="s">
-        <v>1284</v>
+        <v>1305</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
       </c>
       <c r="D567" t="s">
-        <v>1285</v>
+        <v>1306</v>
       </c>
       <c r="E567" t="s">
-        <v>1277</v>
+        <v>1307</v>
       </c>
       <c r="F567" t="s">
-        <v>1291</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B568" t="s">
-        <v>1284</v>
+        <v>1309</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568" t="s">
-        <v>1285</v>
+        <v>1310</v>
       </c>
       <c r="E568" t="s">
-        <v>1277</v>
+        <v>1311</v>
       </c>
       <c r="F568" t="s">
-        <v>1292</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="569" spans="1:6">
       <c r="A569" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B569" t="s">
-        <v>1284</v>
+        <v>1309</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569" t="s">
-        <v>1285</v>
+        <v>1310</v>
       </c>
       <c r="E569" t="s">
-        <v>1277</v>
+        <v>1313</v>
       </c>
       <c r="F569" t="s">
-        <v>1293</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="570" spans="1:6">
       <c r="A570" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B570" t="s">
-        <v>1284</v>
+        <v>1315</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570" t="s">
-        <v>1285</v>
+        <v>1316</v>
       </c>
       <c r="E570" t="s">
-        <v>1277</v>
+        <v>1317</v>
       </c>
       <c r="F570" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="571" spans="1:6">
       <c r="A571" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B571" t="s">
-        <v>1284</v>
+        <v>1315</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571" t="s">
-        <v>1285</v>
+        <v>1316</v>
       </c>
       <c r="E571" t="s">
-        <v>1277</v>
+        <v>1319</v>
       </c>
       <c r="F571" t="s">
-        <v>1295</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="572" spans="1:6">
       <c r="A572" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B572" t="s">
-        <v>1284</v>
+        <v>1321</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572" t="s">
-        <v>1285</v>
+        <v>1322</v>
       </c>
       <c r="E572" t="s">
-        <v>1277</v>
+        <v>1323</v>
       </c>
       <c r="F572" t="s">
-        <v>1296</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="573" spans="1:6">
       <c r="A573" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B573" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
       </c>
       <c r="D573" t="s">
-        <v>1285</v>
+        <v>1326</v>
       </c>
       <c r="E573" t="s">
-        <v>1277</v>
+        <v>1327</v>
       </c>
       <c r="F573" t="s">
-        <v>1297</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="574" spans="1:6">
       <c r="A574" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B574" t="s">
-        <v>1284</v>
+        <v>1329</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574" t="s">
-        <v>1285</v>
+        <v>1330</v>
       </c>
       <c r="E574" t="s">
-        <v>1277</v>
+        <v>1331</v>
       </c>
       <c r="F574" t="s">
-        <v>1298</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -15879,379 +16458,379 @@
         <v>504</v>
       </c>
       <c r="B575" t="s">
-        <v>1284</v>
+        <v>1333</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575" t="s">
-        <v>1285</v>
+        <v>1334</v>
       </c>
       <c r="E575" t="s">
-        <v>1277</v>
+        <v>1335</v>
       </c>
       <c r="F575" t="s">
-        <v>1299</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="576" spans="1:6">
       <c r="A576" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B576" t="s">
-        <v>1275</v>
+        <v>1337</v>
       </c>
       <c r="C576" t="s">
         <v>10</v>
       </c>
       <c r="D576" t="s">
-        <v>1276</v>
+        <v>1338</v>
       </c>
       <c r="E576" t="s">
-        <v>1277</v>
+        <v>1339</v>
       </c>
       <c r="F576" t="s">
-        <v>1300</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="577" spans="1:6">
       <c r="A577" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B577" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="E577" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="F577" t="s">
-        <v>1301</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="578" spans="1:6">
       <c r="A578" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B578" t="s">
-        <v>1275</v>
+        <v>1345</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="E578" t="s">
-        <v>1277</v>
+        <v>1347</v>
       </c>
       <c r="F578" t="s">
-        <v>1302</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="579" spans="1:6">
       <c r="A579" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B579" t="s">
-        <v>1275</v>
+        <v>1349</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
       </c>
       <c r="D579" t="s">
-        <v>1276</v>
+        <v>1350</v>
       </c>
       <c r="E579" t="s">
-        <v>1277</v>
+        <v>1351</v>
       </c>
       <c r="F579" t="s">
-        <v>1303</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="580" spans="1:6">
       <c r="A580" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B580" t="s">
-        <v>1275</v>
+        <v>1353</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580" t="s">
-        <v>1276</v>
+        <v>1354</v>
       </c>
       <c r="E580" t="s">
-        <v>1277</v>
+        <v>1355</v>
       </c>
       <c r="F580" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="A581" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B581" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="E581" t="s">
-        <v>1277</v>
+        <v>1357</v>
       </c>
       <c r="F581" t="s">
-        <v>1305</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="582" spans="1:6">
       <c r="A582" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B582" t="s">
-        <v>1275</v>
+        <v>1359</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582" t="s">
-        <v>1276</v>
+        <v>1360</v>
       </c>
       <c r="E582" t="s">
-        <v>1277</v>
+        <v>1361</v>
       </c>
       <c r="F582" t="s">
-        <v>1306</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="583" spans="1:6">
       <c r="A583" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B583" t="s">
-        <v>1275</v>
+        <v>1353</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583" t="s">
-        <v>1276</v>
+        <v>1354</v>
       </c>
       <c r="E583" t="s">
-        <v>1277</v>
+        <v>1363</v>
       </c>
       <c r="F583" t="s">
-        <v>1307</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="A584" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B584" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="E584" t="s">
-        <v>1277</v>
+        <v>1365</v>
       </c>
       <c r="F584" t="s">
-        <v>1308</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="A585" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B585" t="s">
-        <v>1275</v>
+        <v>1367</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585" t="s">
-        <v>1276</v>
+        <v>1368</v>
       </c>
       <c r="E585" t="s">
-        <v>1277</v>
+        <v>1369</v>
       </c>
       <c r="F585" t="s">
-        <v>1309</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="586" spans="1:6">
       <c r="A586" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B586" t="s">
-        <v>1275</v>
+        <v>1371</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586" t="s">
-        <v>1276</v>
+        <v>1372</v>
       </c>
       <c r="E586" t="s">
-        <v>1277</v>
+        <v>1373</v>
       </c>
       <c r="F586" t="s">
-        <v>1310</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="587" spans="1:6">
       <c r="A587" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B587" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="E587" t="s">
-        <v>1277</v>
+        <v>1375</v>
       </c>
       <c r="F587" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="588" spans="1:6">
       <c r="A588" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B588" t="s">
-        <v>1275</v>
+        <v>1345</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="E588" t="s">
-        <v>1277</v>
+        <v>1377</v>
       </c>
       <c r="F588" t="s">
-        <v>1312</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="A589" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B589" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="E589" t="s">
-        <v>1277</v>
+        <v>1379</v>
       </c>
       <c r="F589" t="s">
-        <v>1313</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="590" spans="1:6">
       <c r="A590" t="s">
-        <v>8</v>
+        <v>1300</v>
       </c>
       <c r="B590" t="s">
-        <v>1314</v>
+        <v>1341</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
       </c>
       <c r="D590" t="s">
-        <v>1315</v>
+        <v>1342</v>
       </c>
       <c r="E590" t="s">
-        <v>1033</v>
+        <v>1381</v>
       </c>
       <c r="F590" t="s">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="591" spans="1:6">
       <c r="A591" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B591" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="C591" t="s">
         <v>10</v>
       </c>
       <c r="D591" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="E591" t="s">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="F591" t="s">
-        <v>1317</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="592" spans="1:6">
       <c r="A592" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B592" t="s">
-        <v>1318</v>
+        <v>1385</v>
       </c>
       <c r="C592" t="s">
         <v>10</v>
       </c>
       <c r="D592" t="s">
-        <v>1319</v>
+        <v>1386</v>
       </c>
       <c r="E592" t="s">
-        <v>1277</v>
+        <v>1387</v>
       </c>
       <c r="F592" t="s">
-        <v>1320</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="593" spans="1:6">
       <c r="A593" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B593" t="s">
-        <v>1321</v>
+        <v>1341</v>
       </c>
       <c r="C593" t="s">
         <v>10</v>
       </c>
       <c r="D593" t="s">
-        <v>1322</v>
+        <v>1342</v>
       </c>
       <c r="E593" t="s">
-        <v>1277</v>
+        <v>1389</v>
       </c>
       <c r="F593" t="s">
-        <v>1323</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -16259,19 +16838,19 @@
         <v>504</v>
       </c>
       <c r="B594" t="s">
-        <v>1321</v>
+        <v>1391</v>
       </c>
       <c r="C594" t="s">
         <v>10</v>
       </c>
       <c r="D594" t="s">
-        <v>1322</v>
+        <v>1392</v>
       </c>
       <c r="E594" t="s">
-        <v>1277</v>
+        <v>1393</v>
       </c>
       <c r="F594" t="s">
-        <v>1324</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -16279,19 +16858,19 @@
         <v>504</v>
       </c>
       <c r="B595" t="s">
-        <v>1321</v>
+        <v>1395</v>
       </c>
       <c r="C595" t="s">
         <v>10</v>
       </c>
       <c r="D595" t="s">
-        <v>1322</v>
+        <v>1396</v>
       </c>
       <c r="E595" t="s">
-        <v>1277</v>
+        <v>1397</v>
       </c>
       <c r="F595" t="s">
-        <v>1325</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -16299,107 +16878,1107 @@
         <v>504</v>
       </c>
       <c r="B596" t="s">
-        <v>1321</v>
+        <v>1391</v>
       </c>
       <c r="C596" t="s">
         <v>10</v>
       </c>
       <c r="D596" t="s">
-        <v>1322</v>
+        <v>1392</v>
       </c>
       <c r="E596" t="s">
-        <v>1277</v>
+        <v>1399</v>
       </c>
       <c r="F596" t="s">
-        <v>1326</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="597" spans="1:6">
       <c r="A597" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="B597" t="s">
-        <v>1327</v>
+        <v>1401</v>
       </c>
       <c r="C597" t="s">
         <v>10</v>
       </c>
       <c r="D597" t="s">
-        <v>1328</v>
+        <v>1402</v>
       </c>
       <c r="E597" t="s">
-        <v>1329</v>
+        <v>1403</v>
       </c>
       <c r="F597" t="s">
-        <v>1330</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="598" spans="1:6">
       <c r="A598" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="B598" t="s">
-        <v>1331</v>
+        <v>1405</v>
       </c>
       <c r="C598" t="s">
         <v>10</v>
       </c>
       <c r="D598" t="s">
-        <v>1332</v>
+        <v>1406</v>
       </c>
       <c r="E598" t="s">
-        <v>1333</v>
+        <v>1407</v>
       </c>
       <c r="F598" t="s">
-        <v>1334</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="599" spans="1:6">
       <c r="A599" t="s">
-        <v>8</v>
+        <v>1300</v>
       </c>
       <c r="B599" t="s">
-        <v>1331</v>
+        <v>1409</v>
       </c>
       <c r="C599" t="s">
         <v>10</v>
       </c>
       <c r="D599" t="s">
-        <v>1332</v>
+        <v>1410</v>
       </c>
       <c r="E599" t="s">
-        <v>1333</v>
+        <v>1411</v>
       </c>
       <c r="F599" t="s">
-        <v>1335</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="600" spans="1:6">
       <c r="A600" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="B600" t="s">
-        <v>1321</v>
+        <v>1345</v>
       </c>
       <c r="C600" t="s">
         <v>10</v>
       </c>
       <c r="D600" t="s">
-        <v>1322</v>
+        <v>1346</v>
       </c>
       <c r="E600" t="s">
-        <v>1277</v>
+        <v>1413</v>
       </c>
       <c r="F600" t="s">
-        <v>1336</v>
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6">
+      <c r="A601" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C601" t="s">
+        <v>10</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6">
+      <c r="A602" t="s">
+        <v>504</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C602" t="s">
+        <v>10</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="603" spans="1:6">
-      <c r="E603" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F603" s="1" t="s">
-        <v>1338</v>
+      <c r="A603" t="s">
+        <v>504</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C603" t="s">
+        <v>10</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6">
+      <c r="A604" t="s">
+        <v>504</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C604" t="s">
+        <v>10</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="A605" t="s">
+        <v>504</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C605" t="s">
+        <v>10</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6">
+      <c r="A606" t="s">
+        <v>504</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C606" t="s">
+        <v>10</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F606" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
+      <c r="A607" t="s">
+        <v>504</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C607" t="s">
+        <v>10</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
+      <c r="A608" t="s">
+        <v>504</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C608" t="s">
+        <v>10</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
+      <c r="A609" t="s">
+        <v>504</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C609" t="s">
+        <v>10</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6">
+      <c r="A610" t="s">
+        <v>504</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C610" t="s">
+        <v>10</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6">
+      <c r="A611" t="s">
+        <v>504</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C611" t="s">
+        <v>10</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6">
+      <c r="A612" t="s">
+        <v>504</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C612" t="s">
+        <v>10</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" t="s">
+        <v>504</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C613" t="s">
+        <v>10</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6">
+      <c r="A614" t="s">
+        <v>504</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C614" t="s">
+        <v>10</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" t="s">
+        <v>504</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C615" t="s">
+        <v>10</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6">
+      <c r="A616" t="s">
+        <v>504</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C616" t="s">
+        <v>10</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F616" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" t="s">
+        <v>504</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C617" t="s">
+        <v>10</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="A618" t="s">
+        <v>504</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C618" t="s">
+        <v>10</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F618" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" t="s">
+        <v>504</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C619" t="s">
+        <v>10</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" t="s">
+        <v>504</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C620" t="s">
+        <v>10</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
+      <c r="A621" t="s">
+        <v>504</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C621" t="s">
+        <v>10</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F621" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6">
+      <c r="A622" t="s">
+        <v>504</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C622" t="s">
+        <v>10</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E622" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
+      <c r="A623" t="s">
+        <v>504</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C623" t="s">
+        <v>10</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E623" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F623" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6">
+      <c r="A624" t="s">
+        <v>504</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C624" t="s">
+        <v>10</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" t="s">
+        <v>504</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C625" t="s">
+        <v>10</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E625" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F625" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6">
+      <c r="A626" t="s">
+        <v>504</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C626" t="s">
+        <v>10</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F626" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6">
+      <c r="A627" t="s">
+        <v>504</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C627" t="s">
+        <v>10</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F627" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6">
+      <c r="A628" t="s">
+        <v>504</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C628" t="s">
+        <v>10</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F628" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6">
+      <c r="A629" t="s">
+        <v>504</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C629" t="s">
+        <v>10</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F629" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
+      <c r="A630" t="s">
+        <v>504</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C630" t="s">
+        <v>10</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F630" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" t="s">
+        <v>504</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C631" t="s">
+        <v>10</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F631" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6">
+      <c r="A632" t="s">
+        <v>504</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C632" t="s">
+        <v>10</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F632" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" t="s">
+        <v>504</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C633" t="s">
+        <v>10</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F633" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" t="s">
+        <v>8</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C634" t="s">
+        <v>10</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" t="s">
+        <v>504</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C635" t="s">
+        <v>10</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6">
+      <c r="A636" t="s">
+        <v>504</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C636" t="s">
+        <v>10</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F636" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" t="s">
+        <v>504</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C637" t="s">
+        <v>10</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F637" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6">
+      <c r="A638" t="s">
+        <v>504</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C638" t="s">
+        <v>10</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" t="s">
+        <v>504</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C639" t="s">
+        <v>10</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
+      <c r="A640" t="s">
+        <v>504</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C640" t="s">
+        <v>10</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F640" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" t="s">
+        <v>504</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C641" t="s">
+        <v>10</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
+      <c r="A642" t="s">
+        <v>8</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C642" t="s">
+        <v>10</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F642" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="A643" t="s">
+        <v>8</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C643" t="s">
+        <v>10</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F643" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
+      <c r="A644" t="s">
+        <v>8</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C644" t="s">
+        <v>10</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F644" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="A645" t="s">
+        <v>504</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C645" t="s">
+        <v>10</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="A646" t="s">
+        <v>504</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C646" t="s">
+        <v>10</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F646" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="A647" t="s">
+        <v>504</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C647" t="s">
+        <v>10</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F647" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6">
+      <c r="A648" t="s">
+        <v>504</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C648" t="s">
+        <v>10</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F648" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6">
+      <c r="A649" t="s">
+        <v>8</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C649" t="s">
+        <v>10</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="A650" t="s">
+        <v>504</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C650" t="s">
+        <v>10</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="E653" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>1531</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1323">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3843,238 +3843,130 @@
     <t>2018-01-17 18:09:57</t>
   </si>
   <si>
-    <t>$16.98</t>
-  </si>
-  <si>
-    <t>Order ID #920, Kou Lee, Fedex Tracking Number: 425087016999</t>
-  </si>
-  <si>
-    <t>2018-01-18 22:50:04</t>
-  </si>
-  <si>
-    <t>$18.86</t>
-  </si>
-  <si>
-    <t>$21.86</t>
-  </si>
-  <si>
-    <t>Order ID #921, Dario Linares, Fedex Tracking Number: 425087017002</t>
-  </si>
-  <si>
-    <t>2018-01-18 22:54:21</t>
-  </si>
-  <si>
-    <t>Order ID #922, Amina Perry, Fedex Tracking Number: 425087017013</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:00:20</t>
-  </si>
-  <si>
-    <t>Order ID #923, Dale Campbell, Fedex Tracking Number: 425087017024</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:05:04</t>
-  </si>
-  <si>
-    <t>$12.83</t>
-  </si>
-  <si>
-    <t>$15.83</t>
-  </si>
-  <si>
-    <t>Order ID #924, Art Brochet, Fedex Tracking Number: 425087017035</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:08:08</t>
-  </si>
-  <si>
-    <t>$103.92</t>
-  </si>
-  <si>
-    <t>$106.92</t>
-  </si>
-  <si>
-    <t>Order ID #925, Lisa Kemp, Fedex Tracking Number: 425087017046</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:21:09</t>
-  </si>
-  <si>
-    <t>Order ID #928, Irek Mirgaleev, Fedex Tracking Number: 425087017160</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:10:52</t>
-  </si>
-  <si>
-    <t>$19.71</t>
-  </si>
-  <si>
-    <t>$21.71</t>
-  </si>
-  <si>
-    <t>Order ID #929, Brady Rodriguez, Fedex Tracking Number: 425087017219</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:46:48</t>
-  </si>
-  <si>
-    <t>XINYI NINGBO</t>
-  </si>
-  <si>
-    <t>$68.83</t>
-  </si>
-  <si>
-    <t>$71.83</t>
-  </si>
-  <si>
-    <t>Order ID #927, Sung Kyung Kim, Fedex Tracking Number: 425087017127</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:52:34</t>
-  </si>
-  <si>
-    <t>$23.71</t>
-  </si>
-  <si>
-    <t>$26.71</t>
-  </si>
-  <si>
-    <t>Order ID #930, Bryce E Hauch, Fedex Tracking Number: 425087017138</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:54:55</t>
-  </si>
-  <si>
-    <t>$35.18</t>
-  </si>
-  <si>
-    <t>$38.18</t>
-  </si>
-  <si>
-    <t>Order ID #931, Peter F Ulrich, Fedex Tracking Number: 425087017220</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:58:49</t>
-  </si>
-  <si>
-    <t>Order ID #932, Marello Harris, Fedex Tracking Number: 425087017230</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:05:25</t>
-  </si>
-  <si>
-    <t>$32.45</t>
-  </si>
-  <si>
-    <t>$35.45</t>
-  </si>
-  <si>
-    <t>Order ID #933, Bryan Beard, Fedex Tracking Number: 425087017241</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:08:07</t>
-  </si>
-  <si>
-    <t>Order ID #934, Rodnia Pacheo/Karina Mantilla, Fedex Tracking Number: 425087017252</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:11:33</t>
-  </si>
-  <si>
-    <t>$14.88</t>
-  </si>
-  <si>
-    <t>$17.88</t>
-  </si>
-  <si>
-    <t>Order ID #935, Sandra Reynolds, Fedex Tracking Number: 425087017263</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:14:23</t>
-  </si>
-  <si>
-    <t>$20.23</t>
-  </si>
-  <si>
-    <t>$23.23</t>
-  </si>
-  <si>
-    <t>Order ID #936, Dexter Briceno, Fedex Tracking Number: 425087017285</t>
-  </si>
-  <si>
-    <t>2018-01-20 00:34:56</t>
-  </si>
-  <si>
-    <t>$28.97</t>
-  </si>
-  <si>
-    <t>$31.97</t>
-  </si>
-  <si>
-    <t>Order ID #937, Louis B. Katzerman, Fedex Tracking Number: 425087017296</t>
-  </si>
-  <si>
-    <t>2018-01-20 00:37:28</t>
-  </si>
-  <si>
-    <t>$17.02</t>
-  </si>
-  <si>
-    <t>$21.02</t>
-  </si>
-  <si>
-    <t>Order ID #926, Denne Adams, Fedex Tracking Number: 425087017344</t>
-  </si>
-  <si>
-    <t>2018-01-22 18:21:42</t>
-  </si>
-  <si>
-    <t>$20.28</t>
-  </si>
-  <si>
-    <t>$23.28</t>
-  </si>
-  <si>
-    <t>Order ID #939, Yuxuan Wei, Fedex Tracking Number: 425087017366</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:55:04</t>
-  </si>
-  <si>
-    <t>$32.53</t>
-  </si>
-  <si>
-    <t>$35.53</t>
-  </si>
-  <si>
-    <t>Order ID #941, Jan Doran, Fedex Tracking Number: 425087017377</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:56:18</t>
-  </si>
-  <si>
-    <t>$29.04</t>
-  </si>
-  <si>
-    <t>$32.04</t>
-  </si>
-  <si>
-    <t>Order ID #942, Johnny Ramos, Fedex Tracking Number: 425087017388</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:57:57</t>
-  </si>
-  <si>
-    <t>$14.92</t>
-  </si>
-  <si>
-    <t>$17.92</t>
-  </si>
-  <si>
-    <t>Order ID #943, Jordan Lorenzo, Fedex Tracking Number: 425087017399</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:59:39</t>
+    <t>$101.07</t>
+  </si>
+  <si>
+    <t>$104.07</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 925  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-18 10:53:13</t>
+  </si>
+  <si>
+    <t>$10.08</t>
+  </si>
+  <si>
+    <t>$13.08</t>
+  </si>
+  <si>
+    <t>2018-01-18 11:49:38</t>
+  </si>
+  <si>
+    <t>2018-01-18 12:50:46</t>
+  </si>
+  <si>
+    <t>2018-01-18 12:53:57</t>
+  </si>
+  <si>
+    <t>$155.29</t>
+  </si>
+  <si>
+    <t>$158.29</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:00:13</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:03:59</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:04:25</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:05:15</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:15:50</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:20:49</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:38:50</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:41:40</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:48:36</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:49:57</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:56:44</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:59:26</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:01:13</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:02:48</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:09:04</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:14:47</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:22:37</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:30:44</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:31:13</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:33:56</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:40:54</t>
+  </si>
+  <si>
+    <t>2018-01-18 15:34:53</t>
+  </si>
+  <si>
+    <t>2018-01-21 12:11:02</t>
+  </si>
+  <si>
+    <t>2018-01-21 12:11:56</t>
+  </si>
+  <si>
+    <t>2018-01-21 12:12:17</t>
+  </si>
+  <si>
+    <t>2018-01-21 16:22:56</t>
+  </si>
+  <si>
+    <t>$24.76</t>
+  </si>
+  <si>
+    <t>$27.76</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 960  store order ID: 114-9638223-4108214</t>
+  </si>
+  <si>
+    <t>2018-01-29 16:53:49</t>
+  </si>
+  <si>
+    <t>2018-01-29 17:03:26</t>
   </si>
   <si>
     <t>$36.02</t>
@@ -4083,535 +3975,16 @@
     <t>$39.02</t>
   </si>
   <si>
-    <t>Order ID #945, Brian K Cook, Fedex Tracking Number: 425087017403</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:01:42</t>
-  </si>
-  <si>
-    <t>Order ID #946, Jonathan Daws, Fedex Tracking Number: 425087017414</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:03:51</t>
-  </si>
-  <si>
-    <t>$17.15</t>
-  </si>
-  <si>
-    <t>$21.15</t>
-  </si>
-  <si>
-    <t>Order ID #947, Senad B. Kasumovic, Fedex Tracking Number: 425087017436</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:06:50</t>
-  </si>
-  <si>
-    <t>Order ID #948, Kaleb T Anderson, Fedex Tracking Number: 425087017447</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:50:59</t>
-  </si>
-  <si>
-    <t>Order ID #949, Gerald Siebe, Fedex Tracking Number: 425087017458</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:53:02</t>
-  </si>
-  <si>
-    <t>$12.49</t>
-  </si>
-  <si>
-    <t>$15.49</t>
-  </si>
-  <si>
-    <t>Order ID #950, Josefina Ulloa, Fedex Tracking Number: 425087017540</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:57:58</t>
-  </si>
-  <si>
-    <t>$27.50</t>
-  </si>
-  <si>
-    <t>$30.50</t>
-  </si>
-  <si>
-    <t>Order ID #951, Jennifer Stroud, Fedex Tracking Number: 425087017550</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:11:01</t>
-  </si>
-  <si>
-    <t>Order ID #952, Martha Acuna, Fedex Tracking Number: 425087017561</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:13:46</t>
-  </si>
-  <si>
-    <t>Order ID #953, Courtney Newell, Fedex Tracking Number: 425087017572</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:15:56</t>
-  </si>
-  <si>
-    <t>Order ID #954, Nadege Andre, Fedex Tracking Number: 425087017583</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:18:40</t>
-  </si>
-  <si>
-    <t>Order ID #955, Daniel F Mullen III, Fedex Tracking Number: 425087017609</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:20:55</t>
-  </si>
-  <si>
-    <t>Order ID #956, Zhu Xiao Tong, Fedex Tracking Number: 425087017610</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:22:23</t>
-  </si>
-  <si>
-    <t>$24.76</t>
-  </si>
-  <si>
-    <t>$27.76</t>
-  </si>
-  <si>
-    <t>Order ID #957, Abdullah Alotaibi, Fedex Tracking Number: 425087017642</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:23:46</t>
-  </si>
-  <si>
-    <t>Order ID #958, Toni Cummaro, Fedex Tracking Number: 425087017778</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:43:12</t>
-  </si>
-  <si>
-    <t>$11.74</t>
-  </si>
-  <si>
-    <t>$14.74</t>
-  </si>
-  <si>
-    <t>Order ID #959, Zach Westall, Fedex Tracking Number: 425087017789</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:46:20</t>
-  </si>
-  <si>
-    <t>$13.62</t>
-  </si>
-  <si>
-    <t>$16.62</t>
-  </si>
-  <si>
-    <t>Order ID #962, Tana Flowers, Fedex Tracking Number: 425087017815</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:54:12</t>
-  </si>
-  <si>
-    <t>Order ID #960, Glenn Stuart Rockowitz, Fedex Tracking Number: 425087017790</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:55:42</t>
-  </si>
-  <si>
-    <t>$15.90</t>
-  </si>
-  <si>
-    <t>$18.90</t>
-  </si>
-  <si>
-    <t>Order ID #961, Charle A Grant, Fedex Tracking Number: 425087017804</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:56:21</t>
-  </si>
-  <si>
-    <t>$16.90</t>
-  </si>
-  <si>
-    <t>$19.90</t>
-  </si>
-  <si>
-    <t>Order ID #963, Gary Marcus, Fedex Tracking Number: 425087017826</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:59:37</t>
-  </si>
-  <si>
-    <t>$35.27</t>
-  </si>
-  <si>
-    <t>$38.27</t>
-  </si>
-  <si>
-    <t>Order ID #964, Aleshia A Weldon, Fedex Tracking Number: 425087017837</t>
-  </si>
-  <si>
-    <t>2018-01-23 20:01:57</t>
-  </si>
-  <si>
-    <t>Order ID #965, Craig Parnell, Fedex Tracking Number: 425087017848</t>
-  </si>
-  <si>
-    <t>2018-01-23 21:07:42</t>
-  </si>
-  <si>
-    <t>Order ID #966, Jason Washburn, Fedex Tracking Number: 425087017859</t>
-  </si>
-  <si>
-    <t>2018-01-23 21:09:59</t>
-  </si>
-  <si>
-    <t>$10.88</t>
-  </si>
-  <si>
-    <t>$13.88</t>
-  </si>
-  <si>
-    <t>Order ID #967, Gretchen Carvajal, RIVER ISLANDS, Fedex Tracking Number: 425087017860</t>
-  </si>
-  <si>
-    <t>2018-01-23 21:11:59</t>
-  </si>
-  <si>
-    <t>$19.64</t>
-  </si>
-  <si>
-    <t>$22.64</t>
-  </si>
-  <si>
-    <t>Order ID #973, Stephen Decker, Fedex Tracking Number: 425087017892</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:41:39</t>
-  </si>
-  <si>
-    <t>Order ID #974, Ronald L Sjoblom, Fedex Tracking Number: 425087017907</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:45:40</t>
-  </si>
-  <si>
-    <t>Order ID #975, Robert Gorlick, Fedex Tracking Number: 425087017918</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:48:29</t>
-  </si>
-  <si>
-    <t>Order ID #976, Edda Navarro, Fedex Tracking Number: 425087017929</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:50:45</t>
-  </si>
-  <si>
-    <t>Order ID #977, Anthony Castro, Fedex Tracking Number: 425087017930</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:53:15</t>
-  </si>
-  <si>
-    <t>Order ID #978, Manuel Sanchez, Fedex Tracking Number: 425087017940</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:55:19</t>
-  </si>
-  <si>
-    <t>$49.25</t>
-  </si>
-  <si>
-    <t>$52.25</t>
-  </si>
-  <si>
-    <t>Order ID #979, Antonio Smith, USPS Tracking Number: 	9405503699300174669576</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:58:12</t>
-  </si>
-  <si>
-    <t>$13.39</t>
-  </si>
-  <si>
-    <t>$16.39</t>
-  </si>
-  <si>
-    <t>Order ID #980, Sue QuakenBush, Fedex Tracking Number: 425087017951</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:02:14</t>
-  </si>
-  <si>
-    <t>Order ID #981, Ben Rodden, Fedex Tracking Number: 425087017962</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:04:31</t>
-  </si>
-  <si>
-    <t>Order ID #984, Camilia Martin, Fedex Tracking Number: 425087017973</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:22:07</t>
-  </si>
-  <si>
-    <t>Order ID #985, Jennifer Bagley, Fedex Tracking Number: 425087017984</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:24:19</t>
-  </si>
-  <si>
-    <t>Order ID #986, Andrew Carbuto, Fedex Tracking Number: 425087017995</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:26:02</t>
-  </si>
-  <si>
-    <t>Order ID #987, James Kuo, Fedex Tracking Number: 425087018009</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:27:49</t>
-  </si>
-  <si>
-    <t>$18.64</t>
-  </si>
-  <si>
-    <t>$21.64</t>
-  </si>
-  <si>
-    <t>Order ID #988, Ron J Barlow, Fedex Tracking Number: 425087018010</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:29:48</t>
-  </si>
-  <si>
-    <t>Order ID #989, Joanne Schaeder, Fedex Tracking Number: 425087018020</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:31:47</t>
-  </si>
-  <si>
-    <t>Order ID #990, Catherine Rouiller, Fedex Tracking Number: 425087018031</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:52:34</t>
-  </si>
-  <si>
-    <t>Order ID #991, Fernando Lopez, Fedex Tracking Number: 425087018042</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:54:11</t>
-  </si>
-  <si>
-    <t>Order ID #992, Forres Best Hooser, Fedex Tracking Number: 425087018053</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:55:45</t>
-  </si>
-  <si>
-    <t>Order ID #993, Jon Wood, Fedex Tracking Number: 425087018064</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:57:05</t>
-  </si>
-  <si>
-    <t>Order ID #968, Brian Shacklewood, Fedex Tracking Number: 425087018075</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:09:30</t>
-  </si>
-  <si>
-    <t>Order ID #969, Susan Brown, Fedex Tracking Number: 425087018086</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:15:31</t>
-  </si>
-  <si>
-    <t>Order ID #970, Scott Newlon, Fedex Tracking Number: 425087018097</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:16:30</t>
-  </si>
-  <si>
-    <t>Order ID #971, Yongxian Chen, Fedex Tracking Number: 425087018101</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:19:13</t>
-  </si>
-  <si>
-    <t>Order ID #972, Thienna Ho, Fedex Tracking Number: 425087018112</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:21:56</t>
-  </si>
-  <si>
-    <t>Order ID #994, Shelby Lewis, Fedex Tracking Number: 425087018123</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:24:36</t>
-  </si>
-  <si>
-    <t>Order ID #982, Debra Barber, Fedex Tracking Number: 425087018292</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:21:59</t>
-  </si>
-  <si>
-    <t>Order ID #983, James Maertz, Fedex Tracking Number: 425087018318</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:25:02</t>
-  </si>
-  <si>
-    <t>$39.60</t>
-  </si>
-  <si>
-    <t>$42.60</t>
-  </si>
-  <si>
-    <t>Order ID #995, Ana Romero, USPS Tracking Number: 9405503699300174953255</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:38:31</t>
-  </si>
-  <si>
-    <t>$16.13</t>
-  </si>
-  <si>
-    <t>$19.13</t>
-  </si>
-  <si>
-    <t>Order ID #996, Jessica Green, Fedex Tracking Number: 425087018330</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:42:04</t>
-  </si>
-  <si>
-    <t>Order ID #997, Jesse Armitage, Fedex Tracking Number: 425087018340</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:44:03</t>
-  </si>
-  <si>
-    <t>Order ID #998, Paul Nelson, Fedex Tracking Number: 425087018351</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:46:03</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 999  store order ID: 114-9638223-4108214</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:18:10</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1000  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:38</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1001  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:41</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1002  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1003  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:56</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1004  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1005  store order ID: Shopify</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:32:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1006  store order ID: Shopify</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:33:02</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1007  store order ID: 114-5987646-0828213</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:36:11</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1008  store order ID: 114-0417088-4009829</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:08</t>
-  </si>
-  <si>
-    <t>$20.15</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1009  store order ID: 111-9339449-7779446</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:47</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1011  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:50</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1010  store order ID: Ebay</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1012  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:56</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1013  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:40:58</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1017  store order ID: 114-2028140-0506603</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:41:01</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1015  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:41:04</t>
+    <t>label fee for order - ID: 946  store order ID: 111-8003915-7649066</t>
+  </si>
+  <si>
+    <t>2018-01-30 11:51:39</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$23,379.99</t>
+    <t>$24,915.88</t>
   </si>
 </sst>
 </file>
@@ -4965,10 +4338,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F653"/>
+  <dimension ref="A1:F593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F653" sqref="F653"/>
+      <selection activeCell="F593" sqref="F593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4977,7 +4350,7 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="100.118408" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="78.980713" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -16124,13 +15497,13 @@
         <v>10</v>
       </c>
       <c r="D558" t="s">
-        <v>553</v>
+        <v>1276</v>
       </c>
       <c r="E558" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F558" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -16138,16 +15511,16 @@
         <v>504</v>
       </c>
       <c r="B559" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
       <c r="D559" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E559" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="F559" t="s">
         <v>1281</v>
@@ -16158,19 +15531,19 @@
         <v>504</v>
       </c>
       <c r="B560" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E560" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F560" t="s">
         <v>1282</v>
-      </c>
-      <c r="F560" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -16178,19 +15551,19 @@
         <v>504</v>
       </c>
       <c r="B561" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
       </c>
       <c r="D561" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E561" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="F561" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -16198,19 +15571,19 @@
         <v>504</v>
       </c>
       <c r="B562" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F562" t="s">
         <v>1286</v>
-      </c>
-      <c r="C562" t="s">
-        <v>10</v>
-      </c>
-      <c r="D562" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E562" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -16218,19 +15591,19 @@
         <v>504</v>
       </c>
       <c r="B563" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E563" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="F563" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -16238,19 +15611,19 @@
         <v>504</v>
       </c>
       <c r="B564" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="E564" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="F564" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -16258,199 +15631,199 @@
         <v>504</v>
       </c>
       <c r="B565" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="E565" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="F565" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="566" spans="1:6">
       <c r="A566" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B566" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="E566" t="s">
-        <v>1303</v>
+        <v>1277</v>
       </c>
       <c r="F566" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="567" spans="1:6">
       <c r="A567" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B567" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
       </c>
       <c r="D567" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="E567" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
       <c r="F567" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B568" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="E568" t="s">
-        <v>1311</v>
+        <v>1277</v>
       </c>
       <c r="F568" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="569" spans="1:6">
       <c r="A569" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B569" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="E569" t="s">
-        <v>1313</v>
+        <v>1277</v>
       </c>
       <c r="F569" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="570" spans="1:6">
       <c r="A570" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B570" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="E570" t="s">
-        <v>1317</v>
+        <v>1277</v>
       </c>
       <c r="F570" t="s">
-        <v>1318</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="571" spans="1:6">
       <c r="A571" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B571" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="E571" t="s">
-        <v>1319</v>
+        <v>1277</v>
       </c>
       <c r="F571" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="572" spans="1:6">
       <c r="A572" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B572" t="s">
-        <v>1321</v>
+        <v>1284</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572" t="s">
-        <v>1322</v>
+        <v>1285</v>
       </c>
       <c r="E572" t="s">
-        <v>1323</v>
+        <v>1277</v>
       </c>
       <c r="F572" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="573" spans="1:6">
       <c r="A573" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B573" t="s">
-        <v>1325</v>
+        <v>1284</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
       </c>
       <c r="D573" t="s">
-        <v>1326</v>
+        <v>1285</v>
       </c>
       <c r="E573" t="s">
-        <v>1327</v>
+        <v>1277</v>
       </c>
       <c r="F573" t="s">
-        <v>1328</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="574" spans="1:6">
       <c r="A574" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B574" t="s">
-        <v>1329</v>
+        <v>1284</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574" t="s">
-        <v>1330</v>
+        <v>1285</v>
       </c>
       <c r="E574" t="s">
-        <v>1331</v>
+        <v>1277</v>
       </c>
       <c r="F574" t="s">
-        <v>1332</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -16458,1527 +15831,327 @@
         <v>504</v>
       </c>
       <c r="B575" t="s">
-        <v>1333</v>
+        <v>1275</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575" t="s">
-        <v>1334</v>
+        <v>1276</v>
       </c>
       <c r="E575" t="s">
-        <v>1335</v>
+        <v>1277</v>
       </c>
       <c r="F575" t="s">
-        <v>1336</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="576" spans="1:6">
       <c r="A576" t="s">
+        <v>504</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F576" t="s">
         <v>1300</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C576" t="s">
-        <v>10</v>
-      </c>
-      <c r="D576" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E576" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="577" spans="1:6">
       <c r="A577" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B577" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E577" t="s">
-        <v>1343</v>
+        <v>1277</v>
       </c>
       <c r="F577" t="s">
-        <v>1344</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="578" spans="1:6">
       <c r="A578" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B578" t="s">
-        <v>1345</v>
+        <v>1275</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578" t="s">
-        <v>1346</v>
+        <v>1276</v>
       </c>
       <c r="E578" t="s">
-        <v>1347</v>
+        <v>1277</v>
       </c>
       <c r="F578" t="s">
-        <v>1348</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="579" spans="1:6">
       <c r="A579" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B579" t="s">
-        <v>1349</v>
+        <v>1275</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
       </c>
       <c r="D579" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="E579" t="s">
-        <v>1351</v>
+        <v>1277</v>
       </c>
       <c r="F579" t="s">
-        <v>1352</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="580" spans="1:6">
       <c r="A580" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B580" t="s">
-        <v>1353</v>
+        <v>1275</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580" t="s">
-        <v>1354</v>
+        <v>1276</v>
       </c>
       <c r="E580" t="s">
-        <v>1355</v>
+        <v>1277</v>
       </c>
       <c r="F580" t="s">
-        <v>1356</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="A581" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B581" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E581" t="s">
-        <v>1357</v>
+        <v>1277</v>
       </c>
       <c r="F581" t="s">
-        <v>1358</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="582" spans="1:6">
       <c r="A582" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B582" t="s">
-        <v>1359</v>
+        <v>1275</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582" t="s">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="E582" t="s">
-        <v>1361</v>
+        <v>1277</v>
       </c>
       <c r="F582" t="s">
-        <v>1362</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="583" spans="1:6">
       <c r="A583" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B583" t="s">
-        <v>1353</v>
+        <v>1275</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583" t="s">
-        <v>1354</v>
+        <v>1276</v>
       </c>
       <c r="E583" t="s">
-        <v>1363</v>
+        <v>1277</v>
       </c>
       <c r="F583" t="s">
-        <v>1364</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="A584" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B584" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E584" t="s">
-        <v>1365</v>
+        <v>1277</v>
       </c>
       <c r="F584" t="s">
-        <v>1366</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="A585" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B585" t="s">
-        <v>1367</v>
+        <v>1275</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585" t="s">
-        <v>1368</v>
+        <v>1276</v>
       </c>
       <c r="E585" t="s">
-        <v>1369</v>
+        <v>1277</v>
       </c>
       <c r="F585" t="s">
-        <v>1370</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="586" spans="1:6">
       <c r="A586" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B586" t="s">
-        <v>1371</v>
+        <v>1275</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586" t="s">
-        <v>1372</v>
+        <v>1276</v>
       </c>
       <c r="E586" t="s">
-        <v>1373</v>
+        <v>1277</v>
       </c>
       <c r="F586" t="s">
-        <v>1374</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="587" spans="1:6">
       <c r="A587" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B587" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E587" t="s">
-        <v>1375</v>
+        <v>1277</v>
       </c>
       <c r="F587" t="s">
-        <v>1376</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="588" spans="1:6">
       <c r="A588" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B588" t="s">
-        <v>1345</v>
+        <v>1312</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588" t="s">
-        <v>1346</v>
+        <v>1313</v>
       </c>
       <c r="E588" t="s">
-        <v>1377</v>
+        <v>1314</v>
       </c>
       <c r="F588" t="s">
-        <v>1378</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="A589" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B589" t="s">
-        <v>1341</v>
+        <v>1312</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="E589" t="s">
-        <v>1379</v>
+        <v>1314</v>
       </c>
       <c r="F589" t="s">
-        <v>1380</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="590" spans="1:6">
       <c r="A590" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B590" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
       </c>
       <c r="D590" t="s">
-        <v>1342</v>
+        <v>1318</v>
       </c>
       <c r="E590" t="s">
-        <v>1381</v>
+        <v>1319</v>
       </c>
       <c r="F590" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6">
-      <c r="A591" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C591" t="s">
-        <v>10</v>
-      </c>
-      <c r="D591" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6">
-      <c r="A592" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C592" t="s">
-        <v>10</v>
-      </c>
-      <c r="D592" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E592" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1388</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="593" spans="1:6">
-      <c r="A593" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C593" t="s">
-        <v>10</v>
-      </c>
-      <c r="D593" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E593" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F593" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6">
-      <c r="A594" t="s">
-        <v>504</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C594" t="s">
-        <v>10</v>
-      </c>
-      <c r="D594" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6">
-      <c r="A595" t="s">
-        <v>504</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C595" t="s">
-        <v>10</v>
-      </c>
-      <c r="D595" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E595" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F595" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6">
-      <c r="A596" t="s">
-        <v>504</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C596" t="s">
-        <v>10</v>
-      </c>
-      <c r="D596" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F596" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="A597" t="s">
-        <v>504</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C597" t="s">
-        <v>10</v>
-      </c>
-      <c r="D597" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E597" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6">
-      <c r="A598" t="s">
-        <v>504</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C598" t="s">
-        <v>10</v>
-      </c>
-      <c r="D598" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E598" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6">
-      <c r="A599" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C599" t="s">
-        <v>10</v>
-      </c>
-      <c r="D599" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E599" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F599" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6">
-      <c r="A600" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C600" t="s">
-        <v>10</v>
-      </c>
-      <c r="D600" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E600" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F600" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6">
-      <c r="A601" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C601" t="s">
-        <v>10</v>
-      </c>
-      <c r="D601" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E601" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6">
-      <c r="A602" t="s">
-        <v>504</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C602" t="s">
-        <v>10</v>
-      </c>
-      <c r="D602" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E602" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F602" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6">
-      <c r="A603" t="s">
-        <v>504</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C603" t="s">
-        <v>10</v>
-      </c>
-      <c r="D603" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E603" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6">
-      <c r="A604" t="s">
-        <v>504</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C604" t="s">
-        <v>10</v>
-      </c>
-      <c r="D604" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E604" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F604" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="605" spans="1:6">
-      <c r="A605" t="s">
-        <v>504</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C605" t="s">
-        <v>10</v>
-      </c>
-      <c r="D605" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E605" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F605" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="606" spans="1:6">
-      <c r="A606" t="s">
-        <v>504</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C606" t="s">
-        <v>10</v>
-      </c>
-      <c r="D606" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E606" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F606" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6">
-      <c r="A607" t="s">
-        <v>504</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C607" t="s">
-        <v>10</v>
-      </c>
-      <c r="D607" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E607" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6">
-      <c r="A608" t="s">
-        <v>504</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C608" t="s">
-        <v>10</v>
-      </c>
-      <c r="D608" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E608" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F608" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6">
-      <c r="A609" t="s">
-        <v>504</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C609" t="s">
-        <v>10</v>
-      </c>
-      <c r="D609" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E609" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F609" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="610" spans="1:6">
-      <c r="A610" t="s">
-        <v>504</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C610" t="s">
-        <v>10</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E610" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F610" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="611" spans="1:6">
-      <c r="A611" t="s">
-        <v>504</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C611" t="s">
-        <v>10</v>
-      </c>
-      <c r="D611" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E611" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F611" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="612" spans="1:6">
-      <c r="A612" t="s">
-        <v>504</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C612" t="s">
-        <v>10</v>
-      </c>
-      <c r="D612" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E612" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="613" spans="1:6">
-      <c r="A613" t="s">
-        <v>504</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C613" t="s">
-        <v>10</v>
-      </c>
-      <c r="D613" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E613" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F613" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="614" spans="1:6">
-      <c r="A614" t="s">
-        <v>504</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C614" t="s">
-        <v>10</v>
-      </c>
-      <c r="D614" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E614" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6">
-      <c r="A615" t="s">
-        <v>504</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C615" t="s">
-        <v>10</v>
-      </c>
-      <c r="D615" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E615" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F615" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6">
-      <c r="A616" t="s">
-        <v>504</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C616" t="s">
-        <v>10</v>
-      </c>
-      <c r="D616" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E616" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F616" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="617" spans="1:6">
-      <c r="A617" t="s">
-        <v>504</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C617" t="s">
-        <v>10</v>
-      </c>
-      <c r="D617" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E617" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F617" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="618" spans="1:6">
-      <c r="A618" t="s">
-        <v>504</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C618" t="s">
-        <v>10</v>
-      </c>
-      <c r="D618" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E618" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6">
-      <c r="A619" t="s">
-        <v>504</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C619" t="s">
-        <v>10</v>
-      </c>
-      <c r="D619" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E619" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="620" spans="1:6">
-      <c r="A620" t="s">
-        <v>504</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C620" t="s">
-        <v>10</v>
-      </c>
-      <c r="D620" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F620" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="621" spans="1:6">
-      <c r="A621" t="s">
-        <v>504</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C621" t="s">
-        <v>10</v>
-      </c>
-      <c r="D621" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E621" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F621" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6">
-      <c r="A622" t="s">
-        <v>504</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C622" t="s">
-        <v>10</v>
-      </c>
-      <c r="D622" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E622" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F622" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6">
-      <c r="A623" t="s">
-        <v>504</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C623" t="s">
-        <v>10</v>
-      </c>
-      <c r="D623" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E623" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F623" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6">
-      <c r="A624" t="s">
-        <v>504</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C624" t="s">
-        <v>10</v>
-      </c>
-      <c r="D624" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E624" t="s">
-        <v>1471</v>
-      </c>
-      <c r="F624" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6">
-      <c r="A625" t="s">
-        <v>504</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C625" t="s">
-        <v>10</v>
-      </c>
-      <c r="D625" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E625" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F625" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6">
-      <c r="A626" t="s">
-        <v>504</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C626" t="s">
-        <v>10</v>
-      </c>
-      <c r="D626" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E626" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F626" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6">
-      <c r="A627" t="s">
-        <v>504</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C627" t="s">
-        <v>10</v>
-      </c>
-      <c r="D627" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E627" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F627" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6">
-      <c r="A628" t="s">
-        <v>504</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C628" t="s">
-        <v>10</v>
-      </c>
-      <c r="D628" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E628" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F628" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="629" spans="1:6">
-      <c r="A629" t="s">
-        <v>504</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C629" t="s">
-        <v>10</v>
-      </c>
-      <c r="D629" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E629" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F629" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6">
-      <c r="A630" t="s">
-        <v>504</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C630" t="s">
-        <v>10</v>
-      </c>
-      <c r="D630" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E630" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F630" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
-      <c r="A631" t="s">
-        <v>504</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C631" t="s">
-        <v>10</v>
-      </c>
-      <c r="D631" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E631" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F631" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6">
-      <c r="A632" t="s">
-        <v>504</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C632" t="s">
-        <v>10</v>
-      </c>
-      <c r="D632" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E632" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F632" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="A633" t="s">
-        <v>504</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C633" t="s">
-        <v>10</v>
-      </c>
-      <c r="D633" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E633" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F633" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6">
-      <c r="A634" t="s">
-        <v>8</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C634" t="s">
-        <v>10</v>
-      </c>
-      <c r="D634" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E634" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F634" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6">
-      <c r="A635" t="s">
-        <v>504</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C635" t="s">
-        <v>10</v>
-      </c>
-      <c r="D635" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E635" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F635" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6">
-      <c r="A636" t="s">
-        <v>504</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C636" t="s">
-        <v>10</v>
-      </c>
-      <c r="D636" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E636" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F636" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6">
-      <c r="A637" t="s">
-        <v>504</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C637" t="s">
-        <v>10</v>
-      </c>
-      <c r="D637" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E637" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F637" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="638" spans="1:6">
-      <c r="A638" t="s">
-        <v>504</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C638" t="s">
-        <v>10</v>
-      </c>
-      <c r="D638" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E638" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F638" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6">
-      <c r="A639" t="s">
-        <v>504</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C639" t="s">
-        <v>10</v>
-      </c>
-      <c r="D639" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E639" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F639" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6">
-      <c r="A640" t="s">
-        <v>504</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C640" t="s">
-        <v>10</v>
-      </c>
-      <c r="D640" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E640" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F640" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6">
-      <c r="A641" t="s">
-        <v>504</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C641" t="s">
-        <v>10</v>
-      </c>
-      <c r="D641" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E641" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F641" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6">
-      <c r="A642" t="s">
-        <v>8</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C642" t="s">
-        <v>10</v>
-      </c>
-      <c r="D642" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E642" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F642" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6">
-      <c r="A643" t="s">
-        <v>8</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C643" t="s">
-        <v>10</v>
-      </c>
-      <c r="D643" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E643" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F643" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6">
-      <c r="A644" t="s">
-        <v>8</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C644" t="s">
-        <v>10</v>
-      </c>
-      <c r="D644" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E644" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F644" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="645" spans="1:6">
-      <c r="A645" t="s">
-        <v>504</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C645" t="s">
-        <v>10</v>
-      </c>
-      <c r="D645" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E645" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F645" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6">
-      <c r="A646" t="s">
-        <v>504</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C646" t="s">
-        <v>10</v>
-      </c>
-      <c r="D646" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E646" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F646" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6">
-      <c r="A647" t="s">
-        <v>504</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C647" t="s">
-        <v>10</v>
-      </c>
-      <c r="D647" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E647" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F647" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6">
-      <c r="A648" t="s">
-        <v>504</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C648" t="s">
-        <v>10</v>
-      </c>
-      <c r="D648" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E648" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F648" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="649" spans="1:6">
-      <c r="A649" t="s">
-        <v>8</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C649" t="s">
-        <v>10</v>
-      </c>
-      <c r="D649" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E649" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F649" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="650" spans="1:6">
-      <c r="A650" t="s">
-        <v>504</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C650" t="s">
-        <v>10</v>
-      </c>
-      <c r="D650" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E650" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F650" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6">
-      <c r="E653" s="1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F653" s="1" t="s">
-        <v>1531</v>
+      <c r="E593" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>1322</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1330">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3981,10 +3981,31 @@
     <t>2018-01-30 11:51:39</t>
   </si>
   <si>
+    <t>$73.24</t>
+  </si>
+  <si>
+    <t>$76.24</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 943  store order ID: 112-7833982-8017009</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:23</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:42</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:49</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:57</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$24,915.88</t>
+    <t>$25,220.84</t>
   </si>
 </sst>
 </file>
@@ -4338,10 +4359,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F593"/>
+  <dimension ref="A1:F597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F593" sqref="F593"/>
+      <selection activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16146,12 +16167,92 @@
         <v>1320</v>
       </c>
     </row>
+    <row r="591" spans="1:6">
+      <c r="A591" t="s">
+        <v>8</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C591" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="A592" t="s">
+        <v>8</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C592" t="s">
+        <v>10</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1325</v>
+      </c>
+    </row>
     <row r="593" spans="1:6">
-      <c r="E593" s="1" t="s">
+      <c r="A593" t="s">
+        <v>8</v>
+      </c>
+      <c r="B593" t="s">
         <v>1321</v>
       </c>
-      <c r="F593" s="1" t="s">
+      <c r="C593" t="s">
+        <v>10</v>
+      </c>
+      <c r="D593" t="s">
         <v>1322</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="A594" t="s">
+        <v>8</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6">
+      <c r="E597" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1335">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3843,2260 +3843,184 @@
     <t>2018-01-17 18:09:57</t>
   </si>
   <si>
-    <t>$16.98</t>
-  </si>
-  <si>
-    <t>Order ID #920, Kou Lee, Fedex Tracking Number: 425087016999</t>
-  </si>
-  <si>
-    <t>2018-01-18 22:50:04</t>
-  </si>
-  <si>
-    <t>$18.86</t>
-  </si>
-  <si>
-    <t>$21.86</t>
-  </si>
-  <si>
-    <t>Order ID #921, Dario Linares, Fedex Tracking Number: 425087017002</t>
-  </si>
-  <si>
-    <t>2018-01-18 22:54:21</t>
-  </si>
-  <si>
-    <t>Order ID #922, Amina Perry, Fedex Tracking Number: 425087017013</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:00:20</t>
-  </si>
-  <si>
-    <t>Order ID #923, Dale Campbell, Fedex Tracking Number: 425087017024</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:05:04</t>
-  </si>
-  <si>
-    <t>$12.83</t>
-  </si>
-  <si>
-    <t>$15.83</t>
-  </si>
-  <si>
-    <t>Order ID #924, Art Brochet, Fedex Tracking Number: 425087017035</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:08:08</t>
-  </si>
-  <si>
-    <t>$103.92</t>
-  </si>
-  <si>
-    <t>$106.92</t>
-  </si>
-  <si>
-    <t>Order ID #925, Lisa Kemp, Fedex Tracking Number: 425087017046</t>
-  </si>
-  <si>
-    <t>2018-01-18 23:21:09</t>
-  </si>
-  <si>
-    <t>Order ID #928, Irek Mirgaleev, Fedex Tracking Number: 425087017160</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:10:52</t>
-  </si>
-  <si>
-    <t>$19.71</t>
-  </si>
-  <si>
-    <t>$21.71</t>
-  </si>
-  <si>
-    <t>Order ID #929, Brady Rodriguez, Fedex Tracking Number: 425087017219</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:46:48</t>
+    <t>$101.07</t>
+  </si>
+  <si>
+    <t>$104.07</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 925  store order ID: Amazon</t>
+  </si>
+  <si>
+    <t>2018-01-18 10:53:13</t>
+  </si>
+  <si>
+    <t>$10.08</t>
+  </si>
+  <si>
+    <t>$13.08</t>
+  </si>
+  <si>
+    <t>2018-01-18 11:49:38</t>
+  </si>
+  <si>
+    <t>2018-01-18 12:50:46</t>
+  </si>
+  <si>
+    <t>2018-01-18 12:53:57</t>
+  </si>
+  <si>
+    <t>$155.29</t>
+  </si>
+  <si>
+    <t>$158.29</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:00:13</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:03:59</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:04:25</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:05:15</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:15:50</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:20:49</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:38:50</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:41:40</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:48:36</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:49:57</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:56:44</t>
+  </si>
+  <si>
+    <t>2018-01-18 13:59:26</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:01:13</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:02:48</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:09:04</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:14:47</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:22:37</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:30:44</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:31:13</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:33:56</t>
+  </si>
+  <si>
+    <t>2018-01-18 14:40:54</t>
+  </si>
+  <si>
+    <t>2018-01-18 15:34:53</t>
+  </si>
+  <si>
+    <t>2018-01-21 12:11:02</t>
+  </si>
+  <si>
+    <t>2018-01-21 12:11:56</t>
+  </si>
+  <si>
+    <t>2018-01-21 12:12:17</t>
+  </si>
+  <si>
+    <t>2018-01-21 16:22:56</t>
+  </si>
+  <si>
+    <t>$24.76</t>
+  </si>
+  <si>
+    <t>$27.76</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 960  store order ID: 114-9638223-4108214</t>
+  </si>
+  <si>
+    <t>2018-01-29 16:53:49</t>
+  </si>
+  <si>
+    <t>2018-01-29 17:03:26</t>
+  </si>
+  <si>
+    <t>$36.02</t>
+  </si>
+  <si>
+    <t>$39.02</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 946  store order ID: 111-8003915-7649066</t>
+  </si>
+  <si>
+    <t>2018-01-30 11:51:39</t>
+  </si>
+  <si>
+    <t>$73.24</t>
+  </si>
+  <si>
+    <t>$76.24</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 943  store order ID: 112-7833982-8017009</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:23</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:42</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:49</t>
+  </si>
+  <si>
+    <t>2018-01-30 13:44:57</t>
   </si>
   <si>
     <t>XINYI NINGBO</t>
   </si>
   <si>
-    <t>$68.83</t>
-  </si>
-  <si>
-    <t>$71.83</t>
-  </si>
-  <si>
-    <t>Order ID #927, Sung Kyung Kim, Fedex Tracking Number: 425087017127</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:52:34</t>
-  </si>
-  <si>
-    <t>$23.71</t>
-  </si>
-  <si>
-    <t>$26.71</t>
-  </si>
-  <si>
-    <t>Order ID #930, Bryce E Hauch, Fedex Tracking Number: 425087017138</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:54:55</t>
-  </si>
-  <si>
-    <t>$35.18</t>
-  </si>
-  <si>
-    <t>$38.18</t>
-  </si>
-  <si>
-    <t>Order ID #931, Peter F Ulrich, Fedex Tracking Number: 425087017220</t>
-  </si>
-  <si>
-    <t>2018-01-19 22:58:49</t>
-  </si>
-  <si>
-    <t>Order ID #932, Marello Harris, Fedex Tracking Number: 425087017230</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:05:25</t>
-  </si>
-  <si>
-    <t>$32.45</t>
-  </si>
-  <si>
-    <t>$35.45</t>
-  </si>
-  <si>
-    <t>Order ID #933, Bryan Beard, Fedex Tracking Number: 425087017241</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:08:07</t>
-  </si>
-  <si>
-    <t>Order ID #934, Rodnia Pacheo/Karina Mantilla, Fedex Tracking Number: 425087017252</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:11:33</t>
-  </si>
-  <si>
-    <t>$14.88</t>
-  </si>
-  <si>
-    <t>$17.88</t>
-  </si>
-  <si>
-    <t>Order ID #935, Sandra Reynolds, Fedex Tracking Number: 425087017263</t>
-  </si>
-  <si>
-    <t>2018-01-19 23:14:23</t>
-  </si>
-  <si>
-    <t>$20.23</t>
-  </si>
-  <si>
-    <t>$23.23</t>
-  </si>
-  <si>
-    <t>Order ID #936, Dexter Briceno, Fedex Tracking Number: 425087017285</t>
-  </si>
-  <si>
-    <t>2018-01-20 00:34:56</t>
-  </si>
-  <si>
-    <t>$28.97</t>
-  </si>
-  <si>
-    <t>$31.97</t>
-  </si>
-  <si>
-    <t>Order ID #937, Louis B. Katzerman, Fedex Tracking Number: 425087017296</t>
-  </si>
-  <si>
-    <t>2018-01-20 00:37:28</t>
-  </si>
-  <si>
-    <t>$17.02</t>
-  </si>
-  <si>
-    <t>$21.02</t>
-  </si>
-  <si>
-    <t>Order ID #926, Denne Adams, Fedex Tracking Number: 425087017344</t>
-  </si>
-  <si>
-    <t>2018-01-22 18:21:42</t>
-  </si>
-  <si>
-    <t>$20.28</t>
-  </si>
-  <si>
-    <t>$23.28</t>
-  </si>
-  <si>
-    <t>Order ID #939, Yuxuan Wei, Fedex Tracking Number: 425087017366</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:55:04</t>
-  </si>
-  <si>
-    <t>$32.53</t>
-  </si>
-  <si>
-    <t>$35.53</t>
-  </si>
-  <si>
-    <t>Order ID #941, Jan Doran, Fedex Tracking Number: 425087017377</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:56:18</t>
-  </si>
-  <si>
-    <t>$29.04</t>
-  </si>
-  <si>
-    <t>$32.04</t>
-  </si>
-  <si>
-    <t>Order ID #942, Johnny Ramos, Fedex Tracking Number: 425087017388</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:57:57</t>
-  </si>
-  <si>
-    <t>$14.92</t>
-  </si>
-  <si>
-    <t>$17.92</t>
-  </si>
-  <si>
-    <t>Order ID #943, Jordan Lorenzo, Fedex Tracking Number: 425087017399</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:59:39</t>
-  </si>
-  <si>
-    <t>$36.02</t>
-  </si>
-  <si>
-    <t>$39.02</t>
-  </si>
-  <si>
-    <t>Order ID #945, Brian K Cook, Fedex Tracking Number: 425087017403</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:01:42</t>
-  </si>
-  <si>
-    <t>Order ID #946, Jonathan Daws, Fedex Tracking Number: 425087017414</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:03:51</t>
-  </si>
-  <si>
-    <t>$17.15</t>
-  </si>
-  <si>
-    <t>$21.15</t>
-  </si>
-  <si>
-    <t>Order ID #947, Senad B. Kasumovic, Fedex Tracking Number: 425087017436</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:06:50</t>
-  </si>
-  <si>
-    <t>Order ID #948, Kaleb T Anderson, Fedex Tracking Number: 425087017447</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:50:59</t>
-  </si>
-  <si>
-    <t>Order ID #949, Gerald Siebe, Fedex Tracking Number: 425087017458</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:53:02</t>
-  </si>
-  <si>
-    <t>$12.49</t>
-  </si>
-  <si>
-    <t>$15.49</t>
-  </si>
-  <si>
-    <t>Order ID #950, Josefina Ulloa, Fedex Tracking Number: 425087017540</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:57:58</t>
-  </si>
-  <si>
-    <t>$27.50</t>
-  </si>
-  <si>
-    <t>$30.50</t>
-  </si>
-  <si>
-    <t>Order ID #951, Jennifer Stroud, Fedex Tracking Number: 425087017550</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:11:01</t>
-  </si>
-  <si>
-    <t>Order ID #952, Martha Acuna, Fedex Tracking Number: 425087017561</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:13:46</t>
-  </si>
-  <si>
-    <t>Order ID #953, Courtney Newell, Fedex Tracking Number: 425087017572</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:15:56</t>
-  </si>
-  <si>
-    <t>Order ID #954, Nadege Andre, Fedex Tracking Number: 425087017583</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:18:40</t>
-  </si>
-  <si>
-    <t>Order ID #955, Daniel F Mullen III, Fedex Tracking Number: 425087017609</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:20:55</t>
-  </si>
-  <si>
-    <t>Order ID #956, Zhu Xiao Tong, Fedex Tracking Number: 425087017610</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:22:23</t>
-  </si>
-  <si>
-    <t>$24.76</t>
-  </si>
-  <si>
-    <t>$27.76</t>
-  </si>
-  <si>
-    <t>Order ID #957, Abdullah Alotaibi, Fedex Tracking Number: 425087017642</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:23:46</t>
-  </si>
-  <si>
-    <t>Order ID #958, Toni Cummaro, Fedex Tracking Number: 425087017778</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:43:12</t>
-  </si>
-  <si>
-    <t>$11.74</t>
-  </si>
-  <si>
-    <t>$14.74</t>
-  </si>
-  <si>
-    <t>Order ID #959, Zach Westall, Fedex Tracking Number: 425087017789</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:46:20</t>
-  </si>
-  <si>
-    <t>$13.62</t>
-  </si>
-  <si>
-    <t>$16.62</t>
-  </si>
-  <si>
-    <t>Order ID #962, Tana Flowers, Fedex Tracking Number: 425087017815</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:54:12</t>
-  </si>
-  <si>
-    <t>Order ID #960, Glenn Stuart Rockowitz, Fedex Tracking Number: 425087017790</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:55:42</t>
-  </si>
-  <si>
-    <t>$15.90</t>
-  </si>
-  <si>
-    <t>$18.90</t>
-  </si>
-  <si>
-    <t>Order ID #961, Charle A Grant, Fedex Tracking Number: 425087017804</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:56:21</t>
-  </si>
-  <si>
-    <t>$16.90</t>
-  </si>
-  <si>
-    <t>$19.90</t>
-  </si>
-  <si>
-    <t>Order ID #963, Gary Marcus, Fedex Tracking Number: 425087017826</t>
-  </si>
-  <si>
-    <t>2018-01-23 19:59:37</t>
-  </si>
-  <si>
-    <t>$35.27</t>
-  </si>
-  <si>
-    <t>$38.27</t>
-  </si>
-  <si>
-    <t>Order ID #964, Aleshia A Weldon, Fedex Tracking Number: 425087017837</t>
-  </si>
-  <si>
-    <t>2018-01-23 20:01:57</t>
-  </si>
-  <si>
-    <t>Order ID #965, Craig Parnell, Fedex Tracking Number: 425087017848</t>
-  </si>
-  <si>
-    <t>2018-01-23 21:07:42</t>
-  </si>
-  <si>
-    <t>Order ID #966, Jason Washburn, Fedex Tracking Number: 425087017859</t>
-  </si>
-  <si>
-    <t>2018-01-23 21:09:59</t>
-  </si>
-  <si>
-    <t>$10.88</t>
-  </si>
-  <si>
-    <t>$13.88</t>
-  </si>
-  <si>
-    <t>Order ID #967, Gretchen Carvajal, RIVER ISLANDS, Fedex Tracking Number: 425087017860</t>
-  </si>
-  <si>
-    <t>2018-01-23 21:11:59</t>
-  </si>
-  <si>
-    <t>$19.64</t>
-  </si>
-  <si>
-    <t>$22.64</t>
-  </si>
-  <si>
-    <t>Order ID #973, Stephen Decker, Fedex Tracking Number: 425087017892</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:41:39</t>
-  </si>
-  <si>
-    <t>Order ID #974, Ronald L Sjoblom, Fedex Tracking Number: 425087017907</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:45:40</t>
-  </si>
-  <si>
-    <t>Order ID #975, Robert Gorlick, Fedex Tracking Number: 425087017918</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:48:29</t>
-  </si>
-  <si>
-    <t>Order ID #976, Edda Navarro, Fedex Tracking Number: 425087017929</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:50:45</t>
-  </si>
-  <si>
-    <t>Order ID #977, Anthony Castro, Fedex Tracking Number: 425087017930</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:53:15</t>
-  </si>
-  <si>
-    <t>Order ID #978, Manuel Sanchez, Fedex Tracking Number: 425087017940</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:55:19</t>
-  </si>
-  <si>
-    <t>$49.25</t>
-  </si>
-  <si>
-    <t>$52.25</t>
-  </si>
-  <si>
-    <t>Order ID #979, Antonio Smith, USPS Tracking Number: 	9405503699300174669576</t>
-  </si>
-  <si>
-    <t>2018-01-24 17:58:12</t>
-  </si>
-  <si>
-    <t>$13.39</t>
-  </si>
-  <si>
-    <t>$16.39</t>
-  </si>
-  <si>
-    <t>Order ID #980, Sue QuakenBush, Fedex Tracking Number: 425087017951</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:02:14</t>
-  </si>
-  <si>
-    <t>Order ID #981, Ben Rodden, Fedex Tracking Number: 425087017962</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:04:31</t>
-  </si>
-  <si>
-    <t>Order ID #984, Camilia Martin, Fedex Tracking Number: 425087017973</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:22:07</t>
-  </si>
-  <si>
-    <t>Order ID #985, Jennifer Bagley, Fedex Tracking Number: 425087017984</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:24:19</t>
-  </si>
-  <si>
-    <t>Order ID #986, Andrew Carbuto, Fedex Tracking Number: 425087017995</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:26:02</t>
-  </si>
-  <si>
-    <t>Order ID #987, James Kuo, Fedex Tracking Number: 425087018009</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:27:49</t>
-  </si>
-  <si>
-    <t>$18.64</t>
-  </si>
-  <si>
-    <t>$21.64</t>
-  </si>
-  <si>
-    <t>Order ID #988, Ron J Barlow, Fedex Tracking Number: 425087018010</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:29:48</t>
-  </si>
-  <si>
-    <t>Order ID #989, Joanne Schaeder, Fedex Tracking Number: 425087018020</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:31:47</t>
-  </si>
-  <si>
-    <t>Order ID #990, Catherine Rouiller, Fedex Tracking Number: 425087018031</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:52:34</t>
-  </si>
-  <si>
-    <t>Order ID #991, Fernando Lopez, Fedex Tracking Number: 425087018042</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:54:11</t>
-  </si>
-  <si>
-    <t>Order ID #992, Forres Best Hooser, Fedex Tracking Number: 425087018053</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:55:45</t>
-  </si>
-  <si>
-    <t>Order ID #993, Jon Wood, Fedex Tracking Number: 425087018064</t>
-  </si>
-  <si>
-    <t>2018-01-24 18:57:05</t>
-  </si>
-  <si>
-    <t>Order ID #968, Brian Shacklewood, Fedex Tracking Number: 425087018075</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:09:30</t>
-  </si>
-  <si>
-    <t>Order ID #969, Susan Brown, Fedex Tracking Number: 425087018086</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:15:31</t>
-  </si>
-  <si>
-    <t>Order ID #970, Scott Newlon, Fedex Tracking Number: 425087018097</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:16:30</t>
-  </si>
-  <si>
-    <t>Order ID #971, Yongxian Chen, Fedex Tracking Number: 425087018101</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:19:13</t>
-  </si>
-  <si>
-    <t>Order ID #972, Thienna Ho, Fedex Tracking Number: 425087018112</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:21:56</t>
-  </si>
-  <si>
-    <t>Order ID #994, Shelby Lewis, Fedex Tracking Number: 425087018123</t>
-  </si>
-  <si>
-    <t>2018-01-24 19:24:36</t>
-  </si>
-  <si>
-    <t>Order ID #982, Debra Barber, Fedex Tracking Number: 425087018292</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:21:59</t>
-  </si>
-  <si>
-    <t>Order ID #983, James Maertz, Fedex Tracking Number: 425087018318</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:25:02</t>
-  </si>
-  <si>
-    <t>$39.60</t>
-  </si>
-  <si>
-    <t>$42.60</t>
-  </si>
-  <si>
-    <t>Order ID #995, Ana Romero, USPS Tracking Number: 9405503699300174953255</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:38:31</t>
-  </si>
-  <si>
-    <t>$16.13</t>
-  </si>
-  <si>
-    <t>$19.13</t>
-  </si>
-  <si>
-    <t>Order ID #996, Jessica Green, Fedex Tracking Number: 425087018330</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:42:04</t>
-  </si>
-  <si>
-    <t>Order ID #997, Jesse Armitage, Fedex Tracking Number: 425087018340</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:44:03</t>
-  </si>
-  <si>
-    <t>Order ID #998, Paul Nelson, Fedex Tracking Number: 425087018351</t>
-  </si>
-  <si>
-    <t>2018-01-24 21:46:03</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 999  store order ID: 114-9638223-4108214</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:18:10</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1000  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:38</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1001  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:41</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1002  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1003  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:56</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1004  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:29:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1005  store order ID: Shopify</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:32:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1006  store order ID: Shopify</t>
-  </si>
-  <si>
-    <t>2018-01-25 11:33:02</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1007  store order ID: 114-5987646-0828213</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:36:11</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1008  store order ID: 114-0417088-4009829</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:08</t>
-  </si>
-  <si>
-    <t>$20.15</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1009  store order ID: 111-9339449-7779446</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:47</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1011  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:50</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1010  store order ID: Ebay</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1012  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:37:56</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1013  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:40:58</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1017  store order ID: 114-2028140-0506603</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:41:01</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1015  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:41:04</t>
-  </si>
-  <si>
-    <t>$20.64</t>
-  </si>
-  <si>
-    <t>$23.64</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1016  store order ID: 112-9589809-6380258</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:41:07</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1014  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-26 13:41:10</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1041  store order ID: 114-4081648-0113804</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:46:14</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1040  store order ID: 113-1342901-0779409</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:46:20</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1018  store order ID: 114-1842009-3643437</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:50:30</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1019  store order ID: 114-0575377-9045822</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:50:33</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1021  store order ID: 113-2580073-7022615</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:50:36</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1020  store order ID: 111-6711978-8901838</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:50:39</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1025  store order ID: 111-3216720-9437808</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:51:24</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1029  store order ID: 111-4320587-5917823</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:51:28</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1030  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:51:31</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1027  store order ID: 111-4482825-7980260</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:51:34</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1031  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:51:37</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1032  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:51:40</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1034  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:52:11</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1035  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:52:17</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1036  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:52:20</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1037  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:52:36</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1039  store order ID: 111-9064765-9131466</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:52:50</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1033  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-29 12:53:49</t>
-  </si>
-  <si>
-    <t>$20.39</t>
-  </si>
-  <si>
-    <t>$23.39</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1044  store order ID: FitBoomBah</t>
-  </si>
-  <si>
-    <t>2018-01-29 14:26:10</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1043  store order ID: FitBoomBah</t>
-  </si>
-  <si>
-    <t>2018-01-29 14:26:13</t>
-  </si>
-  <si>
-    <t>$105.44</t>
-  </si>
-  <si>
-    <t>$108.44</t>
-  </si>
-  <si>
-    <t>Order ID #1022, Tracey A Swainey, Fedex Tracking Number: 425087018616, 425087018627</t>
-  </si>
-  <si>
-    <t>2018-01-29 21:38:27</t>
-  </si>
-  <si>
-    <t>$85.41</t>
-  </si>
-  <si>
-    <t>$87.41</t>
-  </si>
-  <si>
-    <t>Order ID #1023, Nick Creveling, Fedex Tracking Number: 425087018638</t>
-  </si>
-  <si>
-    <t>2018-01-29 21:41:11</t>
-  </si>
-  <si>
-    <t>$56.95</t>
-  </si>
-  <si>
-    <t>$59.95</t>
-  </si>
-  <si>
-    <t>Order ID #1024, Diego Dominguez, Fedex Tracking Number: 425087018649</t>
-  </si>
-  <si>
-    <t>2018-01-29 21:44:07</t>
-  </si>
-  <si>
-    <t>$170.82</t>
-  </si>
-  <si>
-    <t>$173.82</t>
-  </si>
-  <si>
-    <t>Order ID #1026, Dominguez Construction, Inc., Fedex Tracking Number: 425087018650, 425087018660</t>
-  </si>
-  <si>
-    <t>2018-01-29 21:55:18</t>
-  </si>
-  <si>
-    <t>$88.41</t>
-  </si>
-  <si>
-    <t>Order ID #1028, Rolando Ramon, Fedex Tracking Number: 425087018671</t>
-  </si>
-  <si>
-    <t>2018-01-29 21:56:24</t>
-  </si>
-  <si>
-    <t>Order ID #1038, Deirdre Conway, Fedex Tracking Number: 425087018682</t>
-  </si>
-  <si>
-    <t>2018-01-29 21:59:12</t>
-  </si>
-  <si>
-    <t>Order ID #1042, Andrew Brooks, Fedex Tracking Number: 425087018693</t>
-  </si>
-  <si>
-    <t>2018-01-29 22:01:11</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1049  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-30 09:48:05</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1048  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-30 09:48:09</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1047  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-01-30 09:48:12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1046  store order ID: 112-4029977-2225001</t>
-  </si>
-  <si>
-    <t>2018-01-30 09:49:14</t>
-  </si>
-  <si>
-    <t>Order ID #1045, Pat Dwyer, Fedex Tracking Number: 425087018866</t>
-  </si>
-  <si>
-    <t>2018-01-30 16:56:03</t>
-  </si>
-  <si>
-    <t>$90.06</t>
-  </si>
-  <si>
-    <t>$93.06</t>
-  </si>
-  <si>
-    <t>Order ID #1050, Kelli L Wallace, Fedex Tracking Number: 425087018877</t>
-  </si>
-  <si>
-    <t>2018-01-30 16:59:57</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1051  store order ID: Shopify</t>
-  </si>
-  <si>
-    <t>2018-01-30 12:18:44</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1052  store order ID: 7028584210</t>
-  </si>
-  <si>
-    <t>2018-01-30 14:50:52</t>
-  </si>
-  <si>
-    <t>$70.24</t>
-  </si>
-  <si>
-    <t>$73.24</t>
-  </si>
-  <si>
-    <t>Order ID# 1053, Reggie Alford, Fedex Tracking Number: 425087018903</t>
-  </si>
-  <si>
-    <t>2018-01-30 21:54:48</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1054  store order ID: 111-0511711-2539451</t>
-  </si>
-  <si>
-    <t>2018-01-30 15:24:30</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1055  store order ID: 113-4345695-7517835</t>
-  </si>
-  <si>
-    <t>2018-01-30 15:24:33</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1056  store order ID: 113-5982073-0925034</t>
-  </si>
-  <si>
-    <t>2018-01-31 15:26:12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1057  store order ID: 114-0277849-9852208</t>
-  </si>
-  <si>
-    <t>2018-01-31 15:27:19</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1059  store order ID: 111-9763124-1618612</t>
-  </si>
-  <si>
-    <t>2018-01-31 15:27:43</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1063  store order ID: 112-2095918-4754647</t>
-  </si>
-  <si>
-    <t>2018-01-31 15:28:17</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1064  store order ID: 114-9256678-3397052</t>
-  </si>
-  <si>
-    <t>2018-01-31 15:28:21</t>
-  </si>
-  <si>
-    <t>Order ID# 1058, Andrew Mixer, Fedex Tracking Number: 425087018969</t>
-  </si>
-  <si>
-    <t>2018-01-31 22:32:43</t>
-  </si>
-  <si>
-    <t>$65.06</t>
-  </si>
-  <si>
-    <t>$68.06</t>
-  </si>
-  <si>
-    <t>Order ID# 1060, Darren A George, Fedex Tracking Number: 425087018970, 425087018980</t>
-  </si>
-  <si>
-    <t>2018-01-31 22:40:55</t>
-  </si>
-  <si>
-    <t>$74.89</t>
-  </si>
-  <si>
-    <t>$77.89</t>
-  </si>
-  <si>
-    <t>Order ID# 1061, Michael Carrillo, Fedex Tracking Number: 425087018991</t>
-  </si>
-  <si>
-    <t>2018-01-31 22:44:17</t>
-  </si>
-  <si>
-    <t>$81.02</t>
-  </si>
-  <si>
-    <t>$84.02</t>
-  </si>
-  <si>
-    <t>Order ID# 1062, Avon Vacuums, Fedex Tracking Number: 425087019005</t>
-  </si>
-  <si>
-    <t>2018-01-31 22:46:42</t>
-  </si>
-  <si>
-    <t>$79.12</t>
-  </si>
-  <si>
-    <t>$82.12</t>
-  </si>
-  <si>
-    <t>Order ID# 1065, Lingyu Zhang, Fedex Tracking Number: 425087019016</t>
-  </si>
-  <si>
-    <t>2018-01-31 22:48:43</t>
-  </si>
-  <si>
-    <t>$31.78</t>
-  </si>
-  <si>
-    <t>$34.78</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1066  store order ID: 111-3437048-9215402</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:16:27</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1068  store order ID: 112-8912305-5618615</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:16:36</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1069  store order ID: 111-6195005-5679443</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:16:43</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1070  store order ID: 114-4203771-1509817</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:16:46</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1072  store order ID: 112-8870772-4959454</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:17:04</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1073  store order ID: 112-7338563-9932224</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:17:08</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1075  store order ID: 112-0681254-5030609</t>
-  </si>
-  <si>
-    <t>2018-02-01 14:17:14</t>
-  </si>
-  <si>
-    <t>Order ID# 1067, XiaoYing Ye, Fedex Tracking Number: 425087019277</t>
-  </si>
-  <si>
-    <t>2018-02-01 21:20:41</t>
-  </si>
-  <si>
-    <t>$65.68</t>
-  </si>
-  <si>
-    <t>$68.68</t>
-  </si>
-  <si>
-    <t>Order ID# 1071, Jonathan Johnson, Fedex Tracking Number: 425087019288</t>
-  </si>
-  <si>
-    <t>2018-02-01 21:23:17</t>
-  </si>
-  <si>
-    <t>$52.72</t>
-  </si>
-  <si>
-    <t>$55.72</t>
-  </si>
-  <si>
-    <t>Order ID# 1074, Taylor A Price, Fedex Tracking Number: 425087019299</t>
-  </si>
-  <si>
-    <t>2018-02-01 21:25:12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1077  store order ID: 9453273</t>
-  </si>
-  <si>
-    <t>2018-02-02 12:43:22</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1082  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-02-02 12:44:12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1083  store order ID: Amazon</t>
-  </si>
-  <si>
-    <t>2018-02-02 12:44:15</t>
-  </si>
-  <si>
-    <t>$23.77</t>
-  </si>
-  <si>
-    <t>$26.77</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1088  store order ID: 112-2036389-3469827</t>
-  </si>
-  <si>
-    <t>2018-02-02 12:44:22</t>
-  </si>
-  <si>
-    <t>$15.98</t>
-  </si>
-  <si>
-    <t>$18.98</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1086  store order ID: 112-5103714-3235404</t>
-  </si>
-  <si>
-    <t>2018-02-02 12:44:26</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1084  store order ID: 112-4269338-1974658</t>
-  </si>
-  <si>
-    <t>2018-02-02 12:44:29</t>
-  </si>
-  <si>
-    <t>$19.39</t>
-  </si>
-  <si>
-    <t>$22.39</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1091  store order ID: ch_1Bl3OZGiAFeBZCITbhA2b</t>
-  </si>
-  <si>
-    <t>2018-02-02 15:04:27</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1092  store order ID: 4EB40974KF991271G</t>
-  </si>
-  <si>
-    <t>2018-02-02 16:12:32</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1093  store order ID: 113-1454292-9651400</t>
-  </si>
-  <si>
-    <t>2018-02-02 16:12:34</t>
-  </si>
-  <si>
-    <t>Order ID# 1076, Yousif Nagi, Fedex Tracking Number: 425087019347</t>
-  </si>
-  <si>
-    <t>2018-02-02 23:27:22</t>
-  </si>
-  <si>
-    <t>Order ID# 1078, James Hales, Fedex Tracking Number: 425087019358</t>
-  </si>
-  <si>
-    <t>2018-02-02 23:29:48</t>
-  </si>
-  <si>
-    <t>Order ID# 1079, Matthew Cummings, Fedex Tracking Number: 425087019369</t>
-  </si>
-  <si>
-    <t>2018-02-02 23:32:02</t>
-  </si>
-  <si>
-    <t>$74.73</t>
-  </si>
-  <si>
-    <t>$77.73</t>
-  </si>
-  <si>
-    <t>Order ID# 1080, Craig Joiner, Fedex Tracking Number: 425087019370</t>
-  </si>
-  <si>
-    <t>2018-02-02 23:34:13</t>
-  </si>
-  <si>
-    <t>$61.45</t>
-  </si>
-  <si>
-    <t>$64.45</t>
-  </si>
-  <si>
-    <t>Order ID# 1081, Takara Meade, Fedex Tracking Number: 425087019406</t>
-  </si>
-  <si>
-    <t>2018-02-02 23:40:30</t>
-  </si>
-  <si>
-    <t>Order ID# 1085, Elizabeth Sharma, Fedex Tracking Number: 425087019417</t>
-  </si>
-  <si>
-    <t>2018-02-02 23:58:54</t>
-  </si>
-  <si>
-    <t>$83.35</t>
-  </si>
-  <si>
-    <t>$86.35</t>
-  </si>
-  <si>
-    <t>Order ID# 1087, Adam Richard Fischer, Fedex Tracking Number: 425087019428</t>
-  </si>
-  <si>
-    <t>2018-02-03 00:00:42</t>
-  </si>
-  <si>
-    <t>Order ID# 1089, Connor Detloff, Fedex Tracking Number: 425087019439</t>
-  </si>
-  <si>
-    <t>2018-02-03 00:03:57</t>
-  </si>
-  <si>
-    <t>$66.10</t>
-  </si>
-  <si>
-    <t>$69.10</t>
-  </si>
-  <si>
-    <t>Order ID# 1090, George Montgomery, Fedex Tracking Number: 425087019440</t>
-  </si>
-  <si>
-    <t>2018-02-03 00:05:37</t>
-  </si>
-  <si>
-    <t>Order ID# 1094, Rodney Morgan, Fedex Tracking Number: 425087019450</t>
-  </si>
-  <si>
-    <t>2018-02-03 00:07:16</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1095  store order ID: 112-0192248-4408262</t>
-  </si>
-  <si>
-    <t>2018-02-05 11:25:07</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1098  store order ID: 114-9000232-1789846</t>
-  </si>
-  <si>
-    <t>2018-02-05 11:25:56</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1099  store order ID: 114-3765327-9401045</t>
-  </si>
-  <si>
-    <t>2018-02-05 11:25:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1100  store order ID: 114-4667108-8952231</t>
-  </si>
-  <si>
-    <t>2018-02-05 11:26:05</t>
-  </si>
-  <si>
-    <t>$23.02</t>
-  </si>
-  <si>
-    <t>$26.02</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1103  store order ID: 114-0579856-3612251</t>
-  </si>
-  <si>
-    <t>2018-02-05 11:26:14</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1105  store order ID: 112-1117100-5501818</t>
-  </si>
-  <si>
-    <t>2018-02-05 11:26:21</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1108  store order ID: 113-0933456-1135432</t>
-  </si>
-  <si>
-    <t>2018-02-05 12:29:09</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1112  store order ID: 111-1242517-2784235</t>
-  </si>
-  <si>
-    <t>2018-02-05 12:29:16</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1113  store order ID: 111-4440543-5152202</t>
-  </si>
-  <si>
-    <t>2018-02-05 12:29:18</t>
-  </si>
-  <si>
-    <t>$65.85</t>
-  </si>
-  <si>
-    <t>$68.85</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1115  store order ID: 111-1151213-7938604</t>
-  </si>
-  <si>
-    <t>2018-02-05 12:49:31</t>
-  </si>
-  <si>
-    <t>$39.85</t>
-  </si>
-  <si>
-    <t>$42.85</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1096  store order ID: 114-7565027-5350623</t>
-  </si>
-  <si>
-    <t>2018-02-05 13:57:36</t>
-  </si>
-  <si>
-    <t>$83.72</t>
-  </si>
-  <si>
-    <t>$86.72</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1097  store order ID: 114-5661335-9373039</t>
-  </si>
-  <si>
-    <t>2018-02-05 13:58:01</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1101  store order ID: 111-9966872-8242657</t>
-  </si>
-  <si>
-    <t>2018-02-05 13:59:09</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1102  store order ID: 114-3717197-5247427</t>
-  </si>
-  <si>
-    <t>2018-02-05 13:59:14</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1104  store order ID: 112-0811543-9811444</t>
-  </si>
-  <si>
-    <t>2018-02-05 13:59:21</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1106  store order ID: 113-0491347-3608262</t>
-  </si>
-  <si>
-    <t>2018-02-05 13:59:26</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1114  store order ID: 114-8663439-3447442</t>
-  </si>
-  <si>
-    <t>2018-02-05 14:01:34</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1110  store order ID: 113-3448255-0463457</t>
-  </si>
-  <si>
-    <t>2018-02-05 14:02:31</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1107  store order ID: 112-6168628-8619416</t>
-  </si>
-  <si>
-    <t>2018-02-05 14:02:57</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1111  store order ID: 113-2699068-6652234</t>
-  </si>
-  <si>
-    <t>2018-02-05 14:03:00</t>
-  </si>
-  <si>
-    <t>$48.33</t>
-  </si>
-  <si>
-    <t>$51.33</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1116  store order ID: 112-0808959-7373860</t>
-  </si>
-  <si>
-    <t>2018-02-05 14:03:05</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1117  store order ID: 114-8636744-6449846</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:20:31</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1118  store order ID: 114-3488295-3919446</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:20:38</t>
-  </si>
-  <si>
-    <t>$77.43</t>
-  </si>
-  <si>
-    <t>$80.43</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1119  store order ID: 114-4858419-8452208</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:20:57</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1120  store order ID: 114-4858419-8452208</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:21:12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1121  store order ID: 112-6725036-3415403</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:21:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1122  store order ID: 114-5566112-8597849</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:22:00</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1123  store order ID: 113-0362145-4284249</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:22:04</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1124  store order ID: 113-9487233-3883407</t>
-  </si>
-  <si>
-    <t>2018-02-06 15:22:07</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1130  store order ID: 113-4765572-8861008</t>
-  </si>
-  <si>
-    <t>2018-02-07 14:24:14</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1129  store order ID: 111-2587307-5889810</t>
-  </si>
-  <si>
-    <t>2018-02-07 14:24:37</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1131  store order ID: 113-3168200-5947458</t>
-  </si>
-  <si>
-    <t>2018-02-07 14:25:13</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1134  store order ID: 114-9262517-9892216</t>
-  </si>
-  <si>
-    <t>2018-02-08 09:34:38</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1137  store order ID: 113-7755147-6717805</t>
-  </si>
-  <si>
-    <t>2018-02-08 09:34:46</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1138  store order ID: 111-5998300-7580230</t>
-  </si>
-  <si>
-    <t>2018-02-08 09:34:49</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1139  store order ID: 111-2430581-0684250</t>
-  </si>
-  <si>
-    <t>2018-02-08 09:34:51</t>
-  </si>
-  <si>
-    <t>$35.70</t>
-  </si>
-  <si>
-    <t>$38.70</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1109  store order ID: 114-0670715-4784209</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:21:48</t>
-  </si>
-  <si>
-    <t>$53.85</t>
-  </si>
-  <si>
-    <t>$56.85</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1125  store order ID: 114-6945247-2591466</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:23:47</t>
-  </si>
-  <si>
-    <t>$53.57</t>
-  </si>
-  <si>
-    <t>$56.57</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1126  store order ID: 113-6206721-1904265</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:23:50</t>
-  </si>
-  <si>
-    <t>$40.47</t>
-  </si>
-  <si>
-    <t>$43.47</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1127  store order ID: 113-1287736-5233852</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:23:54</t>
-  </si>
-  <si>
-    <t>$57.30</t>
-  </si>
-  <si>
-    <t>$60.30</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1128  store order ID: 111-3113298-6425055</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:23:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1132  store order ID: 112-8649748-4345016</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:24:45</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1133  store order ID: 111-1323124-4897060</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:24:49</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1135  store order ID: 112-5835785-5473811</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:24:52</t>
-  </si>
-  <si>
-    <t>$50.13</t>
-  </si>
-  <si>
-    <t>$53.13</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1136  store order ID: 112-4664192-5546641</t>
-  </si>
-  <si>
-    <t>2018-02-08 10:26:57</t>
-  </si>
-  <si>
-    <t>$49.68</t>
-  </si>
-  <si>
-    <t>$52.68</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1438  store order ID: 113-7586854-0388261</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:18:52</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1439  store order ID: 111-7371993-7485802</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:21:07</t>
-  </si>
-  <si>
-    <t>$34.27</t>
-  </si>
-  <si>
-    <t>$37.27</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1437  store order ID: 114-7648665-8071400</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:22:43</t>
-  </si>
-  <si>
-    <t>$26.04</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1431  store order ID: 114-0064591-3119447</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:23:28</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1432  store order ID: 112-8803243-6107419</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:24:15</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1433  store order ID: 114-0598435-9727462</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:24:56</t>
-  </si>
-  <si>
-    <t>$54.87</t>
-  </si>
-  <si>
-    <t>$57.87</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1434  store order ID: 114-3020917-2880211</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:26:07</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1435  store order ID: 112-6527975-8726618</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:27:17</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1440  store order ID: 114-0713644-8848234</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:27:48</t>
-  </si>
-  <si>
-    <t>$43.62</t>
-  </si>
-  <si>
-    <t>$46.62</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1441  store order ID: 111-0717195-6097057</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:28:20</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1442  store order ID: 114-1762031-6009821</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:28:54</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1443  store order ID: 111-5766390-3042668</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:29:34</t>
-  </si>
-  <si>
-    <t>$39.97</t>
-  </si>
-  <si>
-    <t>$42.97</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1445  store order ID: 114-8953020-4066618</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:31:08</t>
-  </si>
-  <si>
-    <t>$39.90</t>
-  </si>
-  <si>
-    <t>$42.90</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1446  store order ID: 111-0178065-1794650</t>
-  </si>
-  <si>
-    <t>2018-03-09 14:31:51</t>
-  </si>
-  <si>
-    <t>$44.12</t>
-  </si>
-  <si>
-    <t>$47.12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1447  store order ID: 113-6076502-1154657</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:14:41</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1448  store order ID: 112-8761797-2086619</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:15:51</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1449  store order ID: 114-4439734-5965066</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:16:15</t>
-  </si>
-  <si>
-    <t>$54.36</t>
-  </si>
-  <si>
-    <t>$57.36</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1450  store order ID: 111-4772353-6451404</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:16:49</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1451  store order ID: 111-6621920-2489834</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:17:20</t>
-  </si>
-  <si>
-    <t>$55.62</t>
-  </si>
-  <si>
-    <t>$58.62</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1452  store order ID: 113-0597246-1607448</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:17:48</t>
-  </si>
-  <si>
-    <t>$43.54</t>
-  </si>
-  <si>
-    <t>$46.54</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1453  store order ID: 112-8574159-6469834</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:18:20</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1454  store order ID: 114-1409605-0133803</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:18:42</t>
-  </si>
-  <si>
-    <t>$52.41</t>
-  </si>
-  <si>
-    <t>$55.41</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1455  store order ID: 113-8052328-3448238</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:19:18</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1456  store order ID: 113-0583208-6716238</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:20:01</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1457  store order ID: 111-0426053-1187439</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:21:32</t>
-  </si>
-  <si>
-    <t>$48.27</t>
-  </si>
-  <si>
-    <t>$51.27</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1459  store order ID: 112-7941640-1421863</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:22:06</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1460  store order ID: 111-8980492-6506642</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:22:38</t>
-  </si>
-  <si>
-    <t>$26.58</t>
-  </si>
-  <si>
-    <t>$29.58</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1461  store order ID: 111-7539920-0419422</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:22:58</t>
-  </si>
-  <si>
-    <t>$30.58</t>
-  </si>
-  <si>
-    <t>$33.58</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1462  store order ID: 112-1369770-7856213</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:23:51</t>
-  </si>
-  <si>
-    <t>$15.60</t>
-  </si>
-  <si>
-    <t>$18.60</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1463  store order ID: 114-9151779-5450608</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:24:16</t>
-  </si>
-  <si>
-    <t>$60.35</t>
-  </si>
-  <si>
-    <t>$63.35</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1464  store order ID: 114-8526252-6270643</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:24:44</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1465  store order ID: 111-6387132-6776223</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:25:06</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1466  store order ID: 114-1697269-3908265</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:25:30</t>
-  </si>
-  <si>
-    <t>$48.53</t>
-  </si>
-  <si>
-    <t>$51.53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1467  store order ID: 112-8610659-6307451</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:25:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1468  store order ID: 113-0392531-8572208</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:26:54</t>
-  </si>
-  <si>
-    <t>$35.84</t>
-  </si>
-  <si>
-    <t>$38.84</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1469  store order ID: 111-3412970-7757033</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:27:24</t>
-  </si>
-  <si>
-    <t>$47.60</t>
-  </si>
-  <si>
-    <t>$50.60</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1470  store order ID: 114-2154684-9804201</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:27:50</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1471  store order ID: 112-4588009-3118617</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:28:16</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1472  store order ID: 111-8194798-5365041</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:29:03</t>
-  </si>
-  <si>
-    <t>$24.02</t>
-  </si>
-  <si>
-    <t>$27.02</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1473  store order ID: 113-0831281-1934653</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:29:32</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1475  store order ID: 111-5405486-3863418</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:31:06</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1477  store order ID: 114-1236809-3034651</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:31:27</t>
-  </si>
-  <si>
-    <t>$53.26</t>
-  </si>
-  <si>
-    <t>$56.26</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1478  store order ID: 113-9901229-7621841</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:31:47</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1479  store order ID: 111-4196233-1694641</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:32:13</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1480  store order ID: 111-7661684-5727435</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:32:46</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1481  store order ID: 112-6598529-0191464</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:33:16</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1482  store order ID: 113-1859909-0609809</t>
-  </si>
-  <si>
-    <t>2018-03-12 15:33:35</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1483  store order ID: 111-0079120-0284269</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:42:00</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1484  store order ID: 111-8059875-0162648</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:42:28</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1485  store order ID: 113-1533769-3457809</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:43:15</t>
-  </si>
-  <si>
-    <t>$59.34</t>
-  </si>
-  <si>
-    <t>$62.34</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1486  store order ID: 114-0482414-5387443</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:43:53</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1487  store order ID: 112-9517775-6288238</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:44:11</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1488  store order ID: 111-1979094-9117022</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:44:25</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1489  store order ID: 114-6928462-5856252</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:44:41</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1490  store order ID: 112-1704916-8845868</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:44:59</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1491  store order ID: 114-9835194-9349024</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:45:11</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1492  store order ID: 111-5348459-3615442</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:45:21</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1493  store order ID: 112-4552554-3585063</t>
-  </si>
-  <si>
-    <t>2018-03-13 14:45:30</t>
-  </si>
-  <si>
-    <t>2018-03-13 19:42:25</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1495  store order ID: 114-3199116-0064247</t>
-  </si>
-  <si>
-    <t>2018-03-14 15:42:49</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1497  store order ID: 112-0069065-5909011</t>
-  </si>
-  <si>
-    <t>2018-03-14 15:43:12</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1499  store order ID: 112-1804085-9128201</t>
-  </si>
-  <si>
-    <t>2018-03-14 15:44:05</t>
-  </si>
-  <si>
-    <t>$21.45</t>
-  </si>
-  <si>
-    <t>$24.45</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1500  store order ID: 113-2616729-0373062</t>
-  </si>
-  <si>
-    <t>2018-03-14 15:45:21</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1503  store order ID: 111-3546637-3964251</t>
-  </si>
-  <si>
-    <t>2018-03-14 15:46:18</t>
-  </si>
-  <si>
-    <t>$13.05</t>
-  </si>
-  <si>
-    <t>$16.05</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 1504  store order ID: 112-7507962-0114615</t>
-  </si>
-  <si>
-    <t>2018-03-14 15:46:51</t>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 11</t>
+  </si>
+  <si>
+    <t>2018-03-19 19:56:08</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$32,318.07</t>
+    <t>$25,250.84</t>
   </si>
 </sst>
 </file>
@@ -6450,10 +4374,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F842"/>
+  <dimension ref="A1:F598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F842" sqref="F842"/>
+      <selection activeCell="F598" sqref="F598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6462,7 +4386,7 @@
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="113.115234" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="78.980713" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -17609,13 +15533,13 @@
         <v>10</v>
       </c>
       <c r="D558" t="s">
-        <v>553</v>
+        <v>1276</v>
       </c>
       <c r="E558" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F558" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -17623,16 +15547,16 @@
         <v>504</v>
       </c>
       <c r="B559" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C559" t="s">
         <v>10</v>
       </c>
       <c r="D559" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E559" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="F559" t="s">
         <v>1281</v>
@@ -17643,19 +15567,19 @@
         <v>504</v>
       </c>
       <c r="B560" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C560" t="s">
         <v>10</v>
       </c>
       <c r="D560" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E560" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F560" t="s">
         <v>1282</v>
-      </c>
-      <c r="F560" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -17663,19 +15587,19 @@
         <v>504</v>
       </c>
       <c r="B561" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C561" t="s">
         <v>10</v>
       </c>
       <c r="D561" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E561" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="F561" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -17683,19 +15607,19 @@
         <v>504</v>
       </c>
       <c r="B562" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F562" t="s">
         <v>1286</v>
-      </c>
-      <c r="C562" t="s">
-        <v>10</v>
-      </c>
-      <c r="D562" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E562" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -17703,19 +15627,19 @@
         <v>504</v>
       </c>
       <c r="B563" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="C563" t="s">
         <v>10</v>
       </c>
       <c r="D563" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E563" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="F563" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -17723,19 +15647,19 @@
         <v>504</v>
       </c>
       <c r="B564" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="E564" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="F564" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -17743,199 +15667,199 @@
         <v>504</v>
       </c>
       <c r="B565" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="E565" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="F565" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="566" spans="1:6">
       <c r="A566" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B566" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
       </c>
       <c r="D566" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="E566" t="s">
-        <v>1303</v>
+        <v>1277</v>
       </c>
       <c r="F566" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="567" spans="1:6">
       <c r="A567" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B567" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="C567" t="s">
         <v>10</v>
       </c>
       <c r="D567" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="E567" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
       <c r="F567" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B568" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="C568" t="s">
         <v>10</v>
       </c>
       <c r="D568" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="E568" t="s">
-        <v>1311</v>
+        <v>1277</v>
       </c>
       <c r="F568" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="569" spans="1:6">
       <c r="A569" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B569" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="E569" t="s">
-        <v>1313</v>
+        <v>1277</v>
       </c>
       <c r="F569" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="570" spans="1:6">
       <c r="A570" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B570" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
       </c>
       <c r="D570" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="E570" t="s">
-        <v>1317</v>
+        <v>1277</v>
       </c>
       <c r="F570" t="s">
-        <v>1318</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="571" spans="1:6">
       <c r="A571" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B571" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="C571" t="s">
         <v>10</v>
       </c>
       <c r="D571" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="E571" t="s">
-        <v>1319</v>
+        <v>1277</v>
       </c>
       <c r="F571" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="572" spans="1:6">
       <c r="A572" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B572" t="s">
-        <v>1321</v>
+        <v>1284</v>
       </c>
       <c r="C572" t="s">
         <v>10</v>
       </c>
       <c r="D572" t="s">
-        <v>1322</v>
+        <v>1285</v>
       </c>
       <c r="E572" t="s">
-        <v>1323</v>
+        <v>1277</v>
       </c>
       <c r="F572" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="573" spans="1:6">
       <c r="A573" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B573" t="s">
-        <v>1325</v>
+        <v>1284</v>
       </c>
       <c r="C573" t="s">
         <v>10</v>
       </c>
       <c r="D573" t="s">
-        <v>1326</v>
+        <v>1285</v>
       </c>
       <c r="E573" t="s">
-        <v>1327</v>
+        <v>1277</v>
       </c>
       <c r="F573" t="s">
-        <v>1328</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="574" spans="1:6">
       <c r="A574" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B574" t="s">
-        <v>1329</v>
+        <v>1284</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
       </c>
       <c r="D574" t="s">
-        <v>1330</v>
+        <v>1285</v>
       </c>
       <c r="E574" t="s">
-        <v>1331</v>
+        <v>1277</v>
       </c>
       <c r="F574" t="s">
-        <v>1332</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -17943,5307 +15867,427 @@
         <v>504</v>
       </c>
       <c r="B575" t="s">
-        <v>1333</v>
+        <v>1275</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575" t="s">
-        <v>1334</v>
+        <v>1276</v>
       </c>
       <c r="E575" t="s">
-        <v>1335</v>
+        <v>1277</v>
       </c>
       <c r="F575" t="s">
-        <v>1336</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="576" spans="1:6">
       <c r="A576" t="s">
+        <v>504</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F576" t="s">
         <v>1300</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C576" t="s">
-        <v>10</v>
-      </c>
-      <c r="D576" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E576" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="577" spans="1:6">
       <c r="A577" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B577" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C577" t="s">
         <v>10</v>
       </c>
       <c r="D577" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E577" t="s">
-        <v>1343</v>
+        <v>1277</v>
       </c>
       <c r="F577" t="s">
-        <v>1344</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="578" spans="1:6">
       <c r="A578" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B578" t="s">
-        <v>1345</v>
+        <v>1275</v>
       </c>
       <c r="C578" t="s">
         <v>10</v>
       </c>
       <c r="D578" t="s">
-        <v>1346</v>
+        <v>1276</v>
       </c>
       <c r="E578" t="s">
-        <v>1347</v>
+        <v>1277</v>
       </c>
       <c r="F578" t="s">
-        <v>1348</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="579" spans="1:6">
       <c r="A579" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B579" t="s">
-        <v>1349</v>
+        <v>1275</v>
       </c>
       <c r="C579" t="s">
         <v>10</v>
       </c>
       <c r="D579" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="E579" t="s">
-        <v>1351</v>
+        <v>1277</v>
       </c>
       <c r="F579" t="s">
-        <v>1352</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="580" spans="1:6">
       <c r="A580" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B580" t="s">
-        <v>1353</v>
+        <v>1275</v>
       </c>
       <c r="C580" t="s">
         <v>10</v>
       </c>
       <c r="D580" t="s">
-        <v>1354</v>
+        <v>1276</v>
       </c>
       <c r="E580" t="s">
-        <v>1355</v>
+        <v>1277</v>
       </c>
       <c r="F580" t="s">
-        <v>1356</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="A581" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B581" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C581" t="s">
         <v>10</v>
       </c>
       <c r="D581" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E581" t="s">
-        <v>1357</v>
+        <v>1277</v>
       </c>
       <c r="F581" t="s">
-        <v>1358</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="582" spans="1:6">
       <c r="A582" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B582" t="s">
-        <v>1359</v>
+        <v>1275</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
       </c>
       <c r="D582" t="s">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="E582" t="s">
-        <v>1361</v>
+        <v>1277</v>
       </c>
       <c r="F582" t="s">
-        <v>1362</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="583" spans="1:6">
       <c r="A583" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B583" t="s">
-        <v>1353</v>
+        <v>1275</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
       </c>
       <c r="D583" t="s">
-        <v>1354</v>
+        <v>1276</v>
       </c>
       <c r="E583" t="s">
-        <v>1363</v>
+        <v>1277</v>
       </c>
       <c r="F583" t="s">
-        <v>1364</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="A584" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B584" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E584" t="s">
-        <v>1365</v>
+        <v>1277</v>
       </c>
       <c r="F584" t="s">
-        <v>1366</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="A585" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B585" t="s">
-        <v>1367</v>
+        <v>1275</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585" t="s">
-        <v>1368</v>
+        <v>1276</v>
       </c>
       <c r="E585" t="s">
-        <v>1369</v>
+        <v>1277</v>
       </c>
       <c r="F585" t="s">
-        <v>1370</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="586" spans="1:6">
       <c r="A586" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B586" t="s">
-        <v>1371</v>
+        <v>1275</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
       </c>
       <c r="D586" t="s">
-        <v>1372</v>
+        <v>1276</v>
       </c>
       <c r="E586" t="s">
-        <v>1373</v>
+        <v>1277</v>
       </c>
       <c r="F586" t="s">
-        <v>1374</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="587" spans="1:6">
       <c r="A587" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="B587" t="s">
-        <v>1341</v>
+        <v>1275</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
       </c>
       <c r="D587" t="s">
-        <v>1342</v>
+        <v>1276</v>
       </c>
       <c r="E587" t="s">
-        <v>1375</v>
+        <v>1277</v>
       </c>
       <c r="F587" t="s">
-        <v>1376</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="588" spans="1:6">
       <c r="A588" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B588" t="s">
-        <v>1345</v>
+        <v>1312</v>
       </c>
       <c r="C588" t="s">
         <v>10</v>
       </c>
       <c r="D588" t="s">
-        <v>1346</v>
+        <v>1313</v>
       </c>
       <c r="E588" t="s">
-        <v>1377</v>
+        <v>1314</v>
       </c>
       <c r="F588" t="s">
-        <v>1378</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="A589" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B589" t="s">
-        <v>1341</v>
+        <v>1312</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589" t="s">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="E589" t="s">
-        <v>1379</v>
+        <v>1314</v>
       </c>
       <c r="F589" t="s">
-        <v>1380</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="590" spans="1:6">
       <c r="A590" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B590" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
       </c>
       <c r="D590" t="s">
-        <v>1342</v>
+        <v>1318</v>
       </c>
       <c r="E590" t="s">
-        <v>1381</v>
+        <v>1319</v>
       </c>
       <c r="F590" t="s">
-        <v>1382</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="591" spans="1:6">
       <c r="A591" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B591" t="s">
-        <v>1341</v>
+        <v>1321</v>
       </c>
       <c r="C591" t="s">
         <v>10</v>
       </c>
       <c r="D591" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="E591" t="s">
-        <v>1383</v>
+        <v>1323</v>
       </c>
       <c r="F591" t="s">
-        <v>1384</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="592" spans="1:6">
       <c r="A592" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B592" t="s">
-        <v>1385</v>
+        <v>1321</v>
       </c>
       <c r="C592" t="s">
         <v>10</v>
       </c>
       <c r="D592" t="s">
-        <v>1386</v>
+        <v>1322</v>
       </c>
       <c r="E592" t="s">
-        <v>1387</v>
+        <v>1323</v>
       </c>
       <c r="F592" t="s">
-        <v>1388</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="593" spans="1:6">
       <c r="A593" t="s">
-        <v>1300</v>
+        <v>8</v>
       </c>
       <c r="B593" t="s">
-        <v>1341</v>
+        <v>1321</v>
       </c>
       <c r="C593" t="s">
         <v>10</v>
       </c>
       <c r="D593" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="E593" t="s">
-        <v>1389</v>
+        <v>1323</v>
       </c>
       <c r="F593" t="s">
-        <v>1390</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="594" spans="1:6">
       <c r="A594" t="s">
-        <v>504</v>
+        <v>8</v>
       </c>
       <c r="B594" t="s">
-        <v>1391</v>
+        <v>1321</v>
       </c>
       <c r="C594" t="s">
         <v>10</v>
       </c>
       <c r="D594" t="s">
-        <v>1392</v>
+        <v>1322</v>
       </c>
       <c r="E594" t="s">
-        <v>1393</v>
+        <v>1323</v>
       </c>
       <c r="F594" t="s">
-        <v>1394</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="595" spans="1:6">
       <c r="A595" t="s">
-        <v>504</v>
+        <v>1328</v>
       </c>
       <c r="B595" t="s">
-        <v>1395</v>
+        <v>1329</v>
       </c>
       <c r="C595" t="s">
-        <v>10</v>
+        <v>1330</v>
       </c>
       <c r="D595" t="s">
-        <v>1396</v>
+        <v>1330</v>
       </c>
       <c r="E595" t="s">
-        <v>1397</v>
+        <v>1331</v>
       </c>
       <c r="F595" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6">
-      <c r="A596" t="s">
-        <v>504</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C596" t="s">
-        <v>10</v>
-      </c>
-      <c r="D596" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F596" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="A597" t="s">
-        <v>504</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C597" t="s">
-        <v>10</v>
-      </c>
-      <c r="D597" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E597" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1404</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="598" spans="1:6">
-      <c r="A598" t="s">
-        <v>504</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C598" t="s">
-        <v>10</v>
-      </c>
-      <c r="D598" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E598" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6">
-      <c r="A599" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C599" t="s">
-        <v>10</v>
-      </c>
-      <c r="D599" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E599" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F599" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6">
-      <c r="A600" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C600" t="s">
-        <v>10</v>
-      </c>
-      <c r="D600" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E600" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F600" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6">
-      <c r="A601" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C601" t="s">
-        <v>10</v>
-      </c>
-      <c r="D601" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E601" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6">
-      <c r="A602" t="s">
-        <v>504</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C602" t="s">
-        <v>10</v>
-      </c>
-      <c r="D602" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E602" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F602" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6">
-      <c r="A603" t="s">
-        <v>504</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C603" t="s">
-        <v>10</v>
-      </c>
-      <c r="D603" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E603" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6">
-      <c r="A604" t="s">
-        <v>504</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C604" t="s">
-        <v>10</v>
-      </c>
-      <c r="D604" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E604" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F604" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="605" spans="1:6">
-      <c r="A605" t="s">
-        <v>504</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C605" t="s">
-        <v>10</v>
-      </c>
-      <c r="D605" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E605" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F605" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="606" spans="1:6">
-      <c r="A606" t="s">
-        <v>504</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C606" t="s">
-        <v>10</v>
-      </c>
-      <c r="D606" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E606" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F606" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6">
-      <c r="A607" t="s">
-        <v>504</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C607" t="s">
-        <v>10</v>
-      </c>
-      <c r="D607" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E607" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6">
-      <c r="A608" t="s">
-        <v>504</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C608" t="s">
-        <v>10</v>
-      </c>
-      <c r="D608" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E608" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F608" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6">
-      <c r="A609" t="s">
-        <v>504</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C609" t="s">
-        <v>10</v>
-      </c>
-      <c r="D609" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E609" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F609" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="610" spans="1:6">
-      <c r="A610" t="s">
-        <v>504</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C610" t="s">
-        <v>10</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E610" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F610" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="611" spans="1:6">
-      <c r="A611" t="s">
-        <v>504</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C611" t="s">
-        <v>10</v>
-      </c>
-      <c r="D611" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E611" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F611" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="612" spans="1:6">
-      <c r="A612" t="s">
-        <v>504</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C612" t="s">
-        <v>10</v>
-      </c>
-      <c r="D612" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E612" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="613" spans="1:6">
-      <c r="A613" t="s">
-        <v>504</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C613" t="s">
-        <v>10</v>
-      </c>
-      <c r="D613" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E613" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F613" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="614" spans="1:6">
-      <c r="A614" t="s">
-        <v>504</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C614" t="s">
-        <v>10</v>
-      </c>
-      <c r="D614" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E614" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6">
-      <c r="A615" t="s">
-        <v>504</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C615" t="s">
-        <v>10</v>
-      </c>
-      <c r="D615" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E615" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F615" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6">
-      <c r="A616" t="s">
-        <v>504</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C616" t="s">
-        <v>10</v>
-      </c>
-      <c r="D616" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E616" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F616" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="617" spans="1:6">
-      <c r="A617" t="s">
-        <v>504</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C617" t="s">
-        <v>10</v>
-      </c>
-      <c r="D617" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E617" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F617" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="618" spans="1:6">
-      <c r="A618" t="s">
-        <v>504</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C618" t="s">
-        <v>10</v>
-      </c>
-      <c r="D618" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E618" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6">
-      <c r="A619" t="s">
-        <v>504</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C619" t="s">
-        <v>10</v>
-      </c>
-      <c r="D619" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E619" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="620" spans="1:6">
-      <c r="A620" t="s">
-        <v>504</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C620" t="s">
-        <v>10</v>
-      </c>
-      <c r="D620" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F620" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="621" spans="1:6">
-      <c r="A621" t="s">
-        <v>504</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C621" t="s">
-        <v>10</v>
-      </c>
-      <c r="D621" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E621" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F621" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6">
-      <c r="A622" t="s">
-        <v>504</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C622" t="s">
-        <v>10</v>
-      </c>
-      <c r="D622" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E622" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F622" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6">
-      <c r="A623" t="s">
-        <v>504</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C623" t="s">
-        <v>10</v>
-      </c>
-      <c r="D623" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E623" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F623" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6">
-      <c r="A624" t="s">
-        <v>504</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C624" t="s">
-        <v>10</v>
-      </c>
-      <c r="D624" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E624" t="s">
-        <v>1471</v>
-      </c>
-      <c r="F624" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6">
-      <c r="A625" t="s">
-        <v>504</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C625" t="s">
-        <v>10</v>
-      </c>
-      <c r="D625" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E625" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F625" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6">
-      <c r="A626" t="s">
-        <v>504</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C626" t="s">
-        <v>10</v>
-      </c>
-      <c r="D626" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E626" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F626" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6">
-      <c r="A627" t="s">
-        <v>504</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C627" t="s">
-        <v>10</v>
-      </c>
-      <c r="D627" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E627" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F627" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6">
-      <c r="A628" t="s">
-        <v>504</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C628" t="s">
-        <v>10</v>
-      </c>
-      <c r="D628" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E628" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F628" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="629" spans="1:6">
-      <c r="A629" t="s">
-        <v>504</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C629" t="s">
-        <v>10</v>
-      </c>
-      <c r="D629" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E629" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F629" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6">
-      <c r="A630" t="s">
-        <v>504</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C630" t="s">
-        <v>10</v>
-      </c>
-      <c r="D630" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E630" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F630" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
-      <c r="A631" t="s">
-        <v>504</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C631" t="s">
-        <v>10</v>
-      </c>
-      <c r="D631" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E631" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F631" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6">
-      <c r="A632" t="s">
-        <v>504</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C632" t="s">
-        <v>10</v>
-      </c>
-      <c r="D632" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E632" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F632" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="A633" t="s">
-        <v>504</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C633" t="s">
-        <v>10</v>
-      </c>
-      <c r="D633" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E633" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F633" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6">
-      <c r="A634" t="s">
-        <v>8</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C634" t="s">
-        <v>10</v>
-      </c>
-      <c r="D634" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E634" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F634" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6">
-      <c r="A635" t="s">
-        <v>504</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C635" t="s">
-        <v>10</v>
-      </c>
-      <c r="D635" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E635" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F635" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6">
-      <c r="A636" t="s">
-        <v>504</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C636" t="s">
-        <v>10</v>
-      </c>
-      <c r="D636" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E636" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F636" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6">
-      <c r="A637" t="s">
-        <v>504</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C637" t="s">
-        <v>10</v>
-      </c>
-      <c r="D637" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E637" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F637" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="638" spans="1:6">
-      <c r="A638" t="s">
-        <v>504</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C638" t="s">
-        <v>10</v>
-      </c>
-      <c r="D638" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E638" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F638" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6">
-      <c r="A639" t="s">
-        <v>504</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C639" t="s">
-        <v>10</v>
-      </c>
-      <c r="D639" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E639" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F639" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6">
-      <c r="A640" t="s">
-        <v>504</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C640" t="s">
-        <v>10</v>
-      </c>
-      <c r="D640" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E640" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F640" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6">
-      <c r="A641" t="s">
-        <v>504</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C641" t="s">
-        <v>10</v>
-      </c>
-      <c r="D641" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E641" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F641" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6">
-      <c r="A642" t="s">
-        <v>8</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C642" t="s">
-        <v>10</v>
-      </c>
-      <c r="D642" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E642" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F642" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6">
-      <c r="A643" t="s">
-        <v>8</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C643" t="s">
-        <v>10</v>
-      </c>
-      <c r="D643" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E643" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F643" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6">
-      <c r="A644" t="s">
-        <v>8</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C644" t="s">
-        <v>10</v>
-      </c>
-      <c r="D644" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E644" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F644" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="645" spans="1:6">
-      <c r="A645" t="s">
-        <v>504</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C645" t="s">
-        <v>10</v>
-      </c>
-      <c r="D645" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E645" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F645" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6">
-      <c r="A646" t="s">
-        <v>504</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C646" t="s">
-        <v>10</v>
-      </c>
-      <c r="D646" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E646" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F646" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6">
-      <c r="A647" t="s">
-        <v>504</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C647" t="s">
-        <v>10</v>
-      </c>
-      <c r="D647" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E647" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F647" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6">
-      <c r="A648" t="s">
-        <v>504</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C648" t="s">
-        <v>10</v>
-      </c>
-      <c r="D648" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E648" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F648" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="649" spans="1:6">
-      <c r="A649" t="s">
-        <v>8</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C649" t="s">
-        <v>10</v>
-      </c>
-      <c r="D649" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E649" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F649" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="650" spans="1:6">
-      <c r="A650" t="s">
-        <v>504</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C650" t="s">
-        <v>10</v>
-      </c>
-      <c r="D650" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E650" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F650" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="651" spans="1:6">
-      <c r="A651" t="s">
-        <v>8</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C651" t="s">
-        <v>10</v>
-      </c>
-      <c r="D651" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E651" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F651" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6">
-      <c r="A652" t="s">
-        <v>504</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C652" t="s">
-        <v>10</v>
-      </c>
-      <c r="D652" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E652" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F652" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6">
-      <c r="A653" t="s">
-        <v>8</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C653" t="s">
-        <v>10</v>
-      </c>
-      <c r="D653" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E653" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F653" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6">
-      <c r="A654" t="s">
-        <v>8</v>
-      </c>
-      <c r="B654" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C654" t="s">
-        <v>10</v>
-      </c>
-      <c r="D654" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E654" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F654" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6">
-      <c r="A655" t="s">
-        <v>8</v>
-      </c>
-      <c r="B655" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C655" t="s">
-        <v>10</v>
-      </c>
-      <c r="D655" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E655" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F655" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6">
-      <c r="A656" t="s">
-        <v>8</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C656" t="s">
-        <v>10</v>
-      </c>
-      <c r="D656" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E656" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F656" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="657" spans="1:6">
-      <c r="A657" t="s">
-        <v>8</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C657" t="s">
-        <v>10</v>
-      </c>
-      <c r="D657" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E657" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F657" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="658" spans="1:6">
-      <c r="A658" t="s">
-        <v>8</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C658" t="s">
-        <v>10</v>
-      </c>
-      <c r="D658" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E658" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F658" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="659" spans="1:6">
-      <c r="A659" t="s">
-        <v>8</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C659" t="s">
-        <v>10</v>
-      </c>
-      <c r="D659" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E659" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F659" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="660" spans="1:6">
-      <c r="A660" t="s">
-        <v>8</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C660" t="s">
-        <v>10</v>
-      </c>
-      <c r="D660" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E660" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F660" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="661" spans="1:6">
-      <c r="A661" t="s">
-        <v>504</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C661" t="s">
-        <v>10</v>
-      </c>
-      <c r="D661" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E661" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F661" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="662" spans="1:6">
-      <c r="A662" t="s">
-        <v>8</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C662" t="s">
-        <v>10</v>
-      </c>
-      <c r="D662" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E662" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F662" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="663" spans="1:6">
-      <c r="A663" t="s">
-        <v>504</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C663" t="s">
-        <v>10</v>
-      </c>
-      <c r="D663" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E663" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F663" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="664" spans="1:6">
-      <c r="A664" t="s">
-        <v>504</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C664" t="s">
-        <v>10</v>
-      </c>
-      <c r="D664" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E664" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F664" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6">
-      <c r="A665" t="s">
-        <v>504</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C665" t="s">
-        <v>10</v>
-      </c>
-      <c r="D665" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E665" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F665" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="666" spans="1:6">
-      <c r="A666" t="s">
-        <v>504</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C666" t="s">
-        <v>10</v>
-      </c>
-      <c r="D666" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E666" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F666" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="667" spans="1:6">
-      <c r="A667" t="s">
-        <v>504</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C667" t="s">
-        <v>10</v>
-      </c>
-      <c r="D667" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E667" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F667" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="668" spans="1:6">
-      <c r="A668" t="s">
-        <v>504</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C668" t="s">
-        <v>10</v>
-      </c>
-      <c r="D668" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E668" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F668" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="669" spans="1:6">
-      <c r="A669" t="s">
-        <v>8</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C669" t="s">
-        <v>10</v>
-      </c>
-      <c r="D669" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E669" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F669" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="670" spans="1:6">
-      <c r="A670" t="s">
-        <v>504</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C670" t="s">
-        <v>10</v>
-      </c>
-      <c r="D670" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E670" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F670" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="671" spans="1:6">
-      <c r="A671" t="s">
-        <v>504</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C671" t="s">
-        <v>10</v>
-      </c>
-      <c r="D671" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E671" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="672" spans="1:6">
-      <c r="A672" t="s">
-        <v>504</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C672" t="s">
-        <v>10</v>
-      </c>
-      <c r="D672" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E672" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F672" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="673" spans="1:6">
-      <c r="A673" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C673" t="s">
-        <v>10</v>
-      </c>
-      <c r="D673" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E673" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F673" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6">
-      <c r="A674" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C674" t="s">
-        <v>10</v>
-      </c>
-      <c r="D674" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E674" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F674" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6">
-      <c r="A675" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C675" t="s">
-        <v>10</v>
-      </c>
-      <c r="D675" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E675" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F675" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6">
-      <c r="A676" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B676" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C676" t="s">
-        <v>10</v>
-      </c>
-      <c r="D676" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E676" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F676" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6">
-      <c r="A677" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C677" t="s">
-        <v>10</v>
-      </c>
-      <c r="D677" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E677" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F677" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6">
-      <c r="A678" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C678" t="s">
-        <v>10</v>
-      </c>
-      <c r="D678" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E678" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F678" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6">
-      <c r="A679" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C679" t="s">
-        <v>10</v>
-      </c>
-      <c r="D679" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E679" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F679" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="680" spans="1:6">
-      <c r="A680" t="s">
-        <v>504</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C680" t="s">
-        <v>10</v>
-      </c>
-      <c r="D680" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E680" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F680" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6">
-      <c r="A681" t="s">
-        <v>504</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C681" t="s">
-        <v>10</v>
-      </c>
-      <c r="D681" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E681" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F681" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6">
-      <c r="A682" t="s">
-        <v>504</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C682" t="s">
-        <v>10</v>
-      </c>
-      <c r="D682" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E682" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F682" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
-      <c r="A683" t="s">
-        <v>8</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C683" t="s">
-        <v>10</v>
-      </c>
-      <c r="D683" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E683" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F683" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="684" spans="1:6">
-      <c r="A684" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C684" t="s">
-        <v>10</v>
-      </c>
-      <c r="D684" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E684" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F684" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6">
-      <c r="A685" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C685" t="s">
-        <v>10</v>
-      </c>
-      <c r="D685" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E685" t="s">
-        <v>1613</v>
-      </c>
-      <c r="F685" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6">
-      <c r="A686" t="s">
-        <v>504</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C686" t="s">
-        <v>10</v>
-      </c>
-      <c r="D686" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E686" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F686" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="687" spans="1:6">
-      <c r="A687" t="s">
-        <v>504</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C687" t="s">
-        <v>10</v>
-      </c>
-      <c r="D687" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E687" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F687" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6">
-      <c r="A688" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C688" t="s">
-        <v>10</v>
-      </c>
-      <c r="D688" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E688" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F688" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="689" spans="1:6">
-      <c r="A689" t="s">
-        <v>8</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C689" t="s">
-        <v>10</v>
-      </c>
-      <c r="D689" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E689" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F689" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="690" spans="1:6">
-      <c r="A690" t="s">
-        <v>8</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C690" t="s">
-        <v>10</v>
-      </c>
-      <c r="D690" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E690" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F690" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="691" spans="1:6">
-      <c r="A691" t="s">
-        <v>8</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C691" t="s">
-        <v>10</v>
-      </c>
-      <c r="D691" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E691" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F691" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="692" spans="1:6">
-      <c r="A692" t="s">
-        <v>8</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C692" t="s">
-        <v>10</v>
-      </c>
-      <c r="D692" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E692" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F692" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="693" spans="1:6">
-      <c r="A693" t="s">
-        <v>8</v>
-      </c>
-      <c r="B693" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C693" t="s">
-        <v>10</v>
-      </c>
-      <c r="D693" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E693" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F693" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6">
-      <c r="A694" t="s">
-        <v>8</v>
-      </c>
-      <c r="B694" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C694" t="s">
-        <v>10</v>
-      </c>
-      <c r="D694" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E694" t="s">
-        <v>1633</v>
-      </c>
-      <c r="F694" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="695" spans="1:6">
-      <c r="A695" t="s">
-        <v>8</v>
-      </c>
-      <c r="B695" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C695" t="s">
-        <v>10</v>
-      </c>
-      <c r="D695" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E695" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F695" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="696" spans="1:6">
-      <c r="A696" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C696" t="s">
-        <v>10</v>
-      </c>
-      <c r="D696" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E696" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F696" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="697" spans="1:6">
-      <c r="A697" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C697" t="s">
-        <v>10</v>
-      </c>
-      <c r="D697" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E697" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F697" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="698" spans="1:6">
-      <c r="A698" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C698" t="s">
-        <v>10</v>
-      </c>
-      <c r="D698" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E698" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F698" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="699" spans="1:6">
-      <c r="A699" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B699" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C699" t="s">
-        <v>10</v>
-      </c>
-      <c r="D699" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E699" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F699" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6">
-      <c r="A700" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C700" t="s">
-        <v>10</v>
-      </c>
-      <c r="D700" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E700" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F700" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="701" spans="1:6">
-      <c r="A701" t="s">
-        <v>8</v>
-      </c>
-      <c r="B701" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C701" t="s">
-        <v>10</v>
-      </c>
-      <c r="D701" t="s">
-        <v>1656</v>
-      </c>
-      <c r="E701" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F701" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="702" spans="1:6">
-      <c r="A702" t="s">
-        <v>8</v>
-      </c>
-      <c r="B702" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C702" t="s">
-        <v>10</v>
-      </c>
-      <c r="D702" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E702" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F702" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="703" spans="1:6">
-      <c r="A703" t="s">
-        <v>8</v>
-      </c>
-      <c r="B703" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C703" t="s">
-        <v>10</v>
-      </c>
-      <c r="D703" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E703" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F703" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="704" spans="1:6">
-      <c r="A704" t="s">
-        <v>8</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C704" t="s">
-        <v>10</v>
-      </c>
-      <c r="D704" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E704" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F704" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="705" spans="1:6">
-      <c r="A705" t="s">
-        <v>8</v>
-      </c>
-      <c r="B705" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C705" t="s">
-        <v>10</v>
-      </c>
-      <c r="D705" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E705" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F705" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="706" spans="1:6">
-      <c r="A706" t="s">
-        <v>8</v>
-      </c>
-      <c r="B706" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C706" t="s">
-        <v>10</v>
-      </c>
-      <c r="D706" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E706" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F706" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="707" spans="1:6">
-      <c r="A707" t="s">
-        <v>8</v>
-      </c>
-      <c r="B707" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C707" t="s">
-        <v>10</v>
-      </c>
-      <c r="D707" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E707" t="s">
-        <v>1669</v>
-      </c>
-      <c r="F707" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6">
-      <c r="A708" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B708" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C708" t="s">
-        <v>10</v>
-      </c>
-      <c r="D708" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E708" t="s">
-        <v>1671</v>
-      </c>
-      <c r="F708" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6">
-      <c r="A709" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B709" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C709" t="s">
-        <v>10</v>
-      </c>
-      <c r="D709" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E709" t="s">
-        <v>1675</v>
-      </c>
-      <c r="F709" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6">
-      <c r="A710" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B710" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C710" t="s">
-        <v>10</v>
-      </c>
-      <c r="D710" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E710" t="s">
-        <v>1679</v>
-      </c>
-      <c r="F710" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="711" spans="1:6">
-      <c r="A711" t="s">
-        <v>504</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C711" t="s">
-        <v>10</v>
-      </c>
-      <c r="D711" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E711" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F711" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="712" spans="1:6">
-      <c r="A712" t="s">
-        <v>504</v>
-      </c>
-      <c r="B712" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C712" t="s">
-        <v>10</v>
-      </c>
-      <c r="D712" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E712" t="s">
-        <v>1683</v>
-      </c>
-      <c r="F712" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="713" spans="1:6">
-      <c r="A713" t="s">
-        <v>504</v>
-      </c>
-      <c r="B713" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C713" t="s">
-        <v>10</v>
-      </c>
-      <c r="D713" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E713" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F713" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="714" spans="1:6">
-      <c r="A714" t="s">
-        <v>8</v>
-      </c>
-      <c r="B714" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C714" t="s">
-        <v>10</v>
-      </c>
-      <c r="D714" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E714" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F714" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6">
-      <c r="A715" t="s">
-        <v>8</v>
-      </c>
-      <c r="B715" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C715" t="s">
-        <v>10</v>
-      </c>
-      <c r="D715" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E715" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F715" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="716" spans="1:6">
-      <c r="A716" t="s">
-        <v>8</v>
-      </c>
-      <c r="B716" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C716" t="s">
-        <v>10</v>
-      </c>
-      <c r="D716" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E716" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F716" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="717" spans="1:6">
-      <c r="A717" t="s">
-        <v>504</v>
-      </c>
-      <c r="B717" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C717" t="s">
-        <v>10</v>
-      </c>
-      <c r="D717" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E717" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F717" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6">
-      <c r="A718" t="s">
-        <v>504</v>
-      </c>
-      <c r="B718" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C718" t="s">
-        <v>10</v>
-      </c>
-      <c r="D718" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E718" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F718" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="719" spans="1:6">
-      <c r="A719" t="s">
-        <v>8</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C719" t="s">
-        <v>10</v>
-      </c>
-      <c r="D719" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E719" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F719" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="720" spans="1:6">
-      <c r="A720" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B720" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C720" t="s">
-        <v>10</v>
-      </c>
-      <c r="D720" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E720" t="s">
-        <v>1705</v>
-      </c>
-      <c r="F720" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="721" spans="1:6">
-      <c r="A721" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B721" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C721" t="s">
-        <v>10</v>
-      </c>
-      <c r="D721" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E721" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F721" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="722" spans="1:6">
-      <c r="A722" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B722" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C722" t="s">
-        <v>10</v>
-      </c>
-      <c r="D722" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E722" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F722" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6">
-      <c r="A723" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B723" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C723" t="s">
-        <v>10</v>
-      </c>
-      <c r="D723" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E723" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F723" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="724" spans="1:6">
-      <c r="A724" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B724" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C724" t="s">
-        <v>10</v>
-      </c>
-      <c r="D724" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E724" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F724" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="725" spans="1:6">
-      <c r="A725" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C725" t="s">
-        <v>10</v>
-      </c>
-      <c r="D725" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E725" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F725" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6">
-      <c r="A726" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B726" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C726" t="s">
-        <v>10</v>
-      </c>
-      <c r="D726" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E726" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F726" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="727" spans="1:6">
-      <c r="A727" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B727" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C727" t="s">
-        <v>10</v>
-      </c>
-      <c r="D727" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E727" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F727" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="728" spans="1:6">
-      <c r="A728" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B728" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C728" t="s">
-        <v>10</v>
-      </c>
-      <c r="D728" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E728" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F728" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="729" spans="1:6">
-      <c r="A729" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B729" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C729" t="s">
-        <v>10</v>
-      </c>
-      <c r="D729" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E729" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F729" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6">
-      <c r="A730" t="s">
-        <v>8</v>
-      </c>
-      <c r="B730" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C730" t="s">
-        <v>10</v>
-      </c>
-      <c r="D730" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E730" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F730" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="731" spans="1:6">
-      <c r="A731" t="s">
-        <v>8</v>
-      </c>
-      <c r="B731" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C731" t="s">
-        <v>10</v>
-      </c>
-      <c r="D731" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E731" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F731" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="732" spans="1:6">
-      <c r="A732" t="s">
-        <v>8</v>
-      </c>
-      <c r="B732" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C732" t="s">
-        <v>10</v>
-      </c>
-      <c r="D732" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E732" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F732" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="733" spans="1:6">
-      <c r="A733" t="s">
-        <v>8</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C733" t="s">
-        <v>10</v>
-      </c>
-      <c r="D733" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E733" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F733" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="734" spans="1:6">
-      <c r="A734" t="s">
-        <v>8</v>
-      </c>
-      <c r="B734" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C734" t="s">
-        <v>10</v>
-      </c>
-      <c r="D734" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E734" t="s">
-        <v>1743</v>
-      </c>
-      <c r="F734" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6">
-      <c r="A735" t="s">
-        <v>8</v>
-      </c>
-      <c r="B735" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C735" t="s">
-        <v>10</v>
-      </c>
-      <c r="D735" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E735" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F735" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="736" spans="1:6">
-      <c r="A736" t="s">
-        <v>8</v>
-      </c>
-      <c r="B736" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C736" t="s">
-        <v>10</v>
-      </c>
-      <c r="D736" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E736" t="s">
-        <v>1747</v>
-      </c>
-      <c r="F736" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="737" spans="1:6">
-      <c r="A737" t="s">
-        <v>8</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C737" t="s">
-        <v>10</v>
-      </c>
-      <c r="D737" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E737" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F737" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="738" spans="1:6">
-      <c r="A738" t="s">
-        <v>8</v>
-      </c>
-      <c r="B738" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C738" t="s">
-        <v>10</v>
-      </c>
-      <c r="D738" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E738" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F738" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="739" spans="1:6">
-      <c r="A739" t="s">
-        <v>8</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C739" t="s">
-        <v>10</v>
-      </c>
-      <c r="D739" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E739" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F739" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="740" spans="1:6">
-      <c r="A740" t="s">
-        <v>8</v>
-      </c>
-      <c r="B740" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C740" t="s">
-        <v>10</v>
-      </c>
-      <c r="D740" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E740" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F740" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="741" spans="1:6">
-      <c r="A741" t="s">
-        <v>8</v>
-      </c>
-      <c r="B741" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C741" t="s">
-        <v>10</v>
-      </c>
-      <c r="D741" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E741" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F741" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="742" spans="1:6">
-      <c r="A742" t="s">
-        <v>8</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C742" t="s">
-        <v>10</v>
-      </c>
-      <c r="D742" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E742" t="s">
-        <v>1765</v>
-      </c>
-      <c r="F742" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="743" spans="1:6">
-      <c r="A743" t="s">
-        <v>8</v>
-      </c>
-      <c r="B743" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C743" t="s">
-        <v>10</v>
-      </c>
-      <c r="D743" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E743" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F743" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="744" spans="1:6">
-      <c r="A744" t="s">
-        <v>8</v>
-      </c>
-      <c r="B744" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C744" t="s">
-        <v>10</v>
-      </c>
-      <c r="D744" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E744" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F744" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6">
-      <c r="A745" t="s">
-        <v>8</v>
-      </c>
-      <c r="B745" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C745" t="s">
-        <v>10</v>
-      </c>
-      <c r="D745" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E745" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F745" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="746" spans="1:6">
-      <c r="A746" t="s">
-        <v>8</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C746" t="s">
-        <v>10</v>
-      </c>
-      <c r="D746" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E746" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F746" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6">
-      <c r="A747" t="s">
-        <v>8</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C747" t="s">
-        <v>10</v>
-      </c>
-      <c r="D747" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E747" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F747" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="748" spans="1:6">
-      <c r="A748" t="s">
-        <v>8</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C748" t="s">
-        <v>10</v>
-      </c>
-      <c r="D748" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E748" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F748" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="749" spans="1:6">
-      <c r="A749" t="s">
-        <v>8</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C749" t="s">
-        <v>10</v>
-      </c>
-      <c r="D749" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E749" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F749" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="750" spans="1:6">
-      <c r="A750" t="s">
-        <v>8</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C750" t="s">
-        <v>10</v>
-      </c>
-      <c r="D750" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E750" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F750" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="751" spans="1:6">
-      <c r="A751" t="s">
-        <v>8</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C751" t="s">
-        <v>10</v>
-      </c>
-      <c r="D751" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E751" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F751" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="752" spans="1:6">
-      <c r="A752" t="s">
-        <v>8</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C752" t="s">
-        <v>10</v>
-      </c>
-      <c r="D752" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E752" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F752" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6">
-      <c r="A753" t="s">
-        <v>8</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C753" t="s">
-        <v>10</v>
-      </c>
-      <c r="D753" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E753" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F753" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6">
-      <c r="A754" t="s">
-        <v>8</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C754" t="s">
-        <v>10</v>
-      </c>
-      <c r="D754" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E754" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F754" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="755" spans="1:6">
-      <c r="A755" t="s">
-        <v>8</v>
-      </c>
-      <c r="B755" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C755" t="s">
-        <v>10</v>
-      </c>
-      <c r="D755" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E755" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F755" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6">
-      <c r="A756" t="s">
-        <v>8</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C756" t="s">
-        <v>10</v>
-      </c>
-      <c r="D756" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E756" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F756" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6">
-      <c r="A757" t="s">
-        <v>8</v>
-      </c>
-      <c r="B757" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C757" t="s">
-        <v>10</v>
-      </c>
-      <c r="D757" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E757" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F757" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6">
-      <c r="A758" t="s">
-        <v>8</v>
-      </c>
-      <c r="B758" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C758" t="s">
-        <v>10</v>
-      </c>
-      <c r="D758" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E758" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F758" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="759" spans="1:6">
-      <c r="A759" t="s">
-        <v>8</v>
-      </c>
-      <c r="B759" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C759" t="s">
-        <v>10</v>
-      </c>
-      <c r="D759" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E759" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F759" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6">
-      <c r="A760" t="s">
-        <v>8</v>
-      </c>
-      <c r="B760" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C760" t="s">
-        <v>10</v>
-      </c>
-      <c r="D760" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E760" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F760" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6">
-      <c r="A761" t="s">
-        <v>8</v>
-      </c>
-      <c r="B761" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C761" t="s">
-        <v>10</v>
-      </c>
-      <c r="D761" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E761" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F761" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6">
-      <c r="A762" t="s">
-        <v>8</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C762" t="s">
-        <v>10</v>
-      </c>
-      <c r="D762" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E762" t="s">
-        <v>1809</v>
-      </c>
-      <c r="F762" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6">
-      <c r="A763" t="s">
-        <v>8</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C763" t="s">
-        <v>10</v>
-      </c>
-      <c r="D763" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E763" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F763" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6">
-      <c r="A764" t="s">
-        <v>8</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C764" t="s">
-        <v>10</v>
-      </c>
-      <c r="D764" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E764" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F764" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="765" spans="1:6">
-      <c r="A765" t="s">
-        <v>8</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C765" t="s">
-        <v>10</v>
-      </c>
-      <c r="D765" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E765" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F765" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6">
-      <c r="A766" t="s">
-        <v>8</v>
-      </c>
-      <c r="B766" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C766" t="s">
-        <v>10</v>
-      </c>
-      <c r="D766" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E766" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F766" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6">
-      <c r="A767" t="s">
-        <v>8</v>
-      </c>
-      <c r="B767" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C767" t="s">
-        <v>10</v>
-      </c>
-      <c r="D767" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E767" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F767" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6">
-      <c r="A768" t="s">
-        <v>8</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C768" t="s">
-        <v>10</v>
-      </c>
-      <c r="D768" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E768" t="s">
-        <v>1827</v>
-      </c>
-      <c r="F768" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="769" spans="1:6">
-      <c r="A769" t="s">
-        <v>8</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C769" t="s">
-        <v>10</v>
-      </c>
-      <c r="D769" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E769" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F769" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6">
-      <c r="A770" t="s">
-        <v>8</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C770" t="s">
-        <v>10</v>
-      </c>
-      <c r="D770" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E770" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F770" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="771" spans="1:6">
-      <c r="A771" t="s">
-        <v>8</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C771" t="s">
-        <v>10</v>
-      </c>
-      <c r="D771" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E771" t="s">
-        <v>1837</v>
-      </c>
-      <c r="F771" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="772" spans="1:6">
-      <c r="A772" t="s">
-        <v>8</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C772" t="s">
-        <v>10</v>
-      </c>
-      <c r="D772" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E772" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F772" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="773" spans="1:6">
-      <c r="A773" t="s">
-        <v>8</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C773" t="s">
-        <v>10</v>
-      </c>
-      <c r="D773" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E773" t="s">
-        <v>1841</v>
-      </c>
-      <c r="F773" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6">
-      <c r="A774" t="s">
-        <v>8</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C774" t="s">
-        <v>10</v>
-      </c>
-      <c r="D774" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E774" t="s">
-        <v>1845</v>
-      </c>
-      <c r="F774" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="775" spans="1:6">
-      <c r="A775" t="s">
-        <v>8</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C775" t="s">
-        <v>10</v>
-      </c>
-      <c r="D775" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E775" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F775" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="776" spans="1:6">
-      <c r="A776" t="s">
-        <v>8</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C776" t="s">
-        <v>10</v>
-      </c>
-      <c r="D776" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E776" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F776" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6">
-      <c r="A777" t="s">
-        <v>8</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C777" t="s">
-        <v>10</v>
-      </c>
-      <c r="D777" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E777" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F777" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6">
-      <c r="A778" t="s">
-        <v>8</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C778" t="s">
-        <v>10</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E778" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F778" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6">
-      <c r="A779" t="s">
-        <v>8</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C779" t="s">
-        <v>10</v>
-      </c>
-      <c r="D779" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E779" t="s">
-        <v>1860</v>
-      </c>
-      <c r="F779" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="780" spans="1:6">
-      <c r="A780" t="s">
-        <v>8</v>
-      </c>
-      <c r="B780" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C780" t="s">
-        <v>10</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E780" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F780" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="781" spans="1:6">
-      <c r="A781" t="s">
-        <v>8</v>
-      </c>
-      <c r="B781" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C781" t="s">
-        <v>10</v>
-      </c>
-      <c r="D781" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E781" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F781" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="782" spans="1:6">
-      <c r="A782" t="s">
-        <v>8</v>
-      </c>
-      <c r="B782" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C782" t="s">
-        <v>10</v>
-      </c>
-      <c r="D782" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E782" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F782" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="783" spans="1:6">
-      <c r="A783" t="s">
-        <v>8</v>
-      </c>
-      <c r="B783" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C783" t="s">
-        <v>10</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E783" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F783" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6">
-      <c r="A784" t="s">
-        <v>8</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C784" t="s">
-        <v>10</v>
-      </c>
-      <c r="D784" t="s">
-        <v>1873</v>
-      </c>
-      <c r="E784" t="s">
-        <v>1874</v>
-      </c>
-      <c r="F784" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6">
-      <c r="A785" t="s">
-        <v>8</v>
-      </c>
-      <c r="B785" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C785" t="s">
-        <v>10</v>
-      </c>
-      <c r="D785" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E785" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F785" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6">
-      <c r="A786" t="s">
-        <v>8</v>
-      </c>
-      <c r="B786" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C786" t="s">
-        <v>10</v>
-      </c>
-      <c r="D786" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E786" t="s">
-        <v>1878</v>
-      </c>
-      <c r="F786" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="787" spans="1:6">
-      <c r="A787" t="s">
-        <v>8</v>
-      </c>
-      <c r="B787" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C787" t="s">
-        <v>10</v>
-      </c>
-      <c r="D787" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E787" t="s">
-        <v>1882</v>
-      </c>
-      <c r="F787" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6">
-      <c r="A788" t="s">
-        <v>8</v>
-      </c>
-      <c r="B788" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C788" t="s">
-        <v>10</v>
-      </c>
-      <c r="D788" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E788" t="s">
-        <v>1886</v>
-      </c>
-      <c r="F788" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6">
-      <c r="A789" t="s">
-        <v>8</v>
-      </c>
-      <c r="B789" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C789" t="s">
-        <v>10</v>
-      </c>
-      <c r="D789" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E789" t="s">
-        <v>1890</v>
-      </c>
-      <c r="F789" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6">
-      <c r="A790" t="s">
-        <v>8</v>
-      </c>
-      <c r="B790" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C790" t="s">
-        <v>10</v>
-      </c>
-      <c r="D790" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E790" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F790" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6">
-      <c r="A791" t="s">
-        <v>8</v>
-      </c>
-      <c r="B791" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C791" t="s">
-        <v>10</v>
-      </c>
-      <c r="D791" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E791" t="s">
-        <v>1894</v>
-      </c>
-      <c r="F791" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6">
-      <c r="A792" t="s">
-        <v>8</v>
-      </c>
-      <c r="B792" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C792" t="s">
-        <v>10</v>
-      </c>
-      <c r="D792" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E792" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F792" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6">
-      <c r="A793" t="s">
-        <v>8</v>
-      </c>
-      <c r="B793" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C793" t="s">
-        <v>10</v>
-      </c>
-      <c r="D793" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E793" t="s">
-        <v>1900</v>
-      </c>
-      <c r="F793" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="794" spans="1:6">
-      <c r="A794" t="s">
-        <v>8</v>
-      </c>
-      <c r="B794" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C794" t="s">
-        <v>10</v>
-      </c>
-      <c r="D794" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E794" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F794" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6">
-      <c r="A795" t="s">
-        <v>8</v>
-      </c>
-      <c r="B795" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C795" t="s">
-        <v>10</v>
-      </c>
-      <c r="D795" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E795" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F795" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6">
-      <c r="A796" t="s">
-        <v>8</v>
-      </c>
-      <c r="B796" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C796" t="s">
-        <v>10</v>
-      </c>
-      <c r="D796" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E796" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F796" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6">
-      <c r="A797" t="s">
-        <v>8</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C797" t="s">
-        <v>10</v>
-      </c>
-      <c r="D797" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E797" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F797" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6">
-      <c r="A798" t="s">
-        <v>8</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C798" t="s">
-        <v>10</v>
-      </c>
-      <c r="D798" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E798" t="s">
-        <v>1916</v>
-      </c>
-      <c r="F798" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="799" spans="1:6">
-      <c r="A799" t="s">
-        <v>8</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C799" t="s">
-        <v>10</v>
-      </c>
-      <c r="D799" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E799" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F799" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="800" spans="1:6">
-      <c r="A800" t="s">
-        <v>8</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C800" t="s">
-        <v>10</v>
-      </c>
-      <c r="D800" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E800" t="s">
-        <v>1922</v>
-      </c>
-      <c r="F800" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6">
-      <c r="A801" t="s">
-        <v>8</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C801" t="s">
-        <v>10</v>
-      </c>
-      <c r="D801" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E801" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F801" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6">
-      <c r="A802" t="s">
-        <v>8</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C802" t="s">
-        <v>10</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E802" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F802" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6">
-      <c r="A803" t="s">
-        <v>8</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C803" t="s">
-        <v>10</v>
-      </c>
-      <c r="D803" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E803" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F803" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6">
-      <c r="A804" t="s">
-        <v>8</v>
-      </c>
-      <c r="B804" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C804" t="s">
-        <v>10</v>
-      </c>
-      <c r="D804" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E804" t="s">
-        <v>1936</v>
-      </c>
-      <c r="F804" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="805" spans="1:6">
-      <c r="A805" t="s">
-        <v>8</v>
-      </c>
-      <c r="B805" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C805" t="s">
-        <v>10</v>
-      </c>
-      <c r="D805" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E805" t="s">
-        <v>1940</v>
-      </c>
-      <c r="F805" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="806" spans="1:6">
-      <c r="A806" t="s">
-        <v>8</v>
-      </c>
-      <c r="B806" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C806" t="s">
-        <v>10</v>
-      </c>
-      <c r="D806" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E806" t="s">
-        <v>1942</v>
-      </c>
-      <c r="F806" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="807" spans="1:6">
-      <c r="A807" t="s">
-        <v>8</v>
-      </c>
-      <c r="B807" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C807" t="s">
-        <v>10</v>
-      </c>
-      <c r="D807" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E807" t="s">
-        <v>1944</v>
-      </c>
-      <c r="F807" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="808" spans="1:6">
-      <c r="A808" t="s">
-        <v>8</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C808" t="s">
-        <v>10</v>
-      </c>
-      <c r="D808" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E808" t="s">
-        <v>1948</v>
-      </c>
-      <c r="F808" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6">
-      <c r="A809" t="s">
-        <v>8</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C809" t="s">
-        <v>10</v>
-      </c>
-      <c r="D809" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E809" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F809" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6">
-      <c r="A810" t="s">
-        <v>8</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C810" t="s">
-        <v>10</v>
-      </c>
-      <c r="D810" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E810" t="s">
-        <v>1954</v>
-      </c>
-      <c r="F810" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="811" spans="1:6">
-      <c r="A811" t="s">
-        <v>8</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1956</v>
-      </c>
-      <c r="C811" t="s">
-        <v>10</v>
-      </c>
-      <c r="D811" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E811" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F811" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="812" spans="1:6">
-      <c r="A812" t="s">
-        <v>8</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C812" t="s">
-        <v>10</v>
-      </c>
-      <c r="D812" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E812" t="s">
-        <v>1960</v>
-      </c>
-      <c r="F812" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6">
-      <c r="A813" t="s">
-        <v>8</v>
-      </c>
-      <c r="B813" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C813" t="s">
-        <v>10</v>
-      </c>
-      <c r="D813" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E813" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F813" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6">
-      <c r="A814" t="s">
-        <v>8</v>
-      </c>
-      <c r="B814" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C814" t="s">
-        <v>10</v>
-      </c>
-      <c r="D814" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E814" t="s">
-        <v>1966</v>
-      </c>
-      <c r="F814" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6">
-      <c r="A815" t="s">
-        <v>8</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C815" t="s">
-        <v>10</v>
-      </c>
-      <c r="D815" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E815" t="s">
-        <v>1968</v>
-      </c>
-      <c r="F815" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="816" spans="1:6">
-      <c r="A816" t="s">
-        <v>8</v>
-      </c>
-      <c r="B816" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C816" t="s">
-        <v>10</v>
-      </c>
-      <c r="D816" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E816" t="s">
-        <v>1970</v>
-      </c>
-      <c r="F816" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="817" spans="1:6">
-      <c r="A817" t="s">
-        <v>8</v>
-      </c>
-      <c r="B817" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C817" t="s">
-        <v>10</v>
-      </c>
-      <c r="D817" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E817" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F817" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="818" spans="1:6">
-      <c r="A818" t="s">
-        <v>8</v>
-      </c>
-      <c r="B818" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C818" t="s">
-        <v>10</v>
-      </c>
-      <c r="D818" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E818" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F818" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="819" spans="1:6">
-      <c r="A819" t="s">
-        <v>8</v>
-      </c>
-      <c r="B819" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C819" t="s">
-        <v>10</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E819" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F819" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="820" spans="1:6">
-      <c r="A820" t="s">
-        <v>8</v>
-      </c>
-      <c r="B820" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C820" t="s">
-        <v>10</v>
-      </c>
-      <c r="D820" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E820" t="s">
-        <v>1980</v>
-      </c>
-      <c r="F820" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="821" spans="1:6">
-      <c r="A821" t="s">
-        <v>8</v>
-      </c>
-      <c r="B821" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C821" t="s">
-        <v>10</v>
-      </c>
-      <c r="D821" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E821" t="s">
-        <v>1982</v>
-      </c>
-      <c r="F821" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="822" spans="1:6">
-      <c r="A822" t="s">
-        <v>8</v>
-      </c>
-      <c r="B822" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C822" t="s">
-        <v>10</v>
-      </c>
-      <c r="D822" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E822" t="s">
-        <v>1984</v>
-      </c>
-      <c r="F822" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="823" spans="1:6">
-      <c r="A823" t="s">
-        <v>8</v>
-      </c>
-      <c r="B823" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C823" t="s">
-        <v>10</v>
-      </c>
-      <c r="D823" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E823" t="s">
-        <v>1986</v>
-      </c>
-      <c r="F823" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="824" spans="1:6">
-      <c r="A824" t="s">
-        <v>8</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C824" t="s">
-        <v>10</v>
-      </c>
-      <c r="D824" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E824" t="s">
-        <v>1988</v>
-      </c>
-      <c r="F824" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="825" spans="1:6">
-      <c r="A825" t="s">
-        <v>8</v>
-      </c>
-      <c r="B825" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C825" t="s">
-        <v>10</v>
-      </c>
-      <c r="D825" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E825" t="s">
-        <v>1992</v>
-      </c>
-      <c r="F825" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="826" spans="1:6">
-      <c r="A826" t="s">
-        <v>8</v>
-      </c>
-      <c r="B826" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C826" t="s">
-        <v>10</v>
-      </c>
-      <c r="D826" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E826" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F826" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="827" spans="1:6">
-      <c r="A827" t="s">
-        <v>8</v>
-      </c>
-      <c r="B827" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C827" t="s">
-        <v>10</v>
-      </c>
-      <c r="D827" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E827" t="s">
-        <v>1996</v>
-      </c>
-      <c r="F827" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="828" spans="1:6">
-      <c r="A828" t="s">
-        <v>8</v>
-      </c>
-      <c r="B828" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C828" t="s">
-        <v>10</v>
-      </c>
-      <c r="D828" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E828" t="s">
-        <v>1998</v>
-      </c>
-      <c r="F828" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="829" spans="1:6">
-      <c r="A829" t="s">
-        <v>8</v>
-      </c>
-      <c r="B829" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C829" t="s">
-        <v>10</v>
-      </c>
-      <c r="D829" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E829" t="s">
-        <v>2000</v>
-      </c>
-      <c r="F829" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="830" spans="1:6">
-      <c r="A830" t="s">
-        <v>8</v>
-      </c>
-      <c r="B830" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C830" t="s">
-        <v>10</v>
-      </c>
-      <c r="D830" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E830" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F830" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="831" spans="1:6">
-      <c r="A831" t="s">
-        <v>8</v>
-      </c>
-      <c r="B831" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C831" t="s">
-        <v>10</v>
-      </c>
-      <c r="D831" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E831" t="s">
-        <v>2004</v>
-      </c>
-      <c r="F831" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="832" spans="1:6">
-      <c r="A832" t="s">
-        <v>8</v>
-      </c>
-      <c r="B832" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C832" t="s">
-        <v>10</v>
-      </c>
-      <c r="D832" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E832" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F832" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="833" spans="1:6">
-      <c r="A833" t="s">
-        <v>8</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C833" t="s">
-        <v>10</v>
-      </c>
-      <c r="D833" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E833" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F833" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="834" spans="1:6">
-      <c r="A834" t="s">
-        <v>8</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C834" t="s">
-        <v>10</v>
-      </c>
-      <c r="D834" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E834" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F834" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="835" spans="1:6">
-      <c r="A835" t="s">
-        <v>8</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C835" t="s">
-        <v>10</v>
-      </c>
-      <c r="D835" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E835" t="s">
-        <v>2011</v>
-      </c>
-      <c r="F835" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="836" spans="1:6">
-      <c r="A836" t="s">
-        <v>8</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C836" t="s">
-        <v>10</v>
-      </c>
-      <c r="D836" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E836" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F836" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6">
-      <c r="A837" t="s">
-        <v>8</v>
-      </c>
-      <c r="B837" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C837" t="s">
-        <v>10</v>
-      </c>
-      <c r="D837" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E837" t="s">
-        <v>2017</v>
-      </c>
-      <c r="F837" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6">
-      <c r="A838" t="s">
-        <v>8</v>
-      </c>
-      <c r="B838" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C838" t="s">
-        <v>10</v>
-      </c>
-      <c r="D838" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E838" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F838" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="839" spans="1:6">
-      <c r="A839" t="s">
-        <v>8</v>
-      </c>
-      <c r="B839" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C839" t="s">
-        <v>10</v>
-      </c>
-      <c r="D839" t="s">
-        <v>2022</v>
-      </c>
-      <c r="E839" t="s">
-        <v>2023</v>
-      </c>
-      <c r="F839" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="842" spans="1:6">
-      <c r="E842" s="1" t="s">
-        <v>2025</v>
-      </c>
-      <c r="F842" s="1" t="s">
-        <v>2026</v>
+      <c r="E598" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>1334</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,10 +42,22 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>$700.00</t>
+  </si>
+  <si>
+    <t>2018-04-04 01:48:03</t>
+  </si>
+  <si>
     <t>Total Amount</t>
-  </si>
-  <si>
-    <t>$0.00</t>
   </si>
 </sst>
 </file>
@@ -399,20 +411,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -447,12 +459,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="E5" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -57,7 +57,34 @@
     <t>2018-04-04 01:48:03</t>
   </si>
   <si>
+    <t>W w</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>2018-04-20 01:56:48</t>
+  </si>
+  <si>
+    <t>zoyo zoyo</t>
+  </si>
+  <si>
+    <t>2018-04-20 01:56:49</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>zejie L</t>
+  </si>
+  <si>
     <t>Total Amount</t>
+  </si>
+  <si>
+    <t>$800.00</t>
   </si>
 </sst>
 </file>
@@ -411,15 +438,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
@@ -477,12 +504,102 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="1:6">
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,49 +42,37 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>W w</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>2018-04-21 20:17:23</t>
+  </si>
+  <si>
+    <t>zoyo zoyo</t>
+  </si>
+  <si>
+    <t>$247,000.00</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>$60,375.00</t>
+  </si>
+  <si>
     <t>Tio Tang</t>
   </si>
   <si>
-    <t>$500.00</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>$700.00</t>
-  </si>
-  <si>
-    <t>2018-04-04 01:48:03</t>
-  </si>
-  <si>
-    <t>W w</t>
-  </si>
-  <si>
-    <t>$20.00</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>2018-04-20 01:56:48</t>
-  </si>
-  <si>
-    <t>zoyo zoyo</t>
-  </si>
-  <si>
-    <t>2018-04-20 01:56:49</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>zejie L</t>
+    <t>$379,050.00</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$800.00</t>
+    <t>$686,425.00</t>
   </si>
 </sst>
 </file>
@@ -438,18 +426,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -494,112 +482,76 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -69,10 +69,19 @@
     <t>$379,050.00</t>
   </si>
   <si>
+    <t>$2.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 37</t>
+  </si>
+  <si>
+    <t>2018-04-21 20:50:39</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$686,425.00</t>
+    <t>$686,427.00</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,7 +447,7 @@
     <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -546,12 +555,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,46 +42,49 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>$700.00</t>
+  </si>
+  <si>
+    <t>2018-04-04 01:48:03</t>
+  </si>
+  <si>
     <t>W w</t>
   </si>
   <si>
+    <t>$20.00</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>2018-04-21 20:17:23</t>
+    <t>2018-04-20 01:56:48</t>
   </si>
   <si>
     <t>zoyo zoyo</t>
   </si>
   <si>
-    <t>$247,000.00</t>
+    <t>2018-04-20 01:56:49</t>
   </si>
   <si>
     <t>compassparts compassparts</t>
   </si>
   <si>
-    <t>$60,375.00</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>$379,050.00</t>
-  </si>
-  <si>
-    <t>$2.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 37</t>
-  </si>
-  <si>
-    <t>2018-04-21 20:50:39</t>
+    <t>zejie L</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$686,427.00</t>
+    <t>$800.00</t>
   </si>
 </sst>
 </file>
@@ -435,19 +438,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -491,96 +494,112 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,49 +42,46 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>W w</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>2018-04-21 20:17:23</t>
+  </si>
+  <si>
+    <t>zoyo zoyo</t>
+  </si>
+  <si>
+    <t>$247,000.00</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>$60,375.00</t>
+  </si>
+  <si>
     <t>Tio Tang</t>
   </si>
   <si>
-    <t>$500.00</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>$700.00</t>
-  </si>
-  <si>
-    <t>2018-04-04 01:48:03</t>
-  </si>
-  <si>
-    <t>W w</t>
-  </si>
-  <si>
-    <t>$20.00</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>2018-04-20 01:56:48</t>
-  </si>
-  <si>
-    <t>zoyo zoyo</t>
-  </si>
-  <si>
-    <t>2018-04-20 01:56:49</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>zejie L</t>
+    <t>$379,050.00</t>
+  </si>
+  <si>
+    <t>$2.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 37</t>
+  </si>
+  <si>
+    <t>2018-05-05 21:39:25</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$800.00</t>
+    <t>$686,427.00</t>
   </si>
 </sst>
 </file>
@@ -438,19 +435,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -494,112 +491,96 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="E11" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,46 +42,49 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>$700.00</t>
+  </si>
+  <si>
+    <t>2018-04-04 01:48:03</t>
+  </si>
+  <si>
     <t>W w</t>
   </si>
   <si>
+    <t>$20.00</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>2018-04-21 20:17:23</t>
+    <t>2018-04-20 01:56:48</t>
   </si>
   <si>
     <t>zoyo zoyo</t>
   </si>
   <si>
-    <t>$247,000.00</t>
+    <t>2018-04-20 01:56:49</t>
   </si>
   <si>
     <t>compassparts compassparts</t>
   </si>
   <si>
-    <t>$60,375.00</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>$379,050.00</t>
-  </si>
-  <si>
-    <t>$2.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 37</t>
-  </si>
-  <si>
-    <t>2018-05-05 21:39:25</t>
+    <t>zejie L</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$686,427.00</t>
+    <t>$800.00</t>
   </si>
 </sst>
 </file>
@@ -435,19 +438,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -491,96 +494,112 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,10 +42,49 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>2018-09-06 01:44:30</t>
+  </si>
+  <si>
+    <t>$252.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 119</t>
+  </si>
+  <si>
+    <t>2018-09-06 02:23:46</t>
+  </si>
+  <si>
+    <t>$77.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 110</t>
+  </si>
+  <si>
+    <t>2018-09-06 02:26:15</t>
+  </si>
+  <si>
+    <t>$21.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 96</t>
+  </si>
+  <si>
+    <t>2018-09-06 02:34:00</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$0.00</t>
+    <t>$355.00</t>
   </si>
 </sst>
 </file>
@@ -399,20 +438,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -447,12 +486,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="5" spans="1:6">
-      <c r="E5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -48,43 +48,16 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>$5.00</t>
-  </si>
-  <si>
-    <t>2018-09-06 01:44:30</t>
-  </si>
-  <si>
-    <t>$252.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 119</t>
-  </si>
-  <si>
-    <t>2018-09-06 02:23:46</t>
-  </si>
-  <si>
-    <t>$77.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 110</t>
-  </si>
-  <si>
-    <t>2018-09-06 02:26:15</t>
-  </si>
-  <si>
-    <t>$21.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 96</t>
-  </si>
-  <si>
-    <t>2018-09-06 02:34:00</t>
+    <t>$110.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 122</t>
+  </si>
+  <si>
+    <t>2018-09-06 21:06:52</t>
   </si>
   <si>
     <t>Total Amount</t>
-  </si>
-  <si>
-    <t>$355.00</t>
   </si>
 </sst>
 </file>
@@ -438,10 +411,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,77 +472,19 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -48,13 +48,13 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>$110.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 122</t>
-  </si>
-  <si>
-    <t>2018-09-06 21:06:52</t>
+    <t>$64,854.00</t>
+  </si>
+  <si>
+    <t>invenory fee by volume on 2018-09-06</t>
+  </si>
+  <si>
+    <t>2018-09-06 22:45:59</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -421,9 +421,9 @@
   <cols>
     <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -48,13 +48,13 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>$64,854.00</t>
-  </si>
-  <si>
-    <t>invenory fee by volume on 2018-09-06</t>
-  </si>
-  <si>
-    <t>2018-09-06 22:45:59</t>
+    <t>$366.67</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 124</t>
+  </si>
+  <si>
+    <t>2018-09-07 19:57:35</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -421,9 +421,9 @@
   <cols>
     <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,22 +42,10 @@
     <t>Date Added</t>
   </si>
   <si>
-    <t>Huang Xiaojian</t>
+    <t>Total Amount</t>
   </si>
   <si>
     <t>$0.00</t>
-  </si>
-  <si>
-    <t>$366.67</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 124</t>
-  </si>
-  <si>
-    <t>2018-09-07 19:57:35</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
   </si>
 </sst>
 </file>
@@ -411,20 +399,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -459,32 +447,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,10 +42,28 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 1</t>
+  </si>
+  <si>
+    <t>2019-04-29 17:44:44</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 2</t>
+  </si>
+  <si>
+    <t>2019-04-29 17:44:59</t>
+  </si>
+  <si>
     <t>Total Amount</t>
-  </si>
-  <si>
-    <t>$0.00</t>
   </si>
 </sst>
 </file>
@@ -399,20 +417,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -447,11 +465,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="E5" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,28 +42,121 @@
     <t>Date Added</t>
   </si>
   <si>
-    <t>Arron Dong</t>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>$58.00</t>
   </si>
   <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>transaction for checkin - ID: 1</t>
-  </si>
-  <si>
-    <t>2019-04-29 17:44:44</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>transaction for checkin - ID: 2</t>
-  </si>
-  <si>
-    <t>2019-04-29 17:44:59</t>
+    <t>order #10 ~ #12</t>
+  </si>
+  <si>
+    <t>2018-12-18 17:21:12</t>
+  </si>
+  <si>
+    <t>$44.00</t>
+  </si>
+  <si>
+    <t>order #13 ~ #15</t>
+  </si>
+  <si>
+    <t>2018-12-20 12:50:45</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>#order 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:26:38</t>
+  </si>
+  <si>
+    <t>$45.55</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 18  store order ID: 70995</t>
+  </si>
+  <si>
+    <t>2018-12-21 18:54:58</t>
+  </si>
+  <si>
+    <t>$10.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label fee for order - ID: 25  store order ID: 112-0688369-0885063-WXP </t>
+  </si>
+  <si>
+    <t>2018-12-26 10:01:35</t>
+  </si>
+  <si>
+    <t>$9.98</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 26  store order ID: 114-4961477-8753864</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:06:41</t>
+  </si>
+  <si>
+    <t>UPS FBA 12272018</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:51:21</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>carry 1</t>
+  </si>
+  <si>
+    <t>2019-01-24 16:14:49</t>
+  </si>
+  <si>
+    <t>carry 2</t>
+  </si>
+  <si>
+    <t>2019-01-24 16:14:59</t>
+  </si>
+  <si>
+    <t>$120.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 22</t>
+  </si>
+  <si>
+    <t>2019-02-13 15:44:42</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 21</t>
+  </si>
+  <si>
+    <t>2019-02-13 15:44:43</t>
+  </si>
+  <si>
+    <t>FBA4</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:34:12</t>
+  </si>
+  <si>
+    <t>FBA5</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:40:04</t>
   </si>
   <si>
     <t>Total Amount</t>
+  </si>
+  <si>
+    <t>$538.01</t>
   </si>
 </sst>
 </file>
@@ -417,19 +510,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="83.693848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -473,44 +566,264 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>2019-03-12 17:34:12</t>
-  </si>
-  <si>
-    <t>FBA5</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:40:04</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -510,10 +504,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,32 +792,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="17" spans="1:6">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -147,10 +147,28 @@
     <t>2019-03-12 17:34:12</t>
   </si>
   <si>
+    <t>FBA5</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:40:04</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>$3.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 29</t>
+  </si>
+  <si>
+    <t>2019-07-02 19:04:57</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$538.01</t>
+    <t>$541.01</t>
   </si>
 </sst>
 </file>
@@ -504,10 +522,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,12 +810,52 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="E17" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F15" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -153,22 +153,10 @@
     <t>2019-03-12 17:40:04</t>
   </si>
   <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>$3.00</t>
-  </si>
-  <si>
-    <t>transaction for checkin - ID: 29</t>
-  </si>
-  <si>
-    <t>2019-07-02 19:04:57</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$541.01</t>
+    <t>$538.01</t>
   </si>
 </sst>
 </file>
@@ -522,10 +510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -830,32 +818,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="18" spans="1:6">
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -153,10 +153,22 @@
     <t>2019-03-12 17:40:04</t>
   </si>
   <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>$6.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 178</t>
+  </si>
+  <si>
+    <t>2019-07-08 17:58:05</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$538.01</t>
+    <t>$544.01</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,12 +830,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="E18" s="1" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -45,130 +45,19 @@
     <t>Vee Trading</t>
   </si>
   <si>
-    <t>$58.00</t>
-  </si>
-  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>order #10 ~ #12</t>
-  </si>
-  <si>
-    <t>2018-12-18 17:21:12</t>
-  </si>
-  <si>
-    <t>$44.00</t>
-  </si>
-  <si>
-    <t>order #13 ~ #15</t>
-  </si>
-  <si>
-    <t>2018-12-20 12:50:45</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>#order 16, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>2018-12-21 14:26:38</t>
-  </si>
-  <si>
-    <t>$45.55</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 18  store order ID: 70995</t>
-  </si>
-  <si>
-    <t>2018-12-21 18:54:58</t>
-  </si>
-  <si>
-    <t>$10.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label fee for order - ID: 25  store order ID: 112-0688369-0885063-WXP </t>
-  </si>
-  <si>
-    <t>2018-12-26 10:01:35</t>
-  </si>
-  <si>
-    <t>$9.98</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 26  store order ID: 114-4961477-8753864</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:06:41</t>
-  </si>
-  <si>
-    <t>UPS FBA 12272018</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:51:21</t>
-  </si>
-  <si>
-    <t>Amy Huang</t>
-  </si>
-  <si>
-    <t>carry 1</t>
-  </si>
-  <si>
-    <t>2019-01-24 16:14:49</t>
-  </si>
-  <si>
-    <t>carry 2</t>
-  </si>
-  <si>
-    <t>2019-01-24 16:14:59</t>
-  </si>
-  <si>
-    <t>$120.00</t>
-  </si>
-  <si>
-    <t>transaction for checkin - ID: 22</t>
-  </si>
-  <si>
-    <t>2019-02-13 15:44:42</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t>transaction for checkin - ID: 21</t>
-  </si>
-  <si>
-    <t>2019-02-13 15:44:43</t>
-  </si>
-  <si>
-    <t>FBA4</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:34:12</t>
-  </si>
-  <si>
-    <t>FBA5</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:40:04</t>
-  </si>
-  <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>$6.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 178</t>
-  </si>
-  <si>
-    <t>2019-07-08 17:58:05</t>
+    <t>$4.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 181</t>
+  </si>
+  <si>
+    <t>2019-07-16 18:46:10</t>
   </si>
   <si>
     <t>Total Amount</t>
-  </si>
-  <si>
-    <t>$544.01</t>
   </si>
 </sst>
 </file>
@@ -522,19 +411,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="83.693848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -581,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -590,272 +479,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:6">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -45,19 +45,1370 @@
     <t>Vee Trading</t>
   </si>
   <si>
+    <t>$58.00</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>$4.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 181</t>
-  </si>
-  <si>
-    <t>2019-07-16 18:46:10</t>
+    <t>order #10 ~ #12</t>
+  </si>
+  <si>
+    <t>2018-12-18 17:21:12</t>
+  </si>
+  <si>
+    <t>$44.00</t>
+  </si>
+  <si>
+    <t>order #13 ~ #15</t>
+  </si>
+  <si>
+    <t>2018-12-20 12:50:45</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>#order 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:26:38</t>
+  </si>
+  <si>
+    <t>$45.55</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 18  store order ID: 70995</t>
+  </si>
+  <si>
+    <t>2018-12-21 18:54:58</t>
+  </si>
+  <si>
+    <t>$10.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label fee for order - ID: 25  store order ID: 112-0688369-0885063-WXP </t>
+  </si>
+  <si>
+    <t>2018-12-26 10:01:35</t>
+  </si>
+  <si>
+    <t>$9.98</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 26  store order ID: 114-4961477-8753864</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:06:41</t>
+  </si>
+  <si>
+    <t>UPS FBA 12272018</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:51:21</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>carry 1</t>
+  </si>
+  <si>
+    <t>2019-01-24 16:14:49</t>
+  </si>
+  <si>
+    <t>carry 2</t>
+  </si>
+  <si>
+    <t>2019-01-24 16:14:59</t>
+  </si>
+  <si>
+    <t>$120.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 22</t>
+  </si>
+  <si>
+    <t>2019-02-13 15:44:42</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 21</t>
+  </si>
+  <si>
+    <t>2019-02-13 15:44:43</t>
+  </si>
+  <si>
+    <t>FBA4</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:34:12</t>
+  </si>
+  <si>
+    <t>FBA5</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:40:04</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>$239.00</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:45:31</t>
+  </si>
+  <si>
+    <t>$238.00</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:45:46</t>
+  </si>
+  <si>
+    <t>$252.00</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:45:59</t>
+  </si>
+  <si>
+    <t>$254.00</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:46:18</t>
+  </si>
+  <si>
+    <t>$202.00</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:46:33</t>
+  </si>
+  <si>
+    <t>$228.00</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:46:48</t>
+  </si>
+  <si>
+    <t>$215.00</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:01</t>
+  </si>
+  <si>
+    <t>$224.00</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:16</t>
+  </si>
+  <si>
+    <t>$168.00</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:44</t>
+  </si>
+  <si>
+    <t>$177.00</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:56</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:07</t>
+  </si>
+  <si>
+    <t>$223.00</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:22</t>
+  </si>
+  <si>
+    <t>$198.00</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:37</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:57</t>
+  </si>
+  <si>
+    <t>$70.00</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>$90.00</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:55:13</t>
+  </si>
+  <si>
+    <t>$55.00</t>
+  </si>
+  <si>
+    <t>$110.00</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:29:18</t>
+  </si>
+  <si>
+    <t>$64.00</t>
+  </si>
+  <si>
+    <t>$54.00</t>
+  </si>
+  <si>
+    <t>$118.00</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:29:42</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:07:11</t>
+  </si>
+  <si>
+    <t>$33.00</t>
+  </si>
+  <si>
+    <t>$88.00</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:15:25</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:19:09</t>
+  </si>
+  <si>
+    <t>$103.00</t>
+  </si>
+  <si>
+    <t>$36.00</t>
+  </si>
+  <si>
+    <t>$139.00</t>
+  </si>
+  <si>
+    <t>#48 - 2</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:29:23</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>2019-05-23 21:26:36</t>
+  </si>
+  <si>
+    <t>$79.00</t>
+  </si>
+  <si>
+    <t>$28.00</t>
+  </si>
+  <si>
+    <t>$107.00</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>2019-05-25 22:49:20</t>
+  </si>
+  <si>
+    <t>$74.00</t>
+  </si>
+  <si>
+    <t>$108.00</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>2019-05-27 19:36:49</t>
+  </si>
+  <si>
+    <t>$29.00</t>
+  </si>
+  <si>
+    <t>$147.00</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>2019-05-27 19:37:22</t>
+  </si>
+  <si>
+    <t>$87.00</t>
+  </si>
+  <si>
+    <t>$31.00</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:33:40</t>
+  </si>
+  <si>
+    <t>$128.00</t>
+  </si>
+  <si>
+    <t>$32.00</t>
+  </si>
+  <si>
+    <t>$160.00</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:34:53</t>
+  </si>
+  <si>
+    <t>$83.00</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:35:35</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:03</t>
+  </si>
+  <si>
+    <t>$86.00</t>
+  </si>
+  <si>
+    <t>#58</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:23</t>
+  </si>
+  <si>
+    <t>$106.00</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:40</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>$72.00</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:57</t>
+  </si>
+  <si>
+    <t>#61</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:37:13</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:37:28</t>
+  </si>
+  <si>
+    <t>$24.00</t>
+  </si>
+  <si>
+    <t>$56.00</t>
+  </si>
+  <si>
+    <t>#63</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:37:48</t>
+  </si>
+  <si>
+    <t>$57.00</t>
+  </si>
+  <si>
+    <t>$89.00</t>
+  </si>
+  <si>
+    <t>#64 #65</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:38:21</t>
+  </si>
+  <si>
+    <t>$41.00</t>
+  </si>
+  <si>
+    <t>$75.00</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:56:19</t>
+  </si>
+  <si>
+    <t>$67</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:57:00</t>
+  </si>
+  <si>
+    <t>#68</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:57:28</t>
+  </si>
+  <si>
+    <t>$62.00</t>
+  </si>
+  <si>
+    <t>#69</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:58:04</t>
+  </si>
+  <si>
+    <t>$38.00</t>
+  </si>
+  <si>
+    <t>#70</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:58:49</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>$69.00</t>
+  </si>
+  <si>
+    <t>#71</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:59:09</t>
+  </si>
+  <si>
+    <t>$39.00</t>
+  </si>
+  <si>
+    <t>$71.00</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:59:35</t>
+  </si>
+  <si>
+    <t>$73.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#73
+</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:00:02</t>
+  </si>
+  <si>
+    <t>$18.00</t>
+  </si>
+  <si>
+    <t>#74</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:00:37</t>
+  </si>
+  <si>
+    <t>#75</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:01:38</t>
+  </si>
+  <si>
+    <t>$52.00</t>
+  </si>
+  <si>
+    <t>#76</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:01:58</t>
+  </si>
+  <si>
+    <t>#77</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:02:29</t>
+  </si>
+  <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:02:48</t>
+  </si>
+  <si>
+    <t>$21.00</t>
+  </si>
+  <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>#79</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:03:06</t>
+  </si>
+  <si>
+    <t>$59.00</t>
+  </si>
+  <si>
+    <t>#80</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:45:20</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:45:42</t>
+  </si>
+  <si>
+    <t>$121.00</t>
+  </si>
+  <si>
+    <t>#82</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:46:28</t>
+  </si>
+  <si>
+    <t>#83</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:46:55</t>
+  </si>
+  <si>
+    <t>#85</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:47:23</t>
+  </si>
+  <si>
+    <t>#86</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:47:48</t>
+  </si>
+  <si>
+    <t>$42.00</t>
+  </si>
+  <si>
+    <t>#87</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:48:52</t>
+  </si>
+  <si>
+    <t>$76.00</t>
+  </si>
+  <si>
+    <t>#88</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:49:12</t>
+  </si>
+  <si>
+    <t>#90</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:50:03</t>
+  </si>
+  <si>
+    <t>#91</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:50:42</t>
+  </si>
+  <si>
+    <t>#92</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:51:02</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>$77.00</t>
+  </si>
+  <si>
+    <t>#93</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:51:22</t>
+  </si>
+  <si>
+    <t>$38.54</t>
+  </si>
+  <si>
+    <t>$70.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 95</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:19:54</t>
+  </si>
+  <si>
+    <t>$36.40</t>
+  </si>
+  <si>
+    <t>$68.40</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 94</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:20:15</t>
+  </si>
+  <si>
+    <t>$41.27</t>
+  </si>
+  <si>
+    <t>$73.27</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 101</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:56:22</t>
+  </si>
+  <si>
+    <t>$39.49</t>
+  </si>
+  <si>
+    <t>$71.49</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 100</t>
+  </si>
+  <si>
+    <t>2019-06-20 20:26:31</t>
+  </si>
+  <si>
+    <t>$46.60</t>
+  </si>
+  <si>
+    <t>$78.60</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 99</t>
+  </si>
+  <si>
+    <t>2019-06-20 20:26:42</t>
+  </si>
+  <si>
+    <t>$42.87</t>
+  </si>
+  <si>
+    <t>$74.87</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 98</t>
+  </si>
+  <si>
+    <t>2019-06-20 20:26:54</t>
+  </si>
+  <si>
+    <t>#102</t>
+  </si>
+  <si>
+    <t>2019-06-25 07:12:18</t>
+  </si>
+  <si>
+    <t>$68.00</t>
+  </si>
+  <si>
+    <t>2019-07-01 15:21:12</t>
+  </si>
+  <si>
+    <t>2019-07-01 15:21:31</t>
+  </si>
+  <si>
+    <t>2019-07-01 15:22:09</t>
+  </si>
+  <si>
+    <t>#106</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:25:23</t>
+  </si>
+  <si>
+    <t>#107</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:25:41</t>
+  </si>
+  <si>
+    <t>#108</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:25:58</t>
+  </si>
+  <si>
+    <t>#109</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:26:25</t>
+  </si>
+  <si>
+    <t>$22.41</t>
+  </si>
+  <si>
+    <t>$54.41</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 115</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:45:18</t>
+  </si>
+  <si>
+    <t>$31.34</t>
+  </si>
+  <si>
+    <t>$63.34</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 110</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:46:17</t>
+  </si>
+  <si>
+    <t>$33.48</t>
+  </si>
+  <si>
+    <t>$65.48</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 111</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:46:39</t>
+  </si>
+  <si>
+    <t>$29.90</t>
+  </si>
+  <si>
+    <t>$61.90</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 112</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:47:02</t>
+  </si>
+  <si>
+    <t>$32.04</t>
+  </si>
+  <si>
+    <t>$64.04</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 113</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:47:14</t>
+  </si>
+  <si>
+    <t>$19.54</t>
+  </si>
+  <si>
+    <t>$51.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 114</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:47:38</t>
+  </si>
+  <si>
+    <t>$42.98</t>
+  </si>
+  <si>
+    <t>$74.98</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 119</t>
+  </si>
+  <si>
+    <t>2019-07-05 19:51:07</t>
+  </si>
+  <si>
+    <t>$39.26</t>
+  </si>
+  <si>
+    <t>$71.26</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 118</t>
+  </si>
+  <si>
+    <t>2019-07-05 19:51:24</t>
+  </si>
+  <si>
+    <t>$41.54</t>
+  </si>
+  <si>
+    <t>$73.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 117</t>
+  </si>
+  <si>
+    <t>2019-07-07 16:43:00</t>
+  </si>
+  <si>
+    <t>$37.82</t>
+  </si>
+  <si>
+    <t>$69.82</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 116</t>
+  </si>
+  <si>
+    <t>2019-07-07 16:43:12</t>
+  </si>
+  <si>
+    <t>Cici Zhan</t>
+  </si>
+  <si>
+    <t>$14.18</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 121</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:27:32</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:27:44</t>
+  </si>
+  <si>
+    <t>$24.60</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 120</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:28:02</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:28:21</t>
+  </si>
+  <si>
+    <t>$11.11</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 122</t>
+  </si>
+  <si>
+    <t>2019-07-08 15:55:00</t>
+  </si>
+  <si>
+    <t>$9.19</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 124</t>
+  </si>
+  <si>
+    <t>2019-07-08 16:03:25</t>
+  </si>
+  <si>
+    <t>$8.99</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 123</t>
+  </si>
+  <si>
+    <t>2019-07-08 16:03:48</t>
+  </si>
+  <si>
+    <t>$25.94</t>
+  </si>
+  <si>
+    <t>$57.94</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 128</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:41:46</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 125</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:42:00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 126</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:42:17</t>
+  </si>
+  <si>
+    <t>$23.34</t>
+  </si>
+  <si>
+    <t>$55.34</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 127</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:42:26</t>
+  </si>
+  <si>
+    <t>2019-07-09 11:47:44</t>
+  </si>
+  <si>
+    <t>$28.81</t>
+  </si>
+  <si>
+    <t>$60.81</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 129</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:46:24</t>
+  </si>
+  <si>
+    <t>$30.71</t>
+  </si>
+  <si>
+    <t>$62.71</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 130</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:46:44</t>
+  </si>
+  <si>
+    <t>$35.86</t>
+  </si>
+  <si>
+    <t>$67.86</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 131</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:47:23</t>
+  </si>
+  <si>
+    <t>$26.83</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>$36.83</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 132</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:47:40</t>
+  </si>
+  <si>
+    <t>$43.74</t>
+  </si>
+  <si>
+    <t>$75.74</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 133</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:47:52</t>
+  </si>
+  <si>
+    <t>$34.42</t>
+  </si>
+  <si>
+    <t>$66.42</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 134</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:08</t>
+  </si>
+  <si>
+    <t>$25.39</t>
+  </si>
+  <si>
+    <t>$57.39</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 135</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:18</t>
+  </si>
+  <si>
+    <t>$42.30</t>
+  </si>
+  <si>
+    <t>$74.30</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 136</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:28</t>
+  </si>
+  <si>
+    <t>$32.84</t>
+  </si>
+  <si>
+    <t>$64.84</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 137</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:37</t>
+  </si>
+  <si>
+    <t>$24.03</t>
+  </si>
+  <si>
+    <t>$34.03</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 138</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:45</t>
+  </si>
+  <si>
+    <t>$41.82</t>
+  </si>
+  <si>
+    <t>$73.82</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 139</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 140</t>
+  </si>
+  <si>
+    <t>2019-07-12 19:35:19</t>
+  </si>
+  <si>
+    <t>$37.73</t>
+  </si>
+  <si>
+    <t>$69.73</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 141</t>
+  </si>
+  <si>
+    <t>2019-07-13 17:26:23</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 142</t>
+  </si>
+  <si>
+    <t>2019-07-13 17:26:35</t>
+  </si>
+  <si>
+    <t>$39.17</t>
+  </si>
+  <si>
+    <t>$71.17</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 143</t>
+  </si>
+  <si>
+    <t>2019-07-13 17:26:51</t>
+  </si>
+  <si>
+    <t>$27.37</t>
+  </si>
+  <si>
+    <t>$59.37</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 144</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:17:49</t>
+  </si>
+  <si>
+    <t>$31.40</t>
+  </si>
+  <si>
+    <t>$63.40</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 145</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:17:59</t>
+  </si>
+  <si>
+    <t>$65.00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 146</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:18:09</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 147</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:18:31</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 148</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:19:17</t>
+  </si>
+  <si>
+    <t>$20.24</t>
+  </si>
+  <si>
+    <t>$52.24</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 149</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:19:26</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>#150</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:25:19</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 151</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:46:46</t>
+  </si>
+  <si>
+    <t>$34.44</t>
+  </si>
+  <si>
+    <t>$66.44</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 152</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:01</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 153</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:13</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 154</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:26</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 155</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:39</t>
+  </si>
+  <si>
+    <t>$58.83</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 156</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:48:00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 157</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:48:08</t>
+  </si>
+  <si>
+    <t>$23.12</t>
+  </si>
+  <si>
+    <t>$55.12</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 158</t>
+  </si>
+  <si>
+    <t>2019-07-16 20:26:29</t>
+  </si>
+  <si>
+    <t>$25.81</t>
+  </si>
+  <si>
+    <t>$57.81</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 159</t>
+  </si>
+  <si>
+    <t>2019-07-16 20:26:37</t>
+  </si>
+  <si>
+    <t>$8.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 267</t>
+  </si>
+  <si>
+    <t>2019-07-17 19:51:12</t>
+  </si>
+  <si>
+    <t>$6.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 268</t>
+  </si>
+  <si>
+    <t>2019-07-17 19:51:29</t>
   </si>
   <si>
     <t>Total Amount</t>
+  </si>
+  <si>
+    <t>$11,706.39</t>
   </si>
 </sst>
 </file>
@@ -411,19 +1762,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="83.693848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -470,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -479,12 +1830,2892 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="1:6">
-      <c r="E6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86">
+        <v>103</v>
+      </c>
+      <c r="F86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" t="s">
+        <v>273</v>
+      </c>
+      <c r="F89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" t="s">
+        <v>275</v>
+      </c>
+      <c r="F90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" t="s">
+        <v>277</v>
+      </c>
+      <c r="F91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" t="s">
+        <v>283</v>
+      </c>
+      <c r="F93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E95" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
+        <v>294</v>
+      </c>
+      <c r="E96" t="s">
+        <v>295</v>
+      </c>
+      <c r="F96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" t="s">
+        <v>315</v>
+      </c>
+      <c r="F101" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" t="s">
+        <v>319</v>
+      </c>
+      <c r="F102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" t="s">
         <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" t="s">
+        <v>323</v>
+      </c>
+      <c r="F103" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" t="s">
+        <v>323</v>
+      </c>
+      <c r="F104" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>322</v>
+      </c>
+      <c r="E106" t="s">
+        <v>323</v>
+      </c>
+      <c r="F106" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>330</v>
+      </c>
+      <c r="E107" t="s">
+        <v>331</v>
+      </c>
+      <c r="F107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" t="s">
+        <v>337</v>
+      </c>
+      <c r="F109" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" t="s">
+        <v>340</v>
+      </c>
+      <c r="E110" t="s">
+        <v>341</v>
+      </c>
+      <c r="F110" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>317</v>
+      </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>318</v>
+      </c>
+      <c r="E111" t="s">
+        <v>343</v>
+      </c>
+      <c r="F111" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
+        <v>348</v>
+      </c>
+      <c r="E113" t="s">
+        <v>349</v>
+      </c>
+      <c r="F113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" t="s">
+        <v>319</v>
+      </c>
+      <c r="F114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" t="s">
+        <v>353</v>
+      </c>
+      <c r="E115" t="s">
+        <v>354</v>
+      </c>
+      <c r="F115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" t="s">
+        <v>140</v>
+      </c>
+      <c r="D116" t="s">
+        <v>357</v>
+      </c>
+      <c r="E116" t="s">
+        <v>358</v>
+      </c>
+      <c r="F116" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" t="s">
+        <v>361</v>
+      </c>
+      <c r="E117" t="s">
+        <v>362</v>
+      </c>
+      <c r="F117" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" t="s">
+        <v>364</v>
+      </c>
+      <c r="C118" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" t="s">
+        <v>366</v>
+      </c>
+      <c r="E118" t="s">
+        <v>367</v>
+      </c>
+      <c r="F118" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>370</v>
+      </c>
+      <c r="E119" t="s">
+        <v>371</v>
+      </c>
+      <c r="F119" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" t="s">
+        <v>373</v>
+      </c>
+      <c r="C120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" t="s">
+        <v>374</v>
+      </c>
+      <c r="E120" t="s">
+        <v>375</v>
+      </c>
+      <c r="F120" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" t="s">
+        <v>378</v>
+      </c>
+      <c r="E121" t="s">
+        <v>379</v>
+      </c>
+      <c r="F121" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" t="s">
+        <v>383</v>
+      </c>
+      <c r="F122" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" t="s">
+        <v>365</v>
+      </c>
+      <c r="D124" t="s">
+        <v>390</v>
+      </c>
+      <c r="E124" t="s">
+        <v>391</v>
+      </c>
+      <c r="F124" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>393</v>
+      </c>
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" t="s">
+        <v>394</v>
+      </c>
+      <c r="E125" t="s">
+        <v>395</v>
+      </c>
+      <c r="F125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>374</v>
+      </c>
+      <c r="E126" t="s">
+        <v>397</v>
+      </c>
+      <c r="F126" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127" t="s">
+        <v>401</v>
+      </c>
+      <c r="F127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" t="s">
+        <v>361</v>
+      </c>
+      <c r="E128" t="s">
+        <v>403</v>
+      </c>
+      <c r="F128" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>405</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" t="s">
+        <v>407</v>
+      </c>
+      <c r="F129" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" t="s">
+        <v>411</v>
+      </c>
+      <c r="F130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>413</v>
+      </c>
+      <c r="C131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" t="s">
+        <v>414</v>
+      </c>
+      <c r="E131" t="s">
+        <v>415</v>
+      </c>
+      <c r="F131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>417</v>
+      </c>
+      <c r="E132" t="s">
+        <v>418</v>
+      </c>
+      <c r="F132" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" t="s">
+        <v>361</v>
+      </c>
+      <c r="E133" t="s">
+        <v>420</v>
+      </c>
+      <c r="F133" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s">
+        <v>405</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>406</v>
+      </c>
+      <c r="E134" t="s">
+        <v>422</v>
+      </c>
+      <c r="F134" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>425</v>
+      </c>
+      <c r="E135" t="s">
+        <v>426</v>
+      </c>
+      <c r="F135" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>428</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" t="s">
+        <v>429</v>
+      </c>
+      <c r="F136" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" t="s">
+        <v>386</v>
+      </c>
+      <c r="E137" t="s">
+        <v>431</v>
+      </c>
+      <c r="F137" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" t="s">
+        <v>433</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" t="s">
+        <v>434</v>
+      </c>
+      <c r="E138" t="s">
+        <v>435</v>
+      </c>
+      <c r="F138" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" t="s">
+        <v>414</v>
+      </c>
+      <c r="E139" t="s">
+        <v>437</v>
+      </c>
+      <c r="F139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" t="s">
+        <v>417</v>
+      </c>
+      <c r="E140" t="s">
+        <v>439</v>
+      </c>
+      <c r="F140" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" t="s">
+        <v>361</v>
+      </c>
+      <c r="E141" t="s">
+        <v>441</v>
+      </c>
+      <c r="F141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" t="s">
+        <v>443</v>
+      </c>
+      <c r="E142" t="s">
+        <v>444</v>
+      </c>
+      <c r="F142" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" t="s">
+        <v>370</v>
+      </c>
+      <c r="E143" t="s">
+        <v>446</v>
+      </c>
+      <c r="F143" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>448</v>
+      </c>
+      <c r="C144" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" t="s">
+        <v>449</v>
+      </c>
+      <c r="E144" t="s">
+        <v>450</v>
+      </c>
+      <c r="F144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>452</v>
+      </c>
+      <c r="C145" t="s">
+        <v>140</v>
+      </c>
+      <c r="D145" t="s">
+        <v>453</v>
+      </c>
+      <c r="E145" t="s">
+        <v>454</v>
+      </c>
+      <c r="F145" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>456</v>
+      </c>
+      <c r="D146" t="s">
+        <v>456</v>
+      </c>
+      <c r="E146" t="s">
+        <v>457</v>
+      </c>
+      <c r="F146" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>459</v>
+      </c>
+      <c r="D147" t="s">
+        <v>459</v>
+      </c>
+      <c r="E147" t="s">
+        <v>460</v>
+      </c>
+      <c r="F147" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="E150" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -1387,28 +1387,10 @@
     <t>2019-07-16 20:26:37</t>
   </si>
   <si>
-    <t>$8.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 267</t>
-  </si>
-  <si>
-    <t>2019-07-17 19:51:12</t>
-  </si>
-  <si>
-    <t>$6.00</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 268</t>
-  </si>
-  <si>
-    <t>2019-07-17 19:51:29</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$11,706.39</t>
+    <t>$11,692.39</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1744,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F150" sqref="F150"/>
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4670,52 +4652,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" t="s">
+    <row r="148" spans="1:6">
+      <c r="E148" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D146" t="s">
-        <v>456</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="F148" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="F146" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
-        <v>45</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>459</v>
-      </c>
-      <c r="D147" t="s">
-        <v>459</v>
-      </c>
-      <c r="E147" t="s">
-        <v>460</v>
-      </c>
-      <c r="F147" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="E150" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -1387,10 +1387,16 @@
     <t>2019-07-16 20:26:37</t>
   </si>
   <si>
+    <t>transaction for checkin - ID: 33</t>
+  </si>
+  <si>
+    <t>2019-07-30 01:26:57</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$11,692.39</t>
+    <t>$11,702.39</t>
   </si>
 </sst>
 </file>
@@ -1744,10 +1750,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F148" sqref="F148"/>
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4652,12 +4658,32 @@
         <v>455</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="E148" s="1" t="s">
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" t="s">
+        <v>365</v>
+      </c>
+      <c r="E146" t="s">
         <v>456</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F146" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="E149" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,10 +42,52 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Sophia Zyu</t>
+  </si>
+  <si>
+    <t>$37.20</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:30:56</t>
+  </si>
+  <si>
+    <t>$2.59</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:31:51</t>
+  </si>
+  <si>
+    <t>$8.66</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:33:21</t>
+  </si>
+  <si>
+    <t>$0.56</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:40:26</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:53:37</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12427  store order ID: BHL#20190902002</t>
+  </si>
+  <si>
+    <t>2019-09-02 21:57:57</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12427</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$0.00</t>
+    <t>$208.17</t>
   </si>
 </sst>
 </file>
@@ -399,20 +441,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="76.552734" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -447,12 +489,232 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" spans="1:6">
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -45,49 +45,331 @@
     <t>Sophia Zyu</t>
   </si>
   <si>
-    <t>$37.20</t>
+    <t>$8.60</t>
   </si>
   <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>2019-09-02 21:30:56</t>
-  </si>
-  <si>
-    <t>$2.59</t>
-  </si>
-  <si>
-    <t>2019-09-02 21:31:51</t>
-  </si>
-  <si>
-    <t>$8.66</t>
-  </si>
-  <si>
-    <t>2019-09-02 21:33:21</t>
+    <t>label fee for order - ID: 12465  store order ID: BHL#2019090917</t>
+  </si>
+  <si>
+    <t>2019-09-08 20:49:59</t>
   </si>
   <si>
     <t>$0.56</t>
   </si>
   <si>
-    <t>2019-09-02 21:40:26</t>
-  </si>
-  <si>
-    <t>2019-09-02 21:53:37</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 12427  store order ID: BHL#20190902002</t>
-  </si>
-  <si>
-    <t>2019-09-02 21:57:57</t>
-  </si>
-  <si>
-    <t>label fee additional for order - ID: 12427</t>
+    <t>label fee additional for order - ID: 12465</t>
+  </si>
+  <si>
+    <t>$12.62</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12464  store order ID: BHL#2019090916</t>
+  </si>
+  <si>
+    <t>2019-09-08 20:55:58</t>
+  </si>
+  <si>
+    <t>$0.84</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12464</t>
+  </si>
+  <si>
+    <t>2019-09-08 20:57:54</t>
+  </si>
+  <si>
+    <t>$9.71</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:08:47</t>
+  </si>
+  <si>
+    <t>$0.63</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:10:00</t>
+  </si>
+  <si>
+    <t>$7.90</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:11:11</t>
+  </si>
+  <si>
+    <t>$0.49</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:12:21</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:12:22</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:14:46</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12463  store order ID: BHL#2019090915</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:15:47</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12463</t>
+  </si>
+  <si>
+    <t>$9.20</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12458  store order ID: BHL#2019090910</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:16:56</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12458</t>
+  </si>
+  <si>
+    <t>$9.77</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12453  store order ID: BHL#2019090905</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:22:02</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12453</t>
+  </si>
+  <si>
+    <t>$34.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12466</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:49:52</t>
+  </si>
+  <si>
+    <t>$2.38</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12466</t>
+  </si>
+  <si>
+    <t>$83.45</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12467</t>
+  </si>
+  <si>
+    <t>2019-09-08 21:59:26</t>
+  </si>
+  <si>
+    <t>$5.81</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12467</t>
+  </si>
+  <si>
+    <t>2019-09-09 17:38:10</t>
+  </si>
+  <si>
+    <t>Albert Chen</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12477  store order ID: Test#2019090918</t>
+  </si>
+  <si>
+    <t>2019-09-09 23:00:17</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12477</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12476  store order ID: Test#2019090917</t>
+  </si>
+  <si>
+    <t>2019-09-09 23:02:30</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12476</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12475  store order ID: Test#2019090916</t>
+  </si>
+  <si>
+    <t>2019-09-09 23:11:21</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12475</t>
+  </si>
+  <si>
+    <t>$28.05</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12474  store order ID: Test#2019090915</t>
+  </si>
+  <si>
+    <t>2019-09-09 23:12:12</t>
+  </si>
+  <si>
+    <t>$1.96</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12474</t>
+  </si>
+  <si>
+    <t>$29.50</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12473  store order ID: Test#2019090914</t>
+  </si>
+  <si>
+    <t>2019-09-09 23:15:41</t>
+  </si>
+  <si>
+    <t>$2.03</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12473</t>
+  </si>
+  <si>
+    <t>$9.53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12472  store order ID: Test#2019090913</t>
+  </si>
+  <si>
+    <t>2019-09-10 14:54:49</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12472</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12471  store order ID: Test#2019090912</t>
+  </si>
+  <si>
+    <t>2019-09-10 15:09:08</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12471</t>
+  </si>
+  <si>
+    <t>$9.38</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12468  store order ID: Test#2019090901</t>
+  </si>
+  <si>
+    <t>2019-09-10 15:10:54</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12468</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12487  store order ID: Est#2019090910</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:31:38</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12487</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12486  store order ID: Est#2019090909</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:32:28</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12486</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12485  store order ID: Est#2019090908</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:33:14</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12485</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12484  store order ID: Est#2019090907</t>
+  </si>
+  <si>
+    <t>2019-09-10 16:37:10</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12484</t>
+  </si>
+  <si>
+    <t>Sarah Yu</t>
+  </si>
+  <si>
+    <t>$9.69</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12489  store order ID: LA112</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:24:15</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12489</t>
+  </si>
+  <si>
+    <t>$18.01</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12492  store order ID: LA116</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:47:46</t>
+  </si>
+  <si>
+    <t>$1.26</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12492</t>
+  </si>
+  <si>
+    <t>$16.82</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12491  store order ID: LA115</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:48:10</t>
+  </si>
+  <si>
+    <t>$1.12</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12491</t>
+  </si>
+  <si>
+    <t>$21.12</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 12490  store order ID: LA114</t>
+  </si>
+  <si>
+    <t>2019-09-10 21:48:35</t>
+  </si>
+  <si>
+    <t>$1.47</t>
+  </si>
+  <si>
+    <t>label fee additional for order - ID: 12490</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$208.17</t>
+    <t>$609.22</t>
   </si>
 </sst>
 </file>
@@ -441,15 +723,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
@@ -502,9 +784,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -512,17 +796,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -530,17 +816,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5"/>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -548,17 +836,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6"/>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -566,17 +856,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7"/>
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -584,17 +876,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8"/>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -602,17 +896,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9"/>
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -620,17 +916,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10"/>
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -638,17 +936,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11"/>
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -656,17 +956,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12"/>
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -674,19 +976,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -694,27 +996,987 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="E65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,67 +42,2636 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>order #10 ~ #12</t>
+  </si>
+  <si>
+    <t>2018-12-18 17:21:12</t>
+  </si>
+  <si>
+    <t>$44.00</t>
+  </si>
+  <si>
+    <t>order #13 ~ #15</t>
+  </si>
+  <si>
+    <t>2018-12-20 12:50:45</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>#order 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:26:38</t>
+  </si>
+  <si>
+    <t>$45.55</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 18  store order ID: 70995</t>
+  </si>
+  <si>
+    <t>2018-12-21 18:54:58</t>
+  </si>
+  <si>
+    <t>$10.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label fee for order - ID: 25  store order ID: 112-0688369-0885063-WXP </t>
+  </si>
+  <si>
+    <t>2018-12-26 10:01:35</t>
+  </si>
+  <si>
+    <t>$9.98</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 26  store order ID: 114-4961477-8753864</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:06:41</t>
+  </si>
+  <si>
+    <t>UPS FBA 12272018</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:51:21</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>carry 1</t>
+  </si>
+  <si>
+    <t>2019-01-24 16:14:49</t>
+  </si>
+  <si>
+    <t>carry 2</t>
+  </si>
+  <si>
+    <t>2019-01-24 16:14:59</t>
+  </si>
+  <si>
+    <t>$120.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 22</t>
+  </si>
+  <si>
+    <t>2019-02-13 15:44:42</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>transaction for checkin - ID: 21</t>
+  </si>
+  <si>
+    <t>2019-02-13 15:44:43</t>
+  </si>
+  <si>
+    <t>FBA4</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:34:12</t>
+  </si>
+  <si>
+    <t>FBA5</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:40:04</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>$239.00</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:45:31</t>
+  </si>
+  <si>
+    <t>$238.00</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:45:46</t>
+  </si>
+  <si>
+    <t>$252.00</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:45:59</t>
+  </si>
+  <si>
+    <t>$254.00</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:46:18</t>
+  </si>
+  <si>
+    <t>$202.00</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:46:33</t>
+  </si>
+  <si>
+    <t>$228.00</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:46:48</t>
+  </si>
+  <si>
+    <t>$215.00</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:01</t>
+  </si>
+  <si>
+    <t>$224.00</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:16</t>
+  </si>
+  <si>
+    <t>$168.00</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:44</t>
+  </si>
+  <si>
+    <t>$177.00</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:47:56</t>
+  </si>
+  <si>
+    <t>$115.00</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:07</t>
+  </si>
+  <si>
+    <t>$223.00</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:22</t>
+  </si>
+  <si>
+    <t>$198.00</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:37</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>2019-05-15 16:48:57</t>
+  </si>
+  <si>
+    <t>$70.00</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>$90.00</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:55:13</t>
+  </si>
+  <si>
+    <t>$55.00</t>
+  </si>
+  <si>
+    <t>$110.00</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:29:18</t>
+  </si>
+  <si>
+    <t>$64.00</t>
+  </si>
+  <si>
+    <t>$54.00</t>
+  </si>
+  <si>
+    <t>$118.00</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:29:42</t>
+  </si>
+  <si>
+    <t>$63.00</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:07:11</t>
+  </si>
+  <si>
+    <t>$33.00</t>
+  </si>
+  <si>
+    <t>$88.00</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:15:25</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:19:09</t>
+  </si>
+  <si>
+    <t>$103.00</t>
+  </si>
+  <si>
+    <t>$36.00</t>
+  </si>
+  <si>
+    <t>$139.00</t>
+  </si>
+  <si>
+    <t>#48 - 2</t>
+  </si>
+  <si>
+    <t>2019-05-21 12:29:23</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>2019-05-23 21:26:36</t>
+  </si>
+  <si>
+    <t>$79.00</t>
+  </si>
+  <si>
+    <t>$28.00</t>
+  </si>
+  <si>
+    <t>$107.00</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>2019-05-25 22:49:20</t>
+  </si>
+  <si>
+    <t>$74.00</t>
+  </si>
+  <si>
+    <t>$108.00</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>2019-05-27 19:36:49</t>
+  </si>
+  <si>
+    <t>$29.00</t>
+  </si>
+  <si>
+    <t>$147.00</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>2019-05-27 19:37:22</t>
+  </si>
+  <si>
+    <t>$87.00</t>
+  </si>
+  <si>
+    <t>$31.00</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:33:40</t>
+  </si>
+  <si>
+    <t>$128.00</t>
+  </si>
+  <si>
+    <t>$32.00</t>
+  </si>
+  <si>
+    <t>$160.00</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:34:53</t>
+  </si>
+  <si>
+    <t>$83.00</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:35:35</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:03</t>
+  </si>
+  <si>
+    <t>$86.00</t>
+  </si>
+  <si>
+    <t>#58</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:23</t>
+  </si>
+  <si>
+    <t>$106.00</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:40</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>$72.00</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:36:57</t>
+  </si>
+  <si>
+    <t>#61</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:37:13</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:37:28</t>
+  </si>
+  <si>
+    <t>$24.00</t>
+  </si>
+  <si>
+    <t>$56.00</t>
+  </si>
+  <si>
+    <t>#63</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:37:48</t>
+  </si>
+  <si>
+    <t>$57.00</t>
+  </si>
+  <si>
+    <t>$89.00</t>
+  </si>
+  <si>
+    <t>#64 #65</t>
+  </si>
+  <si>
+    <t>2019-06-03 20:38:21</t>
+  </si>
+  <si>
+    <t>$41.00</t>
+  </si>
+  <si>
+    <t>$75.00</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:56:19</t>
+  </si>
+  <si>
+    <t>$67</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:57:00</t>
+  </si>
+  <si>
+    <t>#68</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:57:28</t>
+  </si>
+  <si>
+    <t>$62.00</t>
+  </si>
+  <si>
+    <t>#69</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:58:04</t>
+  </si>
+  <si>
+    <t>$38.00</t>
+  </si>
+  <si>
+    <t>#70</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:58:49</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>$69.00</t>
+  </si>
+  <si>
+    <t>#71</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:59:09</t>
+  </si>
+  <si>
+    <t>$39.00</t>
+  </si>
+  <si>
+    <t>$71.00</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>2019-06-17 23:59:35</t>
+  </si>
+  <si>
+    <t>$73.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#73
+</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:00:02</t>
+  </si>
+  <si>
+    <t>$18.00</t>
+  </si>
+  <si>
+    <t>#74</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:00:37</t>
+  </si>
+  <si>
+    <t>#75</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:01:38</t>
+  </si>
+  <si>
+    <t>$52.00</t>
+  </si>
+  <si>
+    <t>#76</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:01:58</t>
+  </si>
+  <si>
+    <t>#77</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:02:29</t>
+  </si>
+  <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:02:48</t>
+  </si>
+  <si>
+    <t>$21.00</t>
+  </si>
+  <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>#79</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:03:06</t>
+  </si>
+  <si>
+    <t>$59.00</t>
+  </si>
+  <si>
+    <t>#80</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:45:20</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:45:42</t>
+  </si>
+  <si>
+    <t>$121.00</t>
+  </si>
+  <si>
+    <t>#82</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:46:28</t>
+  </si>
+  <si>
+    <t>#83</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:46:55</t>
+  </si>
+  <si>
+    <t>#85</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:47:23</t>
+  </si>
+  <si>
+    <t>#86</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:47:48</t>
+  </si>
+  <si>
+    <t>$42.00</t>
+  </si>
+  <si>
+    <t>#87</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:48:52</t>
+  </si>
+  <si>
+    <t>$76.00</t>
+  </si>
+  <si>
+    <t>#88</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:49:12</t>
+  </si>
+  <si>
+    <t>#90</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:50:03</t>
+  </si>
+  <si>
+    <t>#91</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:50:42</t>
+  </si>
+  <si>
+    <t>#92</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:51:02</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>$77.00</t>
+  </si>
+  <si>
+    <t>#93</t>
+  </si>
+  <si>
+    <t>2019-06-18 00:51:22</t>
+  </si>
+  <si>
+    <t>$38.54</t>
+  </si>
+  <si>
+    <t>$70.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 95</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:19:54</t>
+  </si>
+  <si>
+    <t>$36.40</t>
+  </si>
+  <si>
+    <t>$68.40</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 94</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:20:15</t>
+  </si>
+  <si>
+    <t>$41.27</t>
+  </si>
+  <si>
+    <t>$73.27</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 101</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:56:22</t>
+  </si>
+  <si>
+    <t>$39.49</t>
+  </si>
+  <si>
+    <t>$71.49</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 100</t>
+  </si>
+  <si>
+    <t>2019-06-20 20:26:31</t>
+  </si>
+  <si>
+    <t>$46.60</t>
+  </si>
+  <si>
+    <t>$78.60</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 99</t>
+  </si>
+  <si>
+    <t>2019-06-20 20:26:42</t>
+  </si>
+  <si>
+    <t>$42.87</t>
+  </si>
+  <si>
+    <t>$74.87</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 98</t>
+  </si>
+  <si>
+    <t>2019-06-20 20:26:54</t>
+  </si>
+  <si>
+    <t>#102</t>
+  </si>
+  <si>
+    <t>2019-06-25 07:12:18</t>
+  </si>
+  <si>
+    <t>$68.00</t>
+  </si>
+  <si>
+    <t>2019-07-01 15:21:12</t>
+  </si>
+  <si>
+    <t>2019-07-01 15:21:31</t>
+  </si>
+  <si>
+    <t>2019-07-01 15:22:09</t>
+  </si>
+  <si>
+    <t>#106</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:25:23</t>
+  </si>
+  <si>
+    <t>#107</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:25:41</t>
+  </si>
+  <si>
+    <t>#108</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:25:58</t>
+  </si>
+  <si>
+    <t>#109</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:26:25</t>
+  </si>
+  <si>
+    <t>$22.41</t>
+  </si>
+  <si>
+    <t>$54.41</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 115</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:45:18</t>
+  </si>
+  <si>
+    <t>$31.34</t>
+  </si>
+  <si>
+    <t>$63.34</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 110</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:46:17</t>
+  </si>
+  <si>
+    <t>$33.48</t>
+  </si>
+  <si>
+    <t>$65.48</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 111</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:46:39</t>
+  </si>
+  <si>
+    <t>$29.90</t>
+  </si>
+  <si>
+    <t>$61.90</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 112</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:47:02</t>
+  </si>
+  <si>
+    <t>$32.04</t>
+  </si>
+  <si>
+    <t>$64.04</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 113</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:47:14</t>
+  </si>
+  <si>
+    <t>$19.54</t>
+  </si>
+  <si>
+    <t>$51.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 114</t>
+  </si>
+  <si>
+    <t>2019-07-04 16:47:38</t>
+  </si>
+  <si>
+    <t>$42.98</t>
+  </si>
+  <si>
+    <t>$74.98</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 119</t>
+  </si>
+  <si>
+    <t>2019-07-05 19:51:07</t>
+  </si>
+  <si>
+    <t>$39.26</t>
+  </si>
+  <si>
+    <t>$71.26</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 118</t>
+  </si>
+  <si>
+    <t>2019-07-05 19:51:24</t>
+  </si>
+  <si>
+    <t>$41.54</t>
+  </si>
+  <si>
+    <t>$73.54</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 117</t>
+  </si>
+  <si>
+    <t>2019-07-07 16:43:00</t>
+  </si>
+  <si>
+    <t>$37.82</t>
+  </si>
+  <si>
+    <t>$69.82</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 116</t>
+  </si>
+  <si>
+    <t>2019-07-07 16:43:12</t>
+  </si>
+  <si>
+    <t>Cici Zhan</t>
+  </si>
+  <si>
+    <t>$14.18</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 121</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:27:32</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:27:44</t>
+  </si>
+  <si>
+    <t>$24.60</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 120</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:28:02</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:28:21</t>
+  </si>
+  <si>
+    <t>$11.11</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 122</t>
+  </si>
+  <si>
+    <t>2019-07-08 15:55:00</t>
+  </si>
+  <si>
+    <t>$9.19</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 124</t>
+  </si>
+  <si>
+    <t>2019-07-08 16:03:25</t>
+  </si>
+  <si>
+    <t>$8.99</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 123</t>
+  </si>
+  <si>
+    <t>2019-07-08 16:03:48</t>
+  </si>
+  <si>
+    <t>$25.94</t>
+  </si>
+  <si>
+    <t>$57.94</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 128</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:41:46</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 125</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:42:00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 126</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:42:17</t>
+  </si>
+  <si>
+    <t>$23.34</t>
+  </si>
+  <si>
+    <t>$55.34</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 127</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:42:26</t>
+  </si>
+  <si>
+    <t>2019-07-09 11:47:44</t>
+  </si>
+  <si>
+    <t>$28.81</t>
+  </si>
+  <si>
+    <t>$60.81</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 129</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:46:24</t>
+  </si>
+  <si>
+    <t>$30.71</t>
+  </si>
+  <si>
+    <t>$62.71</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 130</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:46:44</t>
+  </si>
+  <si>
+    <t>$35.86</t>
+  </si>
+  <si>
+    <t>$67.86</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 131</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:47:23</t>
+  </si>
+  <si>
+    <t>$26.83</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>$36.83</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 132</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:47:40</t>
+  </si>
+  <si>
+    <t>$43.74</t>
+  </si>
+  <si>
+    <t>$75.74</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 133</t>
+  </si>
+  <si>
+    <t>2019-07-10 18:47:52</t>
+  </si>
+  <si>
+    <t>$34.42</t>
+  </si>
+  <si>
+    <t>$66.42</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 134</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:08</t>
+  </si>
+  <si>
+    <t>$25.39</t>
+  </si>
+  <si>
+    <t>$57.39</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 135</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:18</t>
+  </si>
+  <si>
+    <t>$42.30</t>
+  </si>
+  <si>
+    <t>$74.30</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 136</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:28</t>
+  </si>
+  <si>
+    <t>$32.84</t>
+  </si>
+  <si>
+    <t>$64.84</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 137</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:37</t>
+  </si>
+  <si>
+    <t>$24.03</t>
+  </si>
+  <si>
+    <t>$34.03</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 138</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:45</t>
+  </si>
+  <si>
+    <t>$41.82</t>
+  </si>
+  <si>
+    <t>$73.82</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 139</t>
+  </si>
+  <si>
+    <t>2019-07-11 20:38:53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 140</t>
+  </si>
+  <si>
+    <t>2019-07-12 19:35:19</t>
+  </si>
+  <si>
+    <t>$37.73</t>
+  </si>
+  <si>
+    <t>$69.73</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 141</t>
+  </si>
+  <si>
+    <t>2019-07-13 17:26:23</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 142</t>
+  </si>
+  <si>
+    <t>2019-07-13 17:26:35</t>
+  </si>
+  <si>
+    <t>$39.17</t>
+  </si>
+  <si>
+    <t>$71.17</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 143</t>
+  </si>
+  <si>
+    <t>2019-07-13 17:26:51</t>
+  </si>
+  <si>
+    <t>$27.37</t>
+  </si>
+  <si>
+    <t>$59.37</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 144</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:17:49</t>
+  </si>
+  <si>
+    <t>$31.40</t>
+  </si>
+  <si>
+    <t>$63.40</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 145</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:17:59</t>
+  </si>
+  <si>
+    <t>$65.00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 146</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:18:09</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 147</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:18:31</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 148</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:19:17</t>
+  </si>
+  <si>
+    <t>$20.24</t>
+  </si>
+  <si>
+    <t>$52.24</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 149</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:19:26</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>#150</t>
+  </si>
+  <si>
+    <t>2019-07-14 19:25:19</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 151</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:46:46</t>
+  </si>
+  <si>
+    <t>$34.44</t>
+  </si>
+  <si>
+    <t>$66.44</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 152</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:01</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 153</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:13</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 154</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:26</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 155</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:47:39</t>
+  </si>
+  <si>
+    <t>$58.83</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 156</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:48:00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 157</t>
+  </si>
+  <si>
+    <t>2019-07-16 03:48:08</t>
+  </si>
+  <si>
+    <t>$23.12</t>
+  </si>
+  <si>
+    <t>$55.12</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 158</t>
+  </si>
+  <si>
+    <t>2019-07-16 20:26:29</t>
+  </si>
+  <si>
+    <t>$25.81</t>
+  </si>
+  <si>
+    <t>$57.81</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 159</t>
+  </si>
+  <si>
+    <t>2019-07-16 20:26:37</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 161</t>
+  </si>
+  <si>
+    <t>2019-07-17 20:29:04</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 160</t>
+  </si>
+  <si>
+    <t>2019-07-17 20:29:15</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 162</t>
+  </si>
+  <si>
+    <t>2019-07-18 22:03:45</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 163</t>
+  </si>
+  <si>
+    <t>2019-07-18 22:03:57</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 164</t>
+  </si>
+  <si>
+    <t>2019-07-18 22:04:11</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 165</t>
+  </si>
+  <si>
+    <t>2019-07-18 22:04:21</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 166</t>
+  </si>
+  <si>
+    <t>2019-07-18 22:04:29</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 167</t>
+  </si>
+  <si>
+    <t>2019-07-18 22:04:37</t>
+  </si>
+  <si>
+    <t>$6.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 275</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:26:44</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 270</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:26:50</t>
+  </si>
+  <si>
+    <t>$8.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 271</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:26:56</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 276</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:27:02</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 269</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:27:07</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 273</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:27:13</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 274</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:56:42</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 268</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:56:48</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 272</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:56:53</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 267</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:56:59</t>
+  </si>
+  <si>
+    <t>$21.68</t>
+  </si>
+  <si>
+    <t>$53.68</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 168</t>
+  </si>
+  <si>
+    <t>2019-07-20 22:15:11</t>
+  </si>
+  <si>
+    <t>$14.27</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>$29.27</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 169</t>
+  </si>
+  <si>
+    <t>2019-07-20 22:15:22</t>
+  </si>
+  <si>
+    <t>$29.43</t>
+  </si>
+  <si>
+    <t>$61.43</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 170</t>
+  </si>
+  <si>
+    <t>2019-07-20 22:15:46</t>
+  </si>
+  <si>
+    <t>$19.58</t>
+  </si>
+  <si>
+    <t>$51.58</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 171</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:38:15</t>
+  </si>
+  <si>
+    <t>$12.50</t>
+  </si>
+  <si>
+    <t>$27.50</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 172</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:38:31</t>
+  </si>
+  <si>
+    <t>$27.84</t>
+  </si>
+  <si>
+    <t>$59.84</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 173</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:38:41</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 174</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:38:54</t>
+  </si>
+  <si>
+    <t>$61.27</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 175</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:39:04</t>
+  </si>
+  <si>
+    <t>$46.27</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 176</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:39:43</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 177</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:39:57</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 178</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:40:08</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 179</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:40:45</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 180</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:41:04</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 181</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:41:17</t>
+  </si>
+  <si>
+    <t>$20.69</t>
+  </si>
+  <si>
+    <t>$52.69</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 183</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:41:39</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 185</t>
+  </si>
+  <si>
+    <t>2019-07-21 23:41:51</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 287</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:43:42</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 291</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:43:48</t>
+  </si>
+  <si>
+    <t>$4.00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 295</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:43:54</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 289</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:43:59</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 286</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:05</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 285</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:10</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 284</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:16</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 290</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:22</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 288</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:43</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 296</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:48</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 294</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:54</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 293</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:44:59</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 297</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:45:05</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 298</t>
+  </si>
+  <si>
+    <t>2019-07-23 17:45:11</t>
+  </si>
+  <si>
+    <t>$12.00</t>
+  </si>
+  <si>
+    <t>$37.39</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 186</t>
+  </si>
+  <si>
+    <t>2019-07-24 01:04:28</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 187</t>
+  </si>
+  <si>
+    <t>2019-07-24 01:04:37</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 301</t>
+  </si>
+  <si>
+    <t>2019-07-25 21:18:27</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 300</t>
+  </si>
+  <si>
+    <t>2019-07-25 21:18:33</t>
+  </si>
+  <si>
+    <t>$22.77</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 190</t>
+  </si>
+  <si>
+    <t>2019-08-06 17:11:41</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 188</t>
+  </si>
+  <si>
+    <t>2019-08-06 17:12:56</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 189</t>
+  </si>
+  <si>
+    <t>2019-08-06 17:13:04</t>
+  </si>
+  <si>
+    <t>$70.67</t>
+  </si>
+  <si>
+    <t>$102.67</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 191</t>
+  </si>
+  <si>
+    <t>2019-08-07 03:14:24</t>
+  </si>
+  <si>
+    <t>$32.36</t>
+  </si>
+  <si>
+    <t>$64.36</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 192</t>
+  </si>
+  <si>
+    <t>2019-08-07 03:22:37</t>
+  </si>
+  <si>
+    <t>$15.52</t>
+  </si>
+  <si>
+    <t>$37.52</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 193</t>
+  </si>
+  <si>
+    <t>2019-08-08 13:17:17</t>
+  </si>
+  <si>
+    <t>$31.57</t>
+  </si>
+  <si>
+    <t>$63.57</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 194</t>
+  </si>
+  <si>
+    <t>2019-08-08 13:17:27</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 307</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:31:07</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 303</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:31:13</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 306</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:31:19</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 305</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:31:25</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 304</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:31:30</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 302</t>
+  </si>
+  <si>
+    <t>2019-08-08 17:31:36</t>
+  </si>
+  <si>
+    <t>$73.09</t>
+  </si>
+  <si>
+    <t>$105.09</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 195</t>
+  </si>
+  <si>
+    <t>2019-08-09 16:39:17</t>
+  </si>
+  <si>
+    <t>$20.52</t>
+  </si>
+  <si>
+    <t>$52.52</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 196</t>
+  </si>
+  <si>
+    <t>2019-08-13 10:56:19</t>
+  </si>
+  <si>
+    <t>$37.05</t>
+  </si>
+  <si>
+    <t>$69.05</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 197</t>
+  </si>
+  <si>
+    <t>2019-08-13 10:56:34</t>
+  </si>
+  <si>
+    <t>$56.03</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 198</t>
+  </si>
+  <si>
+    <t>2019-08-13 10:56:45</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 199</t>
+  </si>
+  <si>
+    <t>2019-08-13 10:56:55</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 308</t>
+  </si>
+  <si>
+    <t>2019-08-15 15:39:08</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 200</t>
+  </si>
+  <si>
+    <t>2019-08-16 16:11:23</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 201</t>
+  </si>
+  <si>
+    <t>2019-08-16 16:11:32</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 309</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:07:07</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 313</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:07:12</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 314</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:07:18</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 310</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:07:24</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 312</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:07:30</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 311</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:07:36</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 202</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:08:55</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 203</t>
+  </si>
+  <si>
+    <t>2019-08-18 23:10:25</t>
+  </si>
+  <si>
+    <t>$22.59</t>
+  </si>
+  <si>
+    <t>$54.59</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 204</t>
+  </si>
+  <si>
+    <t>2019-08-19 21:17:36</t>
+  </si>
+  <si>
+    <t>$40.38</t>
+  </si>
+  <si>
+    <t>$72.38</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 205</t>
+  </si>
+  <si>
+    <t>2019-08-19 21:17:44</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 315</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:12:41</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 317</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:12:47</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 318</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:12:53</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 316</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:12:59</t>
+  </si>
+  <si>
+    <t>$47.52</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 206</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:13:40</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 207</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:13:49</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 208</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:13:57</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 209</t>
+  </si>
+  <si>
+    <t>2019-08-20 19:14:46</t>
+  </si>
+  <si>
+    <t>$322.89</t>
+  </si>
+  <si>
+    <t>rebill fees</t>
+  </si>
+  <si>
+    <t>2019-08-21 15:33:29</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 210</t>
+  </si>
+  <si>
+    <t>2019-08-22 13:01:29</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 211</t>
+  </si>
+  <si>
+    <t>2019-08-22 13:02:00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 212</t>
+  </si>
+  <si>
+    <t>2019-08-22 13:02:16</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 213</t>
+  </si>
+  <si>
+    <t>2019-08-22 13:02:29</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 214</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:40:58</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 215</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:41:06</t>
+  </si>
+  <si>
+    <t>$8.86</t>
+  </si>
+  <si>
+    <t>$40.86</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 216</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:42:49</t>
+  </si>
+  <si>
+    <t>$24.32</t>
+  </si>
+  <si>
+    <t>$56.32</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 217</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:43:00</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 218</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:43:10</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 219</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:43:21</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 220</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:43:30</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 221</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:43:39</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 326</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:43:55</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 325</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:00</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 322</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:07</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 323</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:12</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 324</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:18</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 321</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:23</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 320</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:30</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 319</t>
+  </si>
+  <si>
+    <t>2019-08-25 20:44:35</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 333</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:26:45</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 334</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:26:50</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 332</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:26:56</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 328</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:27:01</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 327</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:27:06</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 330</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:27:12</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 331</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:27:19</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 329</t>
+  </si>
+  <si>
+    <t>2019-08-27 20:27:24</t>
+  </si>
+  <si>
+    <t>$154.40</t>
+  </si>
+  <si>
+    <t>Rebill Fees 8/26</t>
+  </si>
+  <si>
+    <t>2019-08-27 22:03:46</t>
+  </si>
+  <si>
+    <t>$25.33</t>
+  </si>
+  <si>
+    <t>$57.33</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 222</t>
+  </si>
+  <si>
+    <t>2019-08-29 01:13:29</t>
+  </si>
+  <si>
+    <t>$42.24</t>
+  </si>
+  <si>
+    <t>$74.24</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 223</t>
+  </si>
+  <si>
+    <t>2019-08-29 01:13:38</t>
+  </si>
+  <si>
+    <t>$26.77</t>
+  </si>
+  <si>
+    <t>$58.77</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 224</t>
+  </si>
+  <si>
+    <t>2019-09-01 05:47:43</t>
+  </si>
+  <si>
+    <t>$43.68</t>
+  </si>
+  <si>
+    <t>$75.68</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 225</t>
+  </si>
+  <si>
+    <t>2019-09-01 05:47:51</t>
+  </si>
+  <si>
+    <t>$29.67</t>
+  </si>
+  <si>
+    <t>$61.67</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 226</t>
+  </si>
+  <si>
+    <t>2019-09-01 05:48:58</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 227</t>
+  </si>
+  <si>
+    <t>2019-09-01 05:49:15</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 228</t>
+  </si>
+  <si>
+    <t>2019-09-01 05:50:14</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 229</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:29:34</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 230</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:29:43</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 231</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:29:53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 232</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:30:01</t>
+  </si>
+  <si>
+    <t>$16.93</t>
+  </si>
+  <si>
+    <t>$48.93</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 233</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:30:43</t>
+  </si>
+  <si>
+    <t>$32.96</t>
+  </si>
+  <si>
+    <t>$64.96</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 234</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:31:29</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 235</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:32:26</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 236</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:32:36</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 237</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:32:47</t>
+  </si>
+  <si>
+    <t>$30.53</t>
+  </si>
+  <si>
+    <t>$62.53</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 238</t>
+  </si>
+  <si>
+    <t>2019-09-02 19:33:03</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 337</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:07:37</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 338</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:07:43</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 341</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:07:49</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 342</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:07:54</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 344</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:08:01</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 345</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:08:06</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 340</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:08:12</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 343</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:08:17</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 339</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:08:23</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 346</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:08:29</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 336</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:20:30</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 349</t>
+  </si>
+  <si>
+    <t>2019-09-07 11:36:12</t>
+  </si>
+  <si>
+    <t>$28.23</t>
+  </si>
+  <si>
+    <t>$60.23</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 243</t>
+  </si>
+  <si>
+    <t>2019-09-27 00:29:41</t>
+  </si>
+  <si>
+    <t>$83.95</t>
+  </si>
+  <si>
+    <t>$115.95</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 244</t>
+  </si>
+  <si>
+    <t>2019-10-01 15:32:13</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 352</t>
+  </si>
+  <si>
+    <t>2019-10-04 04:59:19</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 353</t>
+  </si>
+  <si>
+    <t>2019-10-04 04:59:45</t>
+  </si>
+  <si>
+    <t>$36.90</t>
+  </si>
+  <si>
+    <t>$68.90</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 245</t>
+  </si>
+  <si>
+    <t>2019-10-04 12:37:09</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 351</t>
+  </si>
+  <si>
+    <t>2019-10-06 16:01:48</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 354</t>
+  </si>
+  <si>
+    <t>2019-10-11 18:39:10</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 355</t>
+  </si>
+  <si>
+    <t>2019-10-17 19:43:28</t>
+  </si>
+  <si>
+    <t>$26.62</t>
+  </si>
+  <si>
+    <t>$58.62</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 247</t>
+  </si>
+  <si>
+    <t>2019-10-17 19:43:40</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 356</t>
+  </si>
+  <si>
+    <t>2019-10-19 03:06:55</t>
+  </si>
+  <si>
+    <t>$32.37</t>
+  </si>
+  <si>
+    <t>$64.37</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 249</t>
+  </si>
+  <si>
+    <t>2019-11-18 15:23:58</t>
+  </si>
+  <si>
+    <t>$124.08</t>
+  </si>
+  <si>
+    <t>$156.08</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 252</t>
+  </si>
+  <si>
+    <t>2019-12-02 23:47:23</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 253</t>
+  </si>
+  <si>
+    <t>2019-12-03 15:57:25</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 359</t>
+  </si>
+  <si>
+    <t>2019-12-05 12:20:07</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 358</t>
+  </si>
+  <si>
+    <t>2019-12-05 12:20:18</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 254</t>
+  </si>
+  <si>
+    <t>2019-12-18 02:33:12</t>
+  </si>
+  <si>
+    <t>$37.90</t>
+  </si>
+  <si>
+    <t>$69.90</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 255</t>
+  </si>
+  <si>
+    <t>2019-12-18 02:35:18</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 360</t>
+  </si>
+  <si>
+    <t>2019-12-26 15:24:21</t>
+  </si>
+  <si>
+    <t>transaction for checkout - ID: 361</t>
+  </si>
+  <si>
+    <t>2019-12-26 15:24:26</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 256</t>
+  </si>
+  <si>
+    <t>2020-01-02 01:25:28</t>
+  </si>
+  <si>
     <t>Sam Shao</t>
   </si>
   <si>
-    <t>$7.90</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 16  store order ID: 526655412368</t>
-  </si>
-  <si>
-    <t>2019-11-21 20:55:10</t>
-  </si>
-  <si>
-    <t>$0.49</t>
-  </si>
-  <si>
-    <t>label fee additional for order - ID: 16</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 182</t>
-  </si>
-  <si>
-    <t>2019-11-24 11:11:58</t>
-  </si>
-  <si>
-    <t>$15.00</t>
-  </si>
-  <si>
-    <t>Pallet storage 12/01/2019</t>
-  </si>
-  <si>
-    <t>2019-12-15 14:40:05</t>
-  </si>
-  <si>
-    <t>transaction for checkout - ID: 183</t>
-  </si>
-  <si>
-    <t>2019-12-15 14:43:56</t>
-  </si>
-  <si>
-    <t>$10.09</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 17</t>
-  </si>
-  <si>
-    <t>2019-12-15 14:51:26</t>
-  </si>
-  <si>
-    <t>$0.70</t>
-  </si>
-  <si>
-    <t>label fee additional for order - ID: 17</t>
+    <t>$8.65</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$13.65</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 257  store order ID: S1256622005</t>
+  </si>
+  <si>
+    <t>2020-01-09 02:12:24</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 258  store order ID: S25456623002</t>
+  </si>
+  <si>
+    <t>2020-01-09 02:14:57</t>
   </si>
   <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$34.18</t>
+    <t>$18,384.47</t>
   </si>
 </sst>
 </file>
@@ -456,19 +3025,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="69.554443" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="83.693848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -541,7 +3110,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -549,19 +3118,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -569,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -589,19 +3158,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,19 +3178,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -629,27 +3198,6187 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86">
+        <v>103</v>
+      </c>
+      <c r="F86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" t="s">
+        <v>273</v>
+      </c>
+      <c r="F89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" t="s">
+        <v>275</v>
+      </c>
+      <c r="F90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" t="s">
+        <v>277</v>
+      </c>
+      <c r="F91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" t="s">
+        <v>283</v>
+      </c>
+      <c r="F93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E95" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
+        <v>294</v>
+      </c>
+      <c r="E96" t="s">
+        <v>295</v>
+      </c>
+      <c r="F96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" t="s">
+        <v>315</v>
+      </c>
+      <c r="F101" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" t="s">
+        <v>319</v>
+      </c>
+      <c r="F102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" t="s">
+        <v>323</v>
+      </c>
+      <c r="F103" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" t="s">
+        <v>323</v>
+      </c>
+      <c r="F104" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>322</v>
+      </c>
+      <c r="E106" t="s">
+        <v>323</v>
+      </c>
+      <c r="F106" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>330</v>
+      </c>
+      <c r="E107" t="s">
+        <v>331</v>
+      </c>
+      <c r="F107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" t="s">
+        <v>337</v>
+      </c>
+      <c r="F109" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" t="s">
+        <v>340</v>
+      </c>
+      <c r="E110" t="s">
+        <v>341</v>
+      </c>
+      <c r="F110" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>317</v>
+      </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" t="s">
+        <v>318</v>
+      </c>
+      <c r="E111" t="s">
+        <v>343</v>
+      </c>
+      <c r="F111" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112" t="s">
+        <v>345</v>
+      </c>
+      <c r="F112" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
+        <v>348</v>
+      </c>
+      <c r="E113" t="s">
+        <v>349</v>
+      </c>
+      <c r="F113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" t="s">
+        <v>319</v>
+      </c>
+      <c r="F114" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" t="s">
+        <v>353</v>
+      </c>
+      <c r="E115" t="s">
+        <v>354</v>
+      </c>
+      <c r="F115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" t="s">
+        <v>140</v>
+      </c>
+      <c r="D116" t="s">
+        <v>357</v>
+      </c>
+      <c r="E116" t="s">
+        <v>358</v>
+      </c>
+      <c r="F116" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" t="s">
+        <v>361</v>
+      </c>
+      <c r="E117" t="s">
+        <v>362</v>
+      </c>
+      <c r="F117" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" t="s">
+        <v>364</v>
+      </c>
+      <c r="C118" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" t="s">
+        <v>366</v>
+      </c>
+      <c r="E118" t="s">
+        <v>367</v>
+      </c>
+      <c r="F118" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>370</v>
+      </c>
+      <c r="E119" t="s">
+        <v>371</v>
+      </c>
+      <c r="F119" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" t="s">
+        <v>373</v>
+      </c>
+      <c r="C120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" t="s">
+        <v>374</v>
+      </c>
+      <c r="E120" t="s">
+        <v>375</v>
+      </c>
+      <c r="F120" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" t="s">
+        <v>378</v>
+      </c>
+      <c r="E121" t="s">
+        <v>379</v>
+      </c>
+      <c r="F121" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" t="s">
+        <v>383</v>
+      </c>
+      <c r="F122" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" t="s">
+        <v>365</v>
+      </c>
+      <c r="D124" t="s">
+        <v>390</v>
+      </c>
+      <c r="E124" t="s">
+        <v>391</v>
+      </c>
+      <c r="F124" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>393</v>
+      </c>
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" t="s">
+        <v>394</v>
+      </c>
+      <c r="E125" t="s">
+        <v>395</v>
+      </c>
+      <c r="F125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>374</v>
+      </c>
+      <c r="E126" t="s">
+        <v>397</v>
+      </c>
+      <c r="F126" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127" t="s">
+        <v>401</v>
+      </c>
+      <c r="F127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" t="s">
+        <v>361</v>
+      </c>
+      <c r="E128" t="s">
+        <v>403</v>
+      </c>
+      <c r="F128" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>405</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" t="s">
+        <v>407</v>
+      </c>
+      <c r="F129" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" t="s">
+        <v>411</v>
+      </c>
+      <c r="F130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>413</v>
+      </c>
+      <c r="C131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" t="s">
+        <v>414</v>
+      </c>
+      <c r="E131" t="s">
+        <v>415</v>
+      </c>
+      <c r="F131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>417</v>
+      </c>
+      <c r="E132" t="s">
+        <v>418</v>
+      </c>
+      <c r="F132" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" t="s">
+        <v>361</v>
+      </c>
+      <c r="E133" t="s">
+        <v>420</v>
+      </c>
+      <c r="F133" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s">
+        <v>405</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>406</v>
+      </c>
+      <c r="E134" t="s">
+        <v>422</v>
+      </c>
+      <c r="F134" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>425</v>
+      </c>
+      <c r="E135" t="s">
+        <v>426</v>
+      </c>
+      <c r="F135" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>428</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" t="s">
+        <v>429</v>
+      </c>
+      <c r="F136" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" t="s">
+        <v>386</v>
+      </c>
+      <c r="E137" t="s">
+        <v>431</v>
+      </c>
+      <c r="F137" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" t="s">
+        <v>433</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" t="s">
+        <v>434</v>
+      </c>
+      <c r="E138" t="s">
+        <v>435</v>
+      </c>
+      <c r="F138" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" t="s">
+        <v>414</v>
+      </c>
+      <c r="E139" t="s">
+        <v>437</v>
+      </c>
+      <c r="F139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" t="s">
+        <v>417</v>
+      </c>
+      <c r="E140" t="s">
+        <v>439</v>
+      </c>
+      <c r="F140" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" t="s">
+        <v>361</v>
+      </c>
+      <c r="E141" t="s">
+        <v>441</v>
+      </c>
+      <c r="F141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" t="s">
+        <v>443</v>
+      </c>
+      <c r="E142" t="s">
+        <v>444</v>
+      </c>
+      <c r="F142" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" t="s">
+        <v>370</v>
+      </c>
+      <c r="E143" t="s">
+        <v>446</v>
+      </c>
+      <c r="F143" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>448</v>
+      </c>
+      <c r="C144" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" t="s">
+        <v>449</v>
+      </c>
+      <c r="E144" t="s">
+        <v>450</v>
+      </c>
+      <c r="F144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>452</v>
+      </c>
+      <c r="C145" t="s">
+        <v>140</v>
+      </c>
+      <c r="D145" t="s">
+        <v>453</v>
+      </c>
+      <c r="E145" t="s">
+        <v>454</v>
+      </c>
+      <c r="F145" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" t="s">
+        <v>140</v>
+      </c>
+      <c r="D146" t="s">
+        <v>417</v>
+      </c>
+      <c r="E146" t="s">
+        <v>456</v>
+      </c>
+      <c r="F146" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>413</v>
+      </c>
+      <c r="C147" t="s">
+        <v>140</v>
+      </c>
+      <c r="D147" t="s">
+        <v>414</v>
+      </c>
+      <c r="E147" t="s">
+        <v>458</v>
+      </c>
+      <c r="F147" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D148" t="s">
+        <v>374</v>
+      </c>
+      <c r="E148" t="s">
+        <v>460</v>
+      </c>
+      <c r="F148" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B149" t="s">
+        <v>399</v>
+      </c>
+      <c r="C149" t="s">
+        <v>140</v>
+      </c>
+      <c r="D149" t="s">
+        <v>400</v>
+      </c>
+      <c r="E149" t="s">
+        <v>462</v>
+      </c>
+      <c r="F149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" t="s">
+        <v>413</v>
+      </c>
+      <c r="C150" t="s">
+        <v>140</v>
+      </c>
+      <c r="D150" t="s">
+        <v>414</v>
+      </c>
+      <c r="E150" t="s">
+        <v>464</v>
+      </c>
+      <c r="F150" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B151" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151" t="s">
+        <v>417</v>
+      </c>
+      <c r="E151" t="s">
+        <v>466</v>
+      </c>
+      <c r="F151" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B152" t="s">
+        <v>360</v>
+      </c>
+      <c r="C152" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" t="s">
+        <v>361</v>
+      </c>
+      <c r="E152" t="s">
+        <v>468</v>
+      </c>
+      <c r="F152" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B153" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" t="s">
+        <v>140</v>
+      </c>
+      <c r="D153" t="s">
+        <v>406</v>
+      </c>
+      <c r="E153" t="s">
+        <v>470</v>
+      </c>
+      <c r="F153" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>472</v>
+      </c>
+      <c r="D154" t="s">
+        <v>472</v>
+      </c>
+      <c r="E154" t="s">
+        <v>473</v>
+      </c>
+      <c r="F154" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>45</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>472</v>
+      </c>
+      <c r="D155" t="s">
+        <v>472</v>
+      </c>
+      <c r="E155" t="s">
+        <v>475</v>
+      </c>
+      <c r="F155" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>477</v>
+      </c>
+      <c r="D156" t="s">
+        <v>477</v>
+      </c>
+      <c r="E156" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>472</v>
+      </c>
+      <c r="D157" t="s">
+        <v>472</v>
+      </c>
+      <c r="E157" t="s">
+        <v>480</v>
+      </c>
+      <c r="F157" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>45</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>477</v>
+      </c>
+      <c r="D158" t="s">
+        <v>477</v>
+      </c>
+      <c r="E158" t="s">
+        <v>482</v>
+      </c>
+      <c r="F158" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>477</v>
+      </c>
+      <c r="D159" t="s">
+        <v>477</v>
+      </c>
+      <c r="E159" t="s">
+        <v>484</v>
+      </c>
+      <c r="F159" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>472</v>
+      </c>
+      <c r="D160" t="s">
+        <v>472</v>
+      </c>
+      <c r="E160" t="s">
+        <v>486</v>
+      </c>
+      <c r="F160" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>472</v>
+      </c>
+      <c r="D161" t="s">
+        <v>472</v>
+      </c>
+      <c r="E161" t="s">
+        <v>488</v>
+      </c>
+      <c r="F161" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>477</v>
+      </c>
+      <c r="D162" t="s">
+        <v>477</v>
+      </c>
+      <c r="E162" t="s">
+        <v>490</v>
+      </c>
+      <c r="F162" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>477</v>
+      </c>
+      <c r="D163" t="s">
+        <v>477</v>
+      </c>
+      <c r="E163" t="s">
+        <v>492</v>
+      </c>
+      <c r="F163" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" t="s">
+        <v>494</v>
+      </c>
+      <c r="C164" t="s">
+        <v>140</v>
+      </c>
+      <c r="D164" t="s">
+        <v>495</v>
+      </c>
+      <c r="E164" t="s">
+        <v>496</v>
+      </c>
+      <c r="F164" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>498</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165" t="s">
+        <v>500</v>
+      </c>
+      <c r="E165" t="s">
+        <v>501</v>
+      </c>
+      <c r="F165" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>503</v>
+      </c>
+      <c r="C166" t="s">
+        <v>140</v>
+      </c>
+      <c r="D166" t="s">
+        <v>504</v>
+      </c>
+      <c r="E166" t="s">
+        <v>505</v>
+      </c>
+      <c r="F166" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>507</v>
+      </c>
+      <c r="C167" t="s">
+        <v>140</v>
+      </c>
+      <c r="D167" t="s">
+        <v>508</v>
+      </c>
+      <c r="E167" t="s">
+        <v>509</v>
+      </c>
+      <c r="F167" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" t="s">
+        <v>511</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>512</v>
+      </c>
+      <c r="E168" t="s">
+        <v>513</v>
+      </c>
+      <c r="F168" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>515</v>
+      </c>
+      <c r="C169" t="s">
+        <v>140</v>
+      </c>
+      <c r="D169" t="s">
+        <v>516</v>
+      </c>
+      <c r="E169" t="s">
+        <v>517</v>
+      </c>
+      <c r="F169" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" t="s">
+        <v>409</v>
+      </c>
+      <c r="C170" t="s">
+        <v>140</v>
+      </c>
+      <c r="D170" t="s">
+        <v>410</v>
+      </c>
+      <c r="E170" t="s">
+        <v>519</v>
+      </c>
+      <c r="F170" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" t="s">
+        <v>140</v>
+      </c>
+      <c r="D171" t="s">
+        <v>521</v>
+      </c>
+      <c r="E171" t="s">
+        <v>522</v>
+      </c>
+      <c r="F171" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" t="s">
+        <v>498</v>
+      </c>
+      <c r="C172" t="s">
+        <v>140</v>
+      </c>
+      <c r="D172" t="s">
+        <v>524</v>
+      </c>
+      <c r="E172" t="s">
+        <v>525</v>
+      </c>
+      <c r="F172" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" t="s">
+        <v>503</v>
+      </c>
+      <c r="C173" t="s">
+        <v>140</v>
+      </c>
+      <c r="D173" t="s">
+        <v>504</v>
+      </c>
+      <c r="E173" t="s">
+        <v>527</v>
+      </c>
+      <c r="F173" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" t="s">
+        <v>140</v>
+      </c>
+      <c r="D174" t="s">
+        <v>374</v>
+      </c>
+      <c r="E174" t="s">
+        <v>529</v>
+      </c>
+      <c r="F174" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>45</v>
+      </c>
+      <c r="B175" t="s">
+        <v>399</v>
+      </c>
+      <c r="C175" t="s">
+        <v>140</v>
+      </c>
+      <c r="D175" t="s">
+        <v>400</v>
+      </c>
+      <c r="E175" t="s">
+        <v>531</v>
+      </c>
+      <c r="F175" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" t="s">
+        <v>360</v>
+      </c>
+      <c r="C176" t="s">
+        <v>140</v>
+      </c>
+      <c r="D176" t="s">
+        <v>361</v>
+      </c>
+      <c r="E176" t="s">
+        <v>533</v>
+      </c>
+      <c r="F176" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>45</v>
+      </c>
+      <c r="B177" t="s">
+        <v>405</v>
+      </c>
+      <c r="C177" t="s">
+        <v>140</v>
+      </c>
+      <c r="D177" t="s">
+        <v>406</v>
+      </c>
+      <c r="E177" t="s">
+        <v>535</v>
+      </c>
+      <c r="F177" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" t="s">
+        <v>537</v>
+      </c>
+      <c r="C178" t="s">
+        <v>140</v>
+      </c>
+      <c r="D178" t="s">
+        <v>538</v>
+      </c>
+      <c r="E178" t="s">
+        <v>539</v>
+      </c>
+      <c r="F178" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" t="s">
+        <v>399</v>
+      </c>
+      <c r="C179" t="s">
+        <v>140</v>
+      </c>
+      <c r="D179" t="s">
+        <v>400</v>
+      </c>
+      <c r="E179" t="s">
+        <v>541</v>
+      </c>
+      <c r="F179" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>472</v>
+      </c>
+      <c r="D180" t="s">
+        <v>472</v>
+      </c>
+      <c r="E180" t="s">
+        <v>543</v>
+      </c>
+      <c r="F180" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>45</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>477</v>
+      </c>
+      <c r="D181" t="s">
+        <v>477</v>
+      </c>
+      <c r="E181" t="s">
+        <v>545</v>
+      </c>
+      <c r="F181" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>45</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>547</v>
+      </c>
+      <c r="D182" t="s">
+        <v>547</v>
+      </c>
+      <c r="E182" t="s">
+        <v>548</v>
+      </c>
+      <c r="F182" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>477</v>
+      </c>
+      <c r="D183" t="s">
+        <v>477</v>
+      </c>
+      <c r="E183" t="s">
+        <v>550</v>
+      </c>
+      <c r="F183" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>472</v>
+      </c>
+      <c r="D184" t="s">
+        <v>472</v>
+      </c>
+      <c r="E184" t="s">
+        <v>552</v>
+      </c>
+      <c r="F184" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>45</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>477</v>
+      </c>
+      <c r="D185" t="s">
+        <v>477</v>
+      </c>
+      <c r="E185" t="s">
+        <v>554</v>
+      </c>
+      <c r="F185" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>45</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>477</v>
+      </c>
+      <c r="D186" t="s">
+        <v>477</v>
+      </c>
+      <c r="E186" t="s">
+        <v>556</v>
+      </c>
+      <c r="F186" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>477</v>
+      </c>
+      <c r="D187" t="s">
+        <v>477</v>
+      </c>
+      <c r="E187" t="s">
+        <v>558</v>
+      </c>
+      <c r="F187" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>477</v>
+      </c>
+      <c r="D188" t="s">
+        <v>477</v>
+      </c>
+      <c r="E188" t="s">
+        <v>560</v>
+      </c>
+      <c r="F188" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>45</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>547</v>
+      </c>
+      <c r="D189" t="s">
+        <v>547</v>
+      </c>
+      <c r="E189" t="s">
+        <v>562</v>
+      </c>
+      <c r="F189" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>472</v>
+      </c>
+      <c r="D190" t="s">
+        <v>472</v>
+      </c>
+      <c r="E190" t="s">
+        <v>564</v>
+      </c>
+      <c r="F190" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>477</v>
+      </c>
+      <c r="D191" t="s">
+        <v>477</v>
+      </c>
+      <c r="E191" t="s">
+        <v>566</v>
+      </c>
+      <c r="F191" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>45</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>477</v>
+      </c>
+      <c r="D192" t="s">
+        <v>477</v>
+      </c>
+      <c r="E192" t="s">
+        <v>568</v>
+      </c>
+      <c r="F192" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>547</v>
+      </c>
+      <c r="D193" t="s">
+        <v>547</v>
+      </c>
+      <c r="E193" t="s">
+        <v>570</v>
+      </c>
+      <c r="F193" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>45</v>
+      </c>
+      <c r="B194" t="s">
+        <v>377</v>
+      </c>
+      <c r="C194" t="s">
+        <v>572</v>
+      </c>
+      <c r="D194" t="s">
+        <v>573</v>
+      </c>
+      <c r="E194" t="s">
+        <v>574</v>
+      </c>
+      <c r="F194" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>45</v>
+      </c>
+      <c r="B195" t="s">
+        <v>381</v>
+      </c>
+      <c r="C195" t="s">
+        <v>140</v>
+      </c>
+      <c r="D195" t="s">
+        <v>382</v>
+      </c>
+      <c r="E195" t="s">
+        <v>576</v>
+      </c>
+      <c r="F195" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>45</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>477</v>
+      </c>
+      <c r="D196" t="s">
+        <v>477</v>
+      </c>
+      <c r="E196" t="s">
+        <v>578</v>
+      </c>
+      <c r="F196" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>45</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>547</v>
+      </c>
+      <c r="D197" t="s">
+        <v>547</v>
+      </c>
+      <c r="E197" t="s">
+        <v>580</v>
+      </c>
+      <c r="F197" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" t="s">
+        <v>582</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>582</v>
+      </c>
+      <c r="E198" t="s">
+        <v>583</v>
+      </c>
+      <c r="F198" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>45</v>
+      </c>
+      <c r="B199" t="s">
+        <v>498</v>
+      </c>
+      <c r="C199" t="s">
+        <v>140</v>
+      </c>
+      <c r="D199" t="s">
+        <v>524</v>
+      </c>
+      <c r="E199" t="s">
+        <v>585</v>
+      </c>
+      <c r="F199" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" t="s">
+        <v>503</v>
+      </c>
+      <c r="C200" t="s">
+        <v>140</v>
+      </c>
+      <c r="D200" t="s">
+        <v>504</v>
+      </c>
+      <c r="E200" t="s">
+        <v>587</v>
+      </c>
+      <c r="F200" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" t="s">
+        <v>140</v>
+      </c>
+      <c r="D201" t="s">
+        <v>590</v>
+      </c>
+      <c r="E201" t="s">
+        <v>591</v>
+      </c>
+      <c r="F201" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" t="s">
+        <v>593</v>
+      </c>
+      <c r="C202" t="s">
+        <v>140</v>
+      </c>
+      <c r="D202" t="s">
+        <v>594</v>
+      </c>
+      <c r="E202" t="s">
+        <v>595</v>
+      </c>
+      <c r="F202" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B203" t="s">
+        <v>597</v>
+      </c>
+      <c r="C203" t="s">
+        <v>428</v>
+      </c>
+      <c r="D203" t="s">
+        <v>598</v>
+      </c>
+      <c r="E203" t="s">
+        <v>599</v>
+      </c>
+      <c r="F203" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B204" t="s">
+        <v>601</v>
+      </c>
+      <c r="C204" t="s">
+        <v>140</v>
+      </c>
+      <c r="D204" t="s">
+        <v>602</v>
+      </c>
+      <c r="E204" t="s">
+        <v>603</v>
+      </c>
+      <c r="F204" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>477</v>
+      </c>
+      <c r="D205" t="s">
+        <v>477</v>
+      </c>
+      <c r="E205" t="s">
+        <v>605</v>
+      </c>
+      <c r="F205" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>45</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>477</v>
+      </c>
+      <c r="D206" t="s">
+        <v>477</v>
+      </c>
+      <c r="E206" t="s">
+        <v>607</v>
+      </c>
+      <c r="F206" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>547</v>
+      </c>
+      <c r="D207" t="s">
+        <v>547</v>
+      </c>
+      <c r="E207" t="s">
+        <v>609</v>
+      </c>
+      <c r="F207" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>45</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>472</v>
+      </c>
+      <c r="D208" t="s">
+        <v>472</v>
+      </c>
+      <c r="E208" t="s">
+        <v>611</v>
+      </c>
+      <c r="F208" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>477</v>
+      </c>
+      <c r="D209" t="s">
+        <v>477</v>
+      </c>
+      <c r="E209" t="s">
+        <v>613</v>
+      </c>
+      <c r="F209" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>547</v>
+      </c>
+      <c r="D210" t="s">
+        <v>547</v>
+      </c>
+      <c r="E210" t="s">
+        <v>615</v>
+      </c>
+      <c r="F210" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211" t="s">
+        <v>617</v>
+      </c>
+      <c r="C211" t="s">
+        <v>140</v>
+      </c>
+      <c r="D211" t="s">
+        <v>618</v>
+      </c>
+      <c r="E211" t="s">
+        <v>619</v>
+      </c>
+      <c r="F211" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" t="s">
+        <v>621</v>
+      </c>
+      <c r="C212" t="s">
+        <v>140</v>
+      </c>
+      <c r="D212" t="s">
+        <v>622</v>
+      </c>
+      <c r="E212" t="s">
+        <v>623</v>
+      </c>
+      <c r="F212" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>45</v>
+      </c>
+      <c r="B213" t="s">
+        <v>625</v>
+      </c>
+      <c r="C213" t="s">
+        <v>140</v>
+      </c>
+      <c r="D213" t="s">
+        <v>626</v>
+      </c>
+      <c r="E213" t="s">
+        <v>627</v>
+      </c>
+      <c r="F213" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>45</v>
+      </c>
+      <c r="B214" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" t="s">
+        <v>140</v>
+      </c>
+      <c r="D214" t="s">
+        <v>629</v>
+      </c>
+      <c r="E214" t="s">
+        <v>630</v>
+      </c>
+      <c r="F214" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" t="s">
+        <v>393</v>
+      </c>
+      <c r="C215" t="s">
+        <v>140</v>
+      </c>
+      <c r="D215" t="s">
+        <v>394</v>
+      </c>
+      <c r="E215" t="s">
+        <v>632</v>
+      </c>
+      <c r="F215" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s">
+        <v>477</v>
+      </c>
+      <c r="D216" t="s">
+        <v>477</v>
+      </c>
+      <c r="E216" t="s">
+        <v>634</v>
+      </c>
+      <c r="F216" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" t="s">
+        <v>377</v>
+      </c>
+      <c r="C217" t="s">
+        <v>140</v>
+      </c>
+      <c r="D217" t="s">
+        <v>378</v>
+      </c>
+      <c r="E217" t="s">
+        <v>636</v>
+      </c>
+      <c r="F217" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B218" t="s">
+        <v>381</v>
+      </c>
+      <c r="C218" t="s">
+        <v>140</v>
+      </c>
+      <c r="D218" t="s">
+        <v>382</v>
+      </c>
+      <c r="E218" t="s">
+        <v>638</v>
+      </c>
+      <c r="F218" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>547</v>
+      </c>
+      <c r="D219" t="s">
+        <v>547</v>
+      </c>
+      <c r="E219" t="s">
+        <v>640</v>
+      </c>
+      <c r="F219" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>45</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>547</v>
+      </c>
+      <c r="D220" t="s">
+        <v>547</v>
+      </c>
+      <c r="E220" t="s">
+        <v>642</v>
+      </c>
+      <c r="F220" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>45</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>477</v>
+      </c>
+      <c r="D221" t="s">
+        <v>477</v>
+      </c>
+      <c r="E221" t="s">
+        <v>644</v>
+      </c>
+      <c r="F221" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>477</v>
+      </c>
+      <c r="D222" t="s">
+        <v>477</v>
+      </c>
+      <c r="E222" t="s">
+        <v>646</v>
+      </c>
+      <c r="F222" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>45</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>477</v>
+      </c>
+      <c r="D223" t="s">
+        <v>477</v>
+      </c>
+      <c r="E223" t="s">
+        <v>648</v>
+      </c>
+      <c r="F223" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" t="s">
+        <v>547</v>
+      </c>
+      <c r="D224" t="s">
+        <v>547</v>
+      </c>
+      <c r="E224" t="s">
+        <v>650</v>
+      </c>
+      <c r="F224" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>45</v>
+      </c>
+      <c r="B225" t="s">
+        <v>364</v>
+      </c>
+      <c r="C225" t="s">
+        <v>140</v>
+      </c>
+      <c r="D225" t="s">
+        <v>443</v>
+      </c>
+      <c r="E225" t="s">
+        <v>652</v>
+      </c>
+      <c r="F225" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>45</v>
+      </c>
+      <c r="B226" t="s">
+        <v>369</v>
+      </c>
+      <c r="C226" t="s">
+        <v>140</v>
+      </c>
+      <c r="D226" t="s">
+        <v>370</v>
+      </c>
+      <c r="E226" t="s">
+        <v>654</v>
+      </c>
+      <c r="F226" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>45</v>
+      </c>
+      <c r="B227" t="s">
+        <v>656</v>
+      </c>
+      <c r="C227" t="s">
+        <v>140</v>
+      </c>
+      <c r="D227" t="s">
+        <v>657</v>
+      </c>
+      <c r="E227" t="s">
+        <v>658</v>
+      </c>
+      <c r="F227" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>45</v>
+      </c>
+      <c r="B228" t="s">
+        <v>660</v>
+      </c>
+      <c r="C228" t="s">
+        <v>140</v>
+      </c>
+      <c r="D228" t="s">
+        <v>661</v>
+      </c>
+      <c r="E228" t="s">
+        <v>662</v>
+      </c>
+      <c r="F228" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>45</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" t="s">
+        <v>547</v>
+      </c>
+      <c r="D229" t="s">
+        <v>547</v>
+      </c>
+      <c r="E229" t="s">
+        <v>664</v>
+      </c>
+      <c r="F229" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>477</v>
+      </c>
+      <c r="D230" t="s">
+        <v>477</v>
+      </c>
+      <c r="E230" t="s">
+        <v>666</v>
+      </c>
+      <c r="F230" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>45</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" t="s">
+        <v>547</v>
+      </c>
+      <c r="D231" t="s">
+        <v>547</v>
+      </c>
+      <c r="E231" t="s">
+        <v>668</v>
+      </c>
+      <c r="F231" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>477</v>
+      </c>
+      <c r="D232" t="s">
+        <v>477</v>
+      </c>
+      <c r="E232" t="s">
+        <v>670</v>
+      </c>
+      <c r="F232" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>45</v>
+      </c>
+      <c r="B233" t="s">
+        <v>597</v>
+      </c>
+      <c r="C233" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233" t="s">
+        <v>672</v>
+      </c>
+      <c r="E233" t="s">
+        <v>673</v>
+      </c>
+      <c r="F233" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B234" t="s">
+        <v>601</v>
+      </c>
+      <c r="C234" t="s">
+        <v>140</v>
+      </c>
+      <c r="D234" t="s">
+        <v>602</v>
+      </c>
+      <c r="E234" t="s">
+        <v>675</v>
+      </c>
+      <c r="F234" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" t="s">
+        <v>364</v>
+      </c>
+      <c r="C235" t="s">
+        <v>140</v>
+      </c>
+      <c r="D235" t="s">
+        <v>443</v>
+      </c>
+      <c r="E235" t="s">
+        <v>677</v>
+      </c>
+      <c r="F235" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" t="s">
+        <v>369</v>
+      </c>
+      <c r="C236" t="s">
+        <v>140</v>
+      </c>
+      <c r="D236" t="s">
+        <v>370</v>
+      </c>
+      <c r="E236" t="s">
+        <v>679</v>
+      </c>
+      <c r="F236" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237" t="s">
+        <v>681</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" t="s">
+        <v>681</v>
+      </c>
+      <c r="E237" t="s">
+        <v>682</v>
+      </c>
+      <c r="F237" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>45</v>
+      </c>
+      <c r="B238" t="s">
+        <v>377</v>
+      </c>
+      <c r="C238" t="s">
+        <v>140</v>
+      </c>
+      <c r="D238" t="s">
+        <v>378</v>
+      </c>
+      <c r="E238" t="s">
+        <v>684</v>
+      </c>
+      <c r="F238" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239" t="s">
+        <v>381</v>
+      </c>
+      <c r="C239" t="s">
+        <v>140</v>
+      </c>
+      <c r="D239" t="s">
+        <v>382</v>
+      </c>
+      <c r="E239" t="s">
+        <v>686</v>
+      </c>
+      <c r="F239" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240" t="s">
+        <v>389</v>
+      </c>
+      <c r="C240" t="s">
+        <v>140</v>
+      </c>
+      <c r="D240" t="s">
+        <v>629</v>
+      </c>
+      <c r="E240" t="s">
+        <v>688</v>
+      </c>
+      <c r="F240" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>45</v>
+      </c>
+      <c r="B241" t="s">
+        <v>393</v>
+      </c>
+      <c r="C241" t="s">
+        <v>140</v>
+      </c>
+      <c r="D241" t="s">
+        <v>394</v>
+      </c>
+      <c r="E241" t="s">
+        <v>690</v>
+      </c>
+      <c r="F241" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>45</v>
+      </c>
+      <c r="B242" t="s">
+        <v>621</v>
+      </c>
+      <c r="C242" t="s">
+        <v>140</v>
+      </c>
+      <c r="D242" t="s">
+        <v>622</v>
+      </c>
+      <c r="E242" t="s">
+        <v>692</v>
+      </c>
+      <c r="F242" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>45</v>
+      </c>
+      <c r="B243" t="s">
+        <v>625</v>
+      </c>
+      <c r="C243" t="s">
+        <v>140</v>
+      </c>
+      <c r="D243" t="s">
+        <v>626</v>
+      </c>
+      <c r="E243" t="s">
+        <v>694</v>
+      </c>
+      <c r="F243" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>45</v>
+      </c>
+      <c r="B244" t="s">
+        <v>696</v>
+      </c>
+      <c r="C244" t="s">
+        <v>140</v>
+      </c>
+      <c r="D244" t="s">
+        <v>697</v>
+      </c>
+      <c r="E244" t="s">
+        <v>698</v>
+      </c>
+      <c r="F244" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>45</v>
+      </c>
+      <c r="B245" t="s">
+        <v>700</v>
+      </c>
+      <c r="C245" t="s">
+        <v>140</v>
+      </c>
+      <c r="D245" t="s">
+        <v>701</v>
+      </c>
+      <c r="E245" t="s">
+        <v>702</v>
+      </c>
+      <c r="F245" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>45</v>
+      </c>
+      <c r="B246" t="s">
+        <v>656</v>
+      </c>
+      <c r="C246" t="s">
+        <v>140</v>
+      </c>
+      <c r="D246" t="s">
+        <v>657</v>
+      </c>
+      <c r="E246" t="s">
+        <v>704</v>
+      </c>
+      <c r="F246" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" t="s">
+        <v>660</v>
+      </c>
+      <c r="C247" t="s">
+        <v>140</v>
+      </c>
+      <c r="D247" t="s">
+        <v>661</v>
+      </c>
+      <c r="E247" t="s">
+        <v>706</v>
+      </c>
+      <c r="F247" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>45</v>
+      </c>
+      <c r="B248" t="s">
+        <v>377</v>
+      </c>
+      <c r="C248" t="s">
+        <v>140</v>
+      </c>
+      <c r="D248" t="s">
+        <v>378</v>
+      </c>
+      <c r="E248" t="s">
+        <v>708</v>
+      </c>
+      <c r="F248" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>45</v>
+      </c>
+      <c r="B249" t="s">
+        <v>381</v>
+      </c>
+      <c r="C249" t="s">
+        <v>140</v>
+      </c>
+      <c r="D249" t="s">
+        <v>382</v>
+      </c>
+      <c r="E249" t="s">
+        <v>710</v>
+      </c>
+      <c r="F249" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>477</v>
+      </c>
+      <c r="D250" t="s">
+        <v>477</v>
+      </c>
+      <c r="E250" t="s">
+        <v>712</v>
+      </c>
+      <c r="F250" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>45</v>
+      </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>547</v>
+      </c>
+      <c r="D251" t="s">
+        <v>547</v>
+      </c>
+      <c r="E251" t="s">
+        <v>714</v>
+      </c>
+      <c r="F251" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>547</v>
+      </c>
+      <c r="D252" t="s">
+        <v>547</v>
+      </c>
+      <c r="E252" t="s">
+        <v>716</v>
+      </c>
+      <c r="F252" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>547</v>
+      </c>
+      <c r="D253" t="s">
+        <v>547</v>
+      </c>
+      <c r="E253" t="s">
+        <v>718</v>
+      </c>
+      <c r="F253" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>45</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>477</v>
+      </c>
+      <c r="D254" t="s">
+        <v>477</v>
+      </c>
+      <c r="E254" t="s">
+        <v>720</v>
+      </c>
+      <c r="F254" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>45</v>
+      </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>477</v>
+      </c>
+      <c r="D255" t="s">
+        <v>477</v>
+      </c>
+      <c r="E255" t="s">
+        <v>722</v>
+      </c>
+      <c r="F255" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>45</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>477</v>
+      </c>
+      <c r="D256" t="s">
+        <v>477</v>
+      </c>
+      <c r="E256" t="s">
+        <v>724</v>
+      </c>
+      <c r="F256" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>547</v>
+      </c>
+      <c r="D257" t="s">
+        <v>547</v>
+      </c>
+      <c r="E257" t="s">
+        <v>726</v>
+      </c>
+      <c r="F257" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>45</v>
+      </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>477</v>
+      </c>
+      <c r="D258" t="s">
+        <v>477</v>
+      </c>
+      <c r="E258" t="s">
+        <v>728</v>
+      </c>
+      <c r="F258" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>45</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>547</v>
+      </c>
+      <c r="D259" t="s">
+        <v>547</v>
+      </c>
+      <c r="E259" t="s">
+        <v>730</v>
+      </c>
+      <c r="F259" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>45</v>
+      </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>477</v>
+      </c>
+      <c r="D260" t="s">
+        <v>477</v>
+      </c>
+      <c r="E260" t="s">
+        <v>732</v>
+      </c>
+      <c r="F260" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>45</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>477</v>
+      </c>
+      <c r="D261" t="s">
+        <v>477</v>
+      </c>
+      <c r="E261" t="s">
+        <v>734</v>
+      </c>
+      <c r="F261" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>45</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>547</v>
+      </c>
+      <c r="D262" t="s">
+        <v>547</v>
+      </c>
+      <c r="E262" t="s">
+        <v>736</v>
+      </c>
+      <c r="F262" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>45</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>547</v>
+      </c>
+      <c r="D263" t="s">
+        <v>547</v>
+      </c>
+      <c r="E263" t="s">
+        <v>738</v>
+      </c>
+      <c r="F263" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>45</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>547</v>
+      </c>
+      <c r="D264" t="s">
+        <v>547</v>
+      </c>
+      <c r="E264" t="s">
+        <v>740</v>
+      </c>
+      <c r="F264" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>45</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" t="s">
+        <v>477</v>
+      </c>
+      <c r="D265" t="s">
+        <v>477</v>
+      </c>
+      <c r="E265" t="s">
+        <v>742</v>
+      </c>
+      <c r="F265" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>45</v>
+      </c>
+      <c r="B266" t="s">
+        <v>744</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>744</v>
+      </c>
+      <c r="E266" t="s">
+        <v>745</v>
+      </c>
+      <c r="F266" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>45</v>
+      </c>
+      <c r="B267" t="s">
+        <v>747</v>
+      </c>
+      <c r="C267" t="s">
+        <v>140</v>
+      </c>
+      <c r="D267" t="s">
+        <v>748</v>
+      </c>
+      <c r="E267" t="s">
+        <v>749</v>
+      </c>
+      <c r="F267" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>45</v>
+      </c>
+      <c r="B268" t="s">
+        <v>751</v>
+      </c>
+      <c r="C268" t="s">
+        <v>140</v>
+      </c>
+      <c r="D268" t="s">
+        <v>752</v>
+      </c>
+      <c r="E268" t="s">
+        <v>753</v>
+      </c>
+      <c r="F268" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>45</v>
+      </c>
+      <c r="B269" t="s">
+        <v>755</v>
+      </c>
+      <c r="C269" t="s">
+        <v>140</v>
+      </c>
+      <c r="D269" t="s">
+        <v>756</v>
+      </c>
+      <c r="E269" t="s">
+        <v>757</v>
+      </c>
+      <c r="F269" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>45</v>
+      </c>
+      <c r="B270" t="s">
+        <v>759</v>
+      </c>
+      <c r="C270" t="s">
+        <v>140</v>
+      </c>
+      <c r="D270" t="s">
+        <v>760</v>
+      </c>
+      <c r="E270" t="s">
+        <v>761</v>
+      </c>
+      <c r="F270" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>45</v>
+      </c>
+      <c r="B271" t="s">
+        <v>763</v>
+      </c>
+      <c r="C271" t="s">
+        <v>140</v>
+      </c>
+      <c r="D271" t="s">
+        <v>764</v>
+      </c>
+      <c r="E271" t="s">
+        <v>765</v>
+      </c>
+      <c r="F271" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>45</v>
+      </c>
+      <c r="B272" t="s">
+        <v>755</v>
+      </c>
+      <c r="C272" t="s">
+        <v>140</v>
+      </c>
+      <c r="D272" t="s">
+        <v>756</v>
+      </c>
+      <c r="E272" t="s">
+        <v>767</v>
+      </c>
+      <c r="F272" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" t="s">
+        <v>759</v>
+      </c>
+      <c r="C273" t="s">
+        <v>140</v>
+      </c>
+      <c r="D273" t="s">
+        <v>760</v>
+      </c>
+      <c r="E273" t="s">
+        <v>769</v>
+      </c>
+      <c r="F273" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" t="s">
+        <v>755</v>
+      </c>
+      <c r="C274" t="s">
+        <v>140</v>
+      </c>
+      <c r="D274" t="s">
+        <v>756</v>
+      </c>
+      <c r="E274" t="s">
+        <v>771</v>
+      </c>
+      <c r="F274" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" t="s">
+        <v>759</v>
+      </c>
+      <c r="C275" t="s">
+        <v>140</v>
+      </c>
+      <c r="D275" t="s">
+        <v>760</v>
+      </c>
+      <c r="E275" t="s">
+        <v>773</v>
+      </c>
+      <c r="F275" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>45</v>
+      </c>
+      <c r="B276" t="s">
+        <v>755</v>
+      </c>
+      <c r="C276" t="s">
+        <v>140</v>
+      </c>
+      <c r="D276" t="s">
+        <v>756</v>
+      </c>
+      <c r="E276" t="s">
+        <v>775</v>
+      </c>
+      <c r="F276" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" t="s">
+        <v>759</v>
+      </c>
+      <c r="C277" t="s">
+        <v>140</v>
+      </c>
+      <c r="D277" t="s">
+        <v>760</v>
+      </c>
+      <c r="E277" t="s">
+        <v>777</v>
+      </c>
+      <c r="F277" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>45</v>
+      </c>
+      <c r="B278" t="s">
+        <v>779</v>
+      </c>
+      <c r="C278" t="s">
+        <v>140</v>
+      </c>
+      <c r="D278" t="s">
+        <v>780</v>
+      </c>
+      <c r="E278" t="s">
+        <v>781</v>
+      </c>
+      <c r="F278" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>45</v>
+      </c>
+      <c r="B279" t="s">
+        <v>783</v>
+      </c>
+      <c r="C279" t="s">
+        <v>140</v>
+      </c>
+      <c r="D279" t="s">
+        <v>784</v>
+      </c>
+      <c r="E279" t="s">
+        <v>785</v>
+      </c>
+      <c r="F279" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>45</v>
+      </c>
+      <c r="B280" t="s">
+        <v>755</v>
+      </c>
+      <c r="C280" t="s">
+        <v>140</v>
+      </c>
+      <c r="D280" t="s">
+        <v>756</v>
+      </c>
+      <c r="E280" t="s">
+        <v>787</v>
+      </c>
+      <c r="F280" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>45</v>
+      </c>
+      <c r="B281" t="s">
+        <v>759</v>
+      </c>
+      <c r="C281" t="s">
+        <v>140</v>
+      </c>
+      <c r="D281" t="s">
+        <v>760</v>
+      </c>
+      <c r="E281" t="s">
+        <v>789</v>
+      </c>
+      <c r="F281" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>45</v>
+      </c>
+      <c r="B282" t="s">
+        <v>747</v>
+      </c>
+      <c r="C282" t="s">
+        <v>140</v>
+      </c>
+      <c r="D282" t="s">
+        <v>748</v>
+      </c>
+      <c r="E282" t="s">
+        <v>791</v>
+      </c>
+      <c r="F282" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" t="s">
+        <v>793</v>
+      </c>
+      <c r="C283" t="s">
+        <v>140</v>
+      </c>
+      <c r="D283" t="s">
+        <v>794</v>
+      </c>
+      <c r="E283" t="s">
+        <v>795</v>
+      </c>
+      <c r="F283" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>477</v>
+      </c>
+      <c r="D284" t="s">
+        <v>477</v>
+      </c>
+      <c r="E284" t="s">
+        <v>797</v>
+      </c>
+      <c r="F284" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>45</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" t="s">
+        <v>547</v>
+      </c>
+      <c r="D285" t="s">
+        <v>547</v>
+      </c>
+      <c r="E285" t="s">
+        <v>799</v>
+      </c>
+      <c r="F285" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286" t="s">
+        <v>477</v>
+      </c>
+      <c r="D286" t="s">
+        <v>477</v>
+      </c>
+      <c r="E286" t="s">
+        <v>801</v>
+      </c>
+      <c r="F286" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>547</v>
+      </c>
+      <c r="D287" t="s">
+        <v>547</v>
+      </c>
+      <c r="E287" t="s">
+        <v>803</v>
+      </c>
+      <c r="F287" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>45</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>477</v>
+      </c>
+      <c r="D288" t="s">
+        <v>477</v>
+      </c>
+      <c r="E288" t="s">
+        <v>805</v>
+      </c>
+      <c r="F288" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" t="s">
+        <v>477</v>
+      </c>
+      <c r="D289" t="s">
+        <v>477</v>
+      </c>
+      <c r="E289" t="s">
+        <v>807</v>
+      </c>
+      <c r="F289" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>477</v>
+      </c>
+      <c r="D290" t="s">
+        <v>477</v>
+      </c>
+      <c r="E290" t="s">
+        <v>809</v>
+      </c>
+      <c r="F290" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" t="s">
+        <v>547</v>
+      </c>
+      <c r="D291" t="s">
+        <v>547</v>
+      </c>
+      <c r="E291" t="s">
+        <v>811</v>
+      </c>
+      <c r="F291" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" t="s">
+        <v>547</v>
+      </c>
+      <c r="D292" t="s">
+        <v>547</v>
+      </c>
+      <c r="E292" t="s">
+        <v>813</v>
+      </c>
+      <c r="F292" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" t="s">
+        <v>547</v>
+      </c>
+      <c r="D293" t="s">
+        <v>547</v>
+      </c>
+      <c r="E293" t="s">
+        <v>815</v>
+      </c>
+      <c r="F293" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" t="s">
+        <v>477</v>
+      </c>
+      <c r="D294" t="s">
+        <v>477</v>
+      </c>
+      <c r="E294" t="s">
+        <v>817</v>
+      </c>
+      <c r="F294" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>45</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" t="s">
+        <v>472</v>
+      </c>
+      <c r="D295" t="s">
+        <v>472</v>
+      </c>
+      <c r="E295" t="s">
+        <v>819</v>
+      </c>
+      <c r="F295" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>821</v>
+      </c>
+      <c r="C296" t="s">
+        <v>140</v>
+      </c>
+      <c r="D296" t="s">
+        <v>822</v>
+      </c>
+      <c r="E296" t="s">
+        <v>823</v>
+      </c>
+      <c r="F296" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>825</v>
+      </c>
+      <c r="C297" t="s">
+        <v>140</v>
+      </c>
+      <c r="D297" t="s">
+        <v>826</v>
+      </c>
+      <c r="E297" t="s">
+        <v>827</v>
+      </c>
+      <c r="F297" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>45</v>
+      </c>
+      <c r="B298" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" t="s">
+        <v>472</v>
+      </c>
+      <c r="D298" t="s">
+        <v>472</v>
+      </c>
+      <c r="E298" t="s">
+        <v>829</v>
+      </c>
+      <c r="F298" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>45</v>
+      </c>
+      <c r="B299" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" t="s">
+        <v>477</v>
+      </c>
+      <c r="D299" t="s">
+        <v>477</v>
+      </c>
+      <c r="E299" t="s">
+        <v>831</v>
+      </c>
+      <c r="F299" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>45</v>
+      </c>
+      <c r="B300" t="s">
+        <v>833</v>
+      </c>
+      <c r="C300" t="s">
+        <v>140</v>
+      </c>
+      <c r="D300" t="s">
+        <v>834</v>
+      </c>
+      <c r="E300" t="s">
+        <v>835</v>
+      </c>
+      <c r="F300" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>45</v>
+      </c>
+      <c r="B301" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301" t="s">
+        <v>472</v>
+      </c>
+      <c r="D301" t="s">
+        <v>472</v>
+      </c>
+      <c r="E301" t="s">
+        <v>837</v>
+      </c>
+      <c r="F301" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>45</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>472</v>
+      </c>
+      <c r="D302" t="s">
+        <v>472</v>
+      </c>
+      <c r="E302" t="s">
+        <v>839</v>
+      </c>
+      <c r="F302" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>45</v>
+      </c>
+      <c r="B303" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" t="s">
+        <v>472</v>
+      </c>
+      <c r="D303" t="s">
+        <v>472</v>
+      </c>
+      <c r="E303" t="s">
+        <v>841</v>
+      </c>
+      <c r="F303" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>45</v>
+      </c>
+      <c r="B304" t="s">
+        <v>843</v>
+      </c>
+      <c r="C304" t="s">
+        <v>140</v>
+      </c>
+      <c r="D304" t="s">
+        <v>844</v>
+      </c>
+      <c r="E304" t="s">
+        <v>845</v>
+      </c>
+      <c r="F304" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>45</v>
+      </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" t="s">
+        <v>472</v>
+      </c>
+      <c r="D305" t="s">
+        <v>472</v>
+      </c>
+      <c r="E305" t="s">
+        <v>847</v>
+      </c>
+      <c r="F305" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" t="s">
+        <v>849</v>
+      </c>
+      <c r="C306" t="s">
+        <v>140</v>
+      </c>
+      <c r="D306" t="s">
+        <v>850</v>
+      </c>
+      <c r="E306" t="s">
+        <v>851</v>
+      </c>
+      <c r="F306" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>45</v>
+      </c>
+      <c r="B307" t="s">
+        <v>853</v>
+      </c>
+      <c r="C307" t="s">
+        <v>140</v>
+      </c>
+      <c r="D307" t="s">
+        <v>854</v>
+      </c>
+      <c r="E307" t="s">
+        <v>855</v>
+      </c>
+      <c r="F307" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>45</v>
+      </c>
+      <c r="B308" t="s">
+        <v>849</v>
+      </c>
+      <c r="C308" t="s">
+        <v>140</v>
+      </c>
+      <c r="D308" t="s">
+        <v>850</v>
+      </c>
+      <c r="E308" t="s">
+        <v>857</v>
+      </c>
+      <c r="F308" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>45</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>477</v>
+      </c>
+      <c r="D309" t="s">
+        <v>477</v>
+      </c>
+      <c r="E309" t="s">
+        <v>859</v>
+      </c>
+      <c r="F309" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>45</v>
+      </c>
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" t="s">
+        <v>472</v>
+      </c>
+      <c r="D310" t="s">
+        <v>472</v>
+      </c>
+      <c r="E310" t="s">
+        <v>861</v>
+      </c>
+      <c r="F310" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>45</v>
+      </c>
+      <c r="B311" t="s">
+        <v>853</v>
+      </c>
+      <c r="C311" t="s">
+        <v>140</v>
+      </c>
+      <c r="D311" t="s">
+        <v>854</v>
+      </c>
+      <c r="E311" t="s">
+        <v>863</v>
+      </c>
+      <c r="F311" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>45</v>
+      </c>
+      <c r="B312" t="s">
+        <v>865</v>
+      </c>
+      <c r="C312" t="s">
+        <v>140</v>
+      </c>
+      <c r="D312" t="s">
+        <v>866</v>
+      </c>
+      <c r="E312" t="s">
+        <v>867</v>
+      </c>
+      <c r="F312" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>45</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" t="s">
+        <v>477</v>
+      </c>
+      <c r="D313" t="s">
+        <v>477</v>
+      </c>
+      <c r="E313" t="s">
+        <v>869</v>
+      </c>
+      <c r="F313" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>45</v>
+      </c>
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" t="s">
+        <v>472</v>
+      </c>
+      <c r="D314" t="s">
+        <v>472</v>
+      </c>
+      <c r="E314" t="s">
+        <v>871</v>
+      </c>
+      <c r="F314" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>45</v>
+      </c>
+      <c r="B315" t="s">
+        <v>865</v>
+      </c>
+      <c r="C315" t="s">
+        <v>140</v>
+      </c>
+      <c r="D315" t="s">
+        <v>866</v>
+      </c>
+      <c r="E315" t="s">
+        <v>873</v>
+      </c>
+      <c r="F315" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>875</v>
+      </c>
+      <c r="B316" t="s">
+        <v>876</v>
+      </c>
+      <c r="C316" t="s">
+        <v>877</v>
+      </c>
+      <c r="D316" t="s">
+        <v>878</v>
+      </c>
+      <c r="E316" t="s">
+        <v>879</v>
+      </c>
+      <c r="F316" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>875</v>
+      </c>
+      <c r="B317" t="s">
+        <v>876</v>
+      </c>
+      <c r="C317" t="s">
+        <v>877</v>
+      </c>
+      <c r="D317" t="s">
+        <v>878</v>
+      </c>
+      <c r="E317" t="s">
+        <v>881</v>
+      </c>
+      <c r="F317" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="E320" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -114,37 +114,10 @@
     <t>2020-01-20 23:05:05</t>
   </si>
   <si>
-    <t>$10.00</t>
-  </si>
-  <si>
-    <t>transaction for FBA - ID: 29</t>
-  </si>
-  <si>
-    <t>2020-01-20 23:11:24</t>
-  </si>
-  <si>
-    <t>transaction for FBA - ID: 2</t>
-  </si>
-  <si>
-    <t>2020-01-20 23:12:51</t>
-  </si>
-  <si>
-    <t>transaction for FBA - ID: 32</t>
-  </si>
-  <si>
-    <t>2020-01-21 03:10:33</t>
-  </si>
-  <si>
-    <t>transaction for FBA - ID: 33</t>
-  </si>
-  <si>
-    <t>2020-01-21 03:19:26</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$154.18</t>
+    <t>$114.18</t>
   </si>
 </sst>
 </file>
@@ -498,10 +471,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,10 +624,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -758,92 +731,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="16" spans="1:6">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -114,10 +114,52 @@
     <t>2020-01-20 23:05:05</t>
   </si>
   <si>
+    <t>$14.99</t>
+  </si>
+  <si>
+    <t>$3.00</t>
+  </si>
+  <si>
+    <t>$17.99</t>
+  </si>
+  <si>
+    <t>2020-03-08 15:59:41</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:02:49</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:04:19</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:13:42</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:14:27</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:16:07</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:17:50</t>
+  </si>
+  <si>
+    <t>$31.18</t>
+  </si>
+  <si>
+    <t>$34.18</t>
+  </si>
+  <si>
+    <t>label fee for order - ID: 18  store order ID: w3rwffsfsd2500</t>
+  </si>
+  <si>
+    <t>2020-03-08 16:23:05</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$114.18</t>
+    <t>$274.29</t>
   </si>
 </sst>
 </file>
@@ -471,10 +513,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,7 +525,7 @@
     <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="69.554443" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="71.8396" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -624,10 +666,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -731,12 +773,172 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="C16" t="s">
         <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -42,10 +42,22 @@
     <t>Date Added</t>
   </si>
   <si>
+    <t>Sam Shao</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>2020-04-17 20:44:41</t>
+  </si>
+  <si>
     <t>Total Amount</t>
-  </si>
-  <si>
-    <t>$0.00</t>
   </si>
 </sst>
 </file>
@@ -399,20 +411,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.567383" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -447,12 +459,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="E5" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1299">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3899,12 +3899,6 @@
     <t>2020-04-23 10:28:57</t>
   </si>
   <si>
-    <t>transaction for checkout - ID: 375</t>
-  </si>
-  <si>
-    <t>2020-04-23 10:29:03</t>
-  </si>
-  <si>
     <t>$1,000.00</t>
   </si>
   <si>
@@ -3920,7 +3914,7 @@
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$5,022,357.18</t>
+    <t>$5,022,351.18</t>
   </si>
 </sst>
 </file>
@@ -4274,10 +4268,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F470"/>
+  <dimension ref="A1:F469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F470" sqref="F470"/>
+      <selection activeCell="F469" sqref="F469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13528,48 +13522,28 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" t="s">
-        <v>45</v>
+        <v>895</v>
       </c>
       <c r="B466" t="s">
-        <v>10</v>
+        <v>1293</v>
       </c>
       <c r="C466" t="s">
-        <v>472</v>
+        <v>1294</v>
       </c>
       <c r="D466" t="s">
-        <v>472</v>
-      </c>
-      <c r="E466" t="s">
-        <v>1293</v>
-      </c>
+        <v>1295</v>
+      </c>
+      <c r="E466"/>
       <c r="F466" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6">
-      <c r="A467" t="s">
-        <v>895</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C467" t="s">
         <v>1296</v>
       </c>
-      <c r="D467" t="s">
+    </row>
+    <row r="469" spans="1:6">
+      <c r="E469" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="E467"/>
-      <c r="F467" t="s">
+      <c r="F469" s="1" t="s">
         <v>1298</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="E470" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/transaction.xlsx
+++ b/admin/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1301">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3911,10 +3911,16 @@
     <t>2020-06-04 05:08:14</t>
   </si>
   <si>
+    <t>transaction for checkout - ID: 377</t>
+  </si>
+  <si>
+    <t>2020-07-19 02:01:45</t>
+  </si>
+  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$5,022,351.18</t>
+    <t>$5,022,361.18</t>
   </si>
 </sst>
 </file>
@@ -4268,10 +4274,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F469"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F469" sqref="F469"/>
+      <selection activeCell="F470" sqref="F470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13538,12 +13544,32 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
-      <c r="E469" s="1" t="s">
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>895</v>
+      </c>
+      <c r="B467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C467" t="s">
+        <v>365</v>
+      </c>
+      <c r="D467" t="s">
+        <v>365</v>
+      </c>
+      <c r="E467" t="s">
         <v>1297</v>
       </c>
-      <c r="F469" s="1" t="s">
+      <c r="F467" t="s">
         <v>1298</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="E470" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
